--- a/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
+++ b/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,14 +1630,14 @@
         <v>5</v>
       </c>
       <c r="I43" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J43" s="10">
         <v>1699</v>
       </c>
       <c r="K43" s="10">
         <f t="shared" ref="K43" si="11">J43*I43</f>
-        <v>11893</v>
+        <v>23786</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -1688,14 +1688,14 @@
       </c>
       <c r="I45" s="5">
         <f>2*I43+2*I44</f>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J45" s="10">
         <v>0.5</v>
       </c>
       <c r="K45" s="10">
         <f>J45*I45</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1812,14 +1812,14 @@
         <v>40</v>
       </c>
       <c r="I50" s="29">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J50" s="26">
         <v>13</v>
       </c>
       <c r="K50" s="26">
         <f t="shared" si="13"/>
-        <v>273</v>
+        <v>546</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I64" s="18">
         <f>C62+I50+C49+I37+I20+C24+I9+C9</f>
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="J64" s="18"/>
       <c r="K64" s="18"/>

--- a/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
+++ b/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="64">
   <si>
     <t>Piso:</t>
   </si>
@@ -154,6 +154,60 @@
   </si>
   <si>
     <t>Switch Fibra</t>
+  </si>
+  <si>
+    <t>Fibra óptica</t>
+  </si>
+  <si>
+    <t>33 +  30</t>
+  </si>
+  <si>
+    <t>19,2 + 17,9 + 19,7 + 22,6 + 24,2 + 26,1</t>
+  </si>
+  <si>
+    <t>19,7 + 18,4 + 20,2 + 23,1 + 24,7 + 16,6</t>
+  </si>
+  <si>
+    <t>22,5 + 21,2 + 23,0 + 25,9 + 27,5 + 29,4</t>
+  </si>
+  <si>
+    <t>3,6 de  subida y 3,6 de bajada al techo</t>
+  </si>
+  <si>
+    <t>UTP</t>
+  </si>
+  <si>
+    <t>10 + 11,2 + 16,2 + 23 + 22,2 + 24</t>
+  </si>
+  <si>
+    <t>4,6 + 18,4 + 24</t>
+  </si>
+  <si>
+    <t>43 + 45,9 + 48,8 + 52,9 + 57,6</t>
+  </si>
+  <si>
+    <t>502m total</t>
+  </si>
+  <si>
+    <t>401,8m parcial</t>
+  </si>
+  <si>
+    <t>639,6m total</t>
+  </si>
+  <si>
+    <t>488m parcial</t>
+  </si>
+  <si>
+    <t>18,3 + 21,7</t>
+  </si>
+  <si>
+    <t>43,1 + 47 + 58</t>
+  </si>
+  <si>
+    <t>202,2m parcial</t>
+  </si>
+  <si>
+    <t>252,6m total</t>
   </si>
 </sst>
 </file>
@@ -295,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -361,6 +415,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L76"/>
+  <dimension ref="A2:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,16 +743,16 @@
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="9" max="9" width="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,15 +760,16 @@
         <v>10</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="34"/>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -712,21 +783,22 @@
       <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="7" t="s">
+      <c r="F3" s="27"/>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -740,21 +812,22 @@
         <f t="shared" ref="E4:E9" si="0">D4*C4</f>
         <v>1620</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="F4" s="27"/>
+      <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="5">
-        <v>2</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+      <c r="K4" s="10">
         <v>810</v>
       </c>
-      <c r="K4" s="10">
-        <f t="shared" ref="K4:K9" si="1">J4*I4</f>
+      <c r="L4" s="10">
+        <f t="shared" ref="L4:L9" si="1">K4*J4</f>
         <v>1620</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -768,21 +841,22 @@
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="F5" s="27"/>
+      <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="10">
-        <v>1</v>
-      </c>
       <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
         <v>195</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -797,50 +871,52 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="F6" s="27"/>
+      <c r="I6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="5">
-        <f>2*I5</f>
-        <v>2</v>
-      </c>
-      <c r="J6" s="10">
+      <c r="J6" s="5">
+        <f>2*J5</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="10">
         <v>0.5</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="10">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="D7" s="10">
         <v>0.85</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="0"/>
-        <v>5.95</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>3.6549999999999998</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="10">
-        <v>5</v>
-      </c>
       <c r="J7" s="10">
+        <v>603</v>
+      </c>
+      <c r="K7" s="10">
         <v>0.85</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="10">
         <f t="shared" si="1"/>
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>512.54999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
@@ -854,49 +930,54 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="27"/>
+      <c r="I8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="10">
-        <v>1</v>
-      </c>
-      <c r="J8" s="26">
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+      <c r="K8" s="26">
         <v>12</v>
       </c>
-      <c r="K8" s="26">
+      <c r="L8" s="26">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" s="10">
         <v>13</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="H9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="I9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="10">
-        <v>4</v>
-      </c>
-      <c r="J9" s="26">
+      <c r="J9" s="10">
+        <v>6</v>
+      </c>
+      <c r="K9" s="26">
         <v>13</v>
       </c>
-      <c r="K9" s="26">
+      <c r="L9" s="26">
         <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,17 +985,18 @@
         <v>1</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="G11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
+      <c r="F11" s="34"/>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8"/>
       <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
@@ -927,23 +1009,24 @@
       <c r="E12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="F12" s="27"/>
+      <c r="I12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -957,24 +1040,25 @@
         <f>D13*C13</f>
         <v>450</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="F13" s="27"/>
+      <c r="I13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="5">
         <v>4</v>
       </c>
-      <c r="J13" s="10">
+      <c r="K13" s="10">
         <v>450</v>
       </c>
-      <c r="K13" s="10">
-        <f>J13*I13</f>
+      <c r="L13" s="10">
+        <f>K13*J13</f>
         <v>1800</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -988,21 +1072,22 @@
         <f t="shared" ref="E14" si="2">D14*C14</f>
         <v>16990</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="F14" s="27"/>
+      <c r="I14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="5">
         <v>21</v>
       </c>
-      <c r="J14" s="10">
+      <c r="K14" s="10">
         <v>1699</v>
       </c>
-      <c r="K14" s="10">
-        <f t="shared" ref="K14" si="3">J14*I14</f>
+      <c r="L14" s="10">
+        <f t="shared" ref="L14" si="3">K14*J14</f>
         <v>35679</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
@@ -1016,21 +1101,22 @@
         <f>D15*C15</f>
         <v>125</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="F15" s="31"/>
+      <c r="I15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10">
         <v>1700</v>
       </c>
-      <c r="K15" s="10">
-        <f>J15*I15</f>
+      <c r="L15" s="10">
+        <f>K15*J15</f>
         <v>1700</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
@@ -1044,22 +1130,22 @@
         <f>D16*C16</f>
         <v>4120</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="F16" s="31"/>
+      <c r="I16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="5">
-        <f>2*I14+2*I15</f>
-        <v>44</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="J16" s="5">
+        <v>42</v>
+      </c>
+      <c r="K16" s="10">
         <v>0.5</v>
       </c>
-      <c r="K16" s="10">
-        <f>J16*I16</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="10">
+        <f>K16*J16</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,19 +1159,20 @@
         <f>D17*C17</f>
         <v>1700</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="F17" s="31"/>
+      <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="10">
+      <c r="J17" s="19"/>
+      <c r="K17" s="10">
         <v>0.85</v>
       </c>
-      <c r="K17" s="10">
-        <f t="shared" ref="K17:K20" si="4">J17*I17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="10">
+        <f t="shared" ref="L17:L20" si="4">K17*J17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1100,21 +1187,22 @@
         <f>D18*C18</f>
         <v>12</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="F18" s="31"/>
+      <c r="I18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="10">
-        <v>1</v>
-      </c>
       <c r="J18" s="10">
+        <v>1</v>
+      </c>
+      <c r="K18" s="10">
         <v>1190</v>
       </c>
-      <c r="K18" s="10">
+      <c r="L18" s="10">
         <f t="shared" si="4"/>
         <v>1190</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1126,21 +1214,22 @@
         <f t="shared" ref="E19:E25" si="5">D19*C19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="F19" s="31"/>
+      <c r="I19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="25">
+      <c r="J19" s="25">
         <v>6</v>
       </c>
-      <c r="J19" s="26">
+      <c r="K19" s="26">
         <v>12</v>
       </c>
-      <c r="K19" s="26">
+      <c r="L19" s="26">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1154,21 +1243,22 @@
         <f t="shared" si="5"/>
         <v>1190</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="F20" s="31"/>
+      <c r="I20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="10">
-        <v>63</v>
-      </c>
-      <c r="J20" s="26">
+      <c r="J20" s="10">
+        <v>84</v>
+      </c>
+      <c r="K20" s="26">
         <v>13</v>
       </c>
-      <c r="K20" s="26">
+      <c r="L20" s="26">
         <f t="shared" si="4"/>
-        <v>819</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,8 +1272,20 @@
         <f t="shared" si="5"/>
         <v>195</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F21" s="27"/>
+      <c r="I21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="10">
+        <v>5</v>
+      </c>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26">
+        <f t="shared" ref="L21" si="6">K21*J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1197,8 +1299,9 @@
         <f t="shared" si="5"/>
         <v>9996</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
@@ -1212,23 +1315,25 @@
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D24" s="26">
         <v>13</v>
       </c>
       <c r="E24" s="26">
         <f t="shared" si="5"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="F24" s="27"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
@@ -1242,8 +1347,14 @@
         <f t="shared" si="5"/>
         <v>5700</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1253,17 +1364,21 @@
       <c r="C27" s="8"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="G27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="F27" s="6"/>
+      <c r="H27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
         <v>3</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="8"/>
       <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L27" s="6"/>
+      <c r="N27" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
@@ -1276,23 +1391,24 @@
       <c r="E28" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" s="7" t="s">
+      <c r="F28" s="27"/>
+      <c r="I28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="K28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="L28" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
@@ -1306,24 +1422,25 @@
         <f>D29*C29</f>
         <v>2700</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="F29" s="31"/>
+      <c r="I29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="5">
-        <v>2</v>
-      </c>
-      <c r="J29" s="10">
+      <c r="J29" s="5">
+        <v>2</v>
+      </c>
+      <c r="K29" s="10">
         <v>450</v>
       </c>
-      <c r="K29" s="10">
-        <f>J29*I29</f>
+      <c r="L29" s="10">
+        <f>K29*J29</f>
         <v>900</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1334,24 +1451,28 @@
         <v>1699</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" ref="E30" si="6">D30*C30</f>
+        <f t="shared" ref="E30" si="7">D30*C30</f>
         <v>23786</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="F30" s="31"/>
+      <c r="I30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="5">
+      <c r="J30" s="5">
         <v>21</v>
       </c>
-      <c r="J30" s="10">
+      <c r="K30" s="10">
         <v>1699</v>
       </c>
-      <c r="K30" s="10">
-        <f t="shared" ref="K30" si="7">J30*I30</f>
+      <c r="L30" s="10">
+        <f t="shared" ref="L30" si="8">K30*J30</f>
         <v>35679</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N30" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
@@ -1365,51 +1486,57 @@
         <f>D31*C31</f>
         <v>1700</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="F31" s="31"/>
+      <c r="I31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="5">
-        <v>1</v>
-      </c>
-      <c r="J31" s="10">
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="10">
         <v>1700</v>
       </c>
-      <c r="K31" s="10">
-        <f>J31*I31</f>
+      <c r="L31" s="10">
+        <f>K31*J31</f>
         <v>1700</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N31" s="33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="5">
-        <f>2*C30+2*C31</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" s="10">
         <v>0.5</v>
       </c>
       <c r="E32" s="10">
         <f>D32*C32</f>
-        <v>15</v>
-      </c>
-      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="I32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="5">
-        <f>2*I30+2*I31</f>
-        <v>44</v>
-      </c>
-      <c r="J32" s="10">
+      <c r="J32" s="5">
+        <v>42</v>
+      </c>
+      <c r="K32" s="10">
         <v>0.5</v>
       </c>
-      <c r="K32" s="10">
-        <f>J32*I32</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="10">
+        <f>K32*J32</f>
+        <v>21</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
@@ -1418,22 +1545,28 @@
         <v>0.85</v>
       </c>
       <c r="E33" s="10">
-        <f t="shared" ref="E33:E36" si="8">D33*C33</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="1" t="s">
+        <f t="shared" ref="E33:E37" si="9">D33*C33</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="I33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="10"/>
       <c r="J33" s="10">
+        <v>639.6</v>
+      </c>
+      <c r="K33" s="10">
         <v>0.85</v>
       </c>
-      <c r="K33" s="10">
-        <f t="shared" ref="K33:K37" si="9">J33*I33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="10">
+        <f t="shared" ref="L33:L38" si="10">K33*J33</f>
+        <v>543.66</v>
+      </c>
+      <c r="N33" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
@@ -1444,24 +1577,28 @@
         <v>1190</v>
       </c>
       <c r="E34" s="10">
-        <f t="shared" si="8"/>
-        <v>1190</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="10">
-        <v>1</v>
-      </c>
-      <c r="J34" s="10">
-        <v>1190</v>
-      </c>
-      <c r="K34" s="10">
         <f t="shared" si="9"/>
         <v>1190</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F34" s="31"/>
+      <c r="I34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="10">
+        <v>1</v>
+      </c>
+      <c r="K34" s="10">
+        <v>1190</v>
+      </c>
+      <c r="L34" s="10">
+        <f t="shared" si="10"/>
+        <v>1190</v>
+      </c>
+      <c r="N34" s="33">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
@@ -1472,553 +1609,614 @@
         <v>12</v>
       </c>
       <c r="E35" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="F35" s="31"/>
+      <c r="I35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I35" s="25">
-        <v>1</v>
-      </c>
-      <c r="J35" s="26">
+      <c r="J35" s="25">
+        <v>1</v>
+      </c>
+      <c r="K35" s="26">
         <v>3934</v>
       </c>
-      <c r="K35" s="26">
-        <f t="shared" si="9"/>
+      <c r="L35" s="26">
+        <f t="shared" si="10"/>
         <v>3934</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="10">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D36" s="26">
         <v>13</v>
       </c>
       <c r="E36" s="10">
-        <f t="shared" si="8"/>
-        <v>546</v>
-      </c>
-      <c r="H36" s="1" t="s">
+        <f t="shared" si="9"/>
+        <v>728</v>
+      </c>
+      <c r="F36" s="31"/>
+      <c r="I36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I36" s="25">
+      <c r="J36" s="25">
         <v>6</v>
       </c>
-      <c r="J36" s="26">
+      <c r="K36" s="26">
         <v>12</v>
       </c>
-      <c r="K36" s="26">
+      <c r="L36" s="26">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="10">
+        <v>9</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26">
         <f t="shared" si="9"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="I37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="10">
-        <v>63</v>
-      </c>
-      <c r="J37" s="26">
+      <c r="J37" s="10">
+        <v>84</v>
+      </c>
+      <c r="K37" s="26">
         <v>13</v>
       </c>
-      <c r="K37" s="26">
-        <f t="shared" si="9"/>
-        <v>819</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="2">
+      <c r="L37" s="26">
+        <f t="shared" si="10"/>
+        <v>1092</v>
+      </c>
+      <c r="N37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="10">
+        <v>13</v>
+      </c>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2">
         <v>4</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="G40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
+      <c r="C41" s="8"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
         <v>5</v>
       </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="J41" s="8"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E42" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I41" s="7" t="s">
+      <c r="F42" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="K42" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="L42" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L41">
+      <c r="M42">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="N42" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C43" s="5">
         <v>4</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D43" s="10">
         <v>450</v>
       </c>
-      <c r="E42" s="10">
-        <f>D42*C42</f>
+      <c r="E43" s="10">
+        <f>D43*C43</f>
         <v>1800</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="F43" s="35"/>
+      <c r="I43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="5">
+      <c r="J43" s="5">
         <v>4</v>
       </c>
-      <c r="J42" s="10">
+      <c r="K43" s="10">
         <v>450</v>
       </c>
-      <c r="K42" s="10">
-        <f>J42*I42</f>
+      <c r="L43" s="10">
+        <f>K43*J43</f>
         <v>1800</v>
       </c>
-      <c r="L42">
+      <c r="M43">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+      <c r="N43" s="33"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="5">
-        <v>9</v>
-      </c>
-      <c r="D43" s="10">
+      <c r="C44" s="5">
+        <v>14</v>
+      </c>
+      <c r="D44" s="10">
         <v>1699</v>
       </c>
-      <c r="E43" s="10">
-        <f t="shared" ref="E43" si="10">D43*C43</f>
-        <v>15291</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="E44" s="10">
+        <f t="shared" ref="E44" si="11">D44*C44</f>
+        <v>23786</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I43" s="5">
-        <v>14</v>
-      </c>
-      <c r="J43" s="10">
+      <c r="J44" s="5">
+        <v>7</v>
+      </c>
+      <c r="K44" s="10">
         <v>1699</v>
       </c>
-      <c r="K43" s="10">
-        <f t="shared" ref="K43" si="11">J43*I43</f>
-        <v>23786</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
+      <c r="L44" s="10">
+        <f t="shared" ref="L44" si="12">K44*J44</f>
+        <v>11893</v>
+      </c>
+      <c r="N44" s="33">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="5">
-        <v>1</v>
-      </c>
-      <c r="D44" s="10">
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10">
         <v>1700</v>
-      </c>
-      <c r="E44" s="10">
-        <f>D44*C44</f>
-        <v>1700</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I44" s="5">
-        <v>1</v>
-      </c>
-      <c r="J44" s="10">
-        <v>1700</v>
-      </c>
-      <c r="K44" s="10">
-        <f>J44*I44</f>
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="5">
-        <f>2*C43+2*C44</f>
-        <v>20</v>
-      </c>
-      <c r="D45" s="10">
-        <v>0.5</v>
       </c>
       <c r="E45" s="10">
         <f>D45*C45</f>
-        <v>10</v>
-      </c>
-      <c r="H45" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="5">
+        <v>1</v>
+      </c>
+      <c r="K45" s="10">
+        <v>1700</v>
+      </c>
+      <c r="L45" s="10">
+        <f>K45*J45</f>
+        <v>1700</v>
+      </c>
+      <c r="N45" s="33">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I45" s="5">
-        <f>2*I43+2*I44</f>
-        <v>30</v>
-      </c>
-      <c r="J45" s="10">
+      <c r="C46" s="5">
+        <v>28</v>
+      </c>
+      <c r="D46" s="10">
         <v>0.5</v>
       </c>
-      <c r="K45" s="10">
-        <f>J45*I45</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+      <c r="E46" s="10">
+        <f>D46*C46</f>
+        <v>14</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="5">
+        <v>14</v>
+      </c>
+      <c r="K46" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L46" s="10">
+        <f>K46*J46</f>
+        <v>7</v>
+      </c>
+      <c r="N46" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10">
+      <c r="C47" s="10">
+        <v>502</v>
+      </c>
+      <c r="D47" s="10">
         <v>0.85</v>
       </c>
-      <c r="E46" s="10">
-        <f t="shared" ref="E46:E49" si="12">D46*C46</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="1" t="s">
+      <c r="E47" s="10">
+        <f t="shared" ref="E47:E51" si="13">D47*C47</f>
+        <v>426.7</v>
+      </c>
+      <c r="F47" s="36"/>
+      <c r="I47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10">
+      <c r="J47" s="10">
+        <v>252.6</v>
+      </c>
+      <c r="K47" s="10">
         <v>0.85</v>
       </c>
-      <c r="K46" s="10">
-        <f t="shared" ref="K46:K50" si="13">J46*I46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+      <c r="L47" s="10">
+        <f t="shared" ref="L47:L52" si="14">K47*J47</f>
+        <v>214.70999999999998</v>
+      </c>
+      <c r="N47" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="10">
-        <v>1</v>
-      </c>
-      <c r="D47" s="10">
+      <c r="C48" s="10">
+        <v>1</v>
+      </c>
+      <c r="D48" s="10">
         <v>1190</v>
       </c>
-      <c r="E47" s="10">
-        <f t="shared" si="12"/>
-        <v>1190</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="10">
-        <v>1</v>
-      </c>
-      <c r="J47" s="10">
-        <v>1190</v>
-      </c>
-      <c r="K47" s="10">
+      <c r="E48" s="10">
         <f t="shared" si="13"/>
         <v>1190</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+      <c r="F48" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" s="10">
+        <v>1</v>
+      </c>
+      <c r="K48" s="10">
+        <v>1190</v>
+      </c>
+      <c r="L48" s="10">
+        <f t="shared" si="14"/>
+        <v>1190</v>
+      </c>
+      <c r="N48" s="33"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="25">
+      <c r="C49" s="25">
         <v>3</v>
       </c>
-      <c r="D48" s="26">
+      <c r="D49" s="26">
         <v>12</v>
       </c>
-      <c r="E48" s="26">
-        <f t="shared" si="12"/>
+      <c r="E49" s="26">
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="F49" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I48" s="25">
-        <v>1</v>
-      </c>
-      <c r="J48" s="26">
+      <c r="J49" s="25">
+        <v>1</v>
+      </c>
+      <c r="K49" s="26">
         <v>3935</v>
       </c>
-      <c r="K48" s="26">
+      <c r="L49" s="26">
+        <f t="shared" si="14"/>
+        <v>3935</v>
+      </c>
+      <c r="N49" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="10">
+        <v>56</v>
+      </c>
+      <c r="D50" s="26">
+        <v>13</v>
+      </c>
+      <c r="E50" s="26">
         <f t="shared" si="13"/>
-        <v>3935</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="F50" s="35"/>
+      <c r="I50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50" s="25">
+        <v>2</v>
+      </c>
+      <c r="K50" s="26">
+        <v>12</v>
+      </c>
+      <c r="L50" s="26">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="N50" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="10">
+        <v>17</v>
+      </c>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="35"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="10">
-        <v>27</v>
-      </c>
-      <c r="D49" s="26">
+      <c r="J51" s="29">
+        <v>28</v>
+      </c>
+      <c r="K51" s="26">
         <v>13</v>
       </c>
-      <c r="E49" s="26">
-        <f t="shared" si="12"/>
-        <v>351</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I49" s="25">
-        <v>2</v>
-      </c>
-      <c r="J49" s="26">
-        <v>12</v>
-      </c>
-      <c r="K49" s="26">
-        <f t="shared" si="13"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G50" s="12"/>
-      <c r="H50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I50" s="29">
-        <v>42</v>
-      </c>
-      <c r="J50" s="26">
-        <v>13</v>
-      </c>
-      <c r="K50" s="26">
-        <f t="shared" si="13"/>
-        <v>546</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="L51" s="26">
+        <f t="shared" si="14"/>
+        <v>364</v>
+      </c>
+      <c r="N51" s="33"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H52" s="12"/>
+      <c r="I52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J52" s="10">
+        <v>21</v>
+      </c>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="33"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="H52" s="12"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="8"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D55" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E55" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="F55" s="27"/>
+      <c r="H55" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H53" s="21"/>
-      <c r="L53">
+      <c r="I55" s="21"/>
+      <c r="M55">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="5">
-        <v>1</v>
-      </c>
-      <c r="D54" s="10">
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56" s="10">
         <v>450</v>
-      </c>
-      <c r="E54" s="10">
-        <f>D54*C54</f>
-        <v>450</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="5">
-        <v>2</v>
-      </c>
-      <c r="D55" s="10">
-        <v>1699</v>
-      </c>
-      <c r="E55" s="10">
-        <f t="shared" ref="E55" si="14">D55*C55</f>
-        <v>3398</v>
-      </c>
-      <c r="H55" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10">
-        <f t="shared" ref="K55:K60" si="15">I55*J55</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="5">
-        <v>1</v>
-      </c>
-      <c r="D56" s="10">
-        <v>1700</v>
       </c>
       <c r="E56" s="10">
         <f>D56*C56</f>
-        <v>1700</v>
-      </c>
-      <c r="H56" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="F56" s="31"/>
+      <c r="I56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2</v>
+      </c>
+      <c r="D57" s="10">
+        <v>1699</v>
+      </c>
+      <c r="E57" s="10">
+        <f t="shared" ref="E57" si="15">D57*C57</f>
+        <v>3398</v>
+      </c>
+      <c r="F57" s="31"/>
+      <c r="I57" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10">
+        <f t="shared" ref="L57:L62" si="16">J57*K57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="10">
+        <f>D58*C58</f>
+        <v>1</v>
+      </c>
+      <c r="F58" s="31"/>
+      <c r="I58" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="5">
-        <f>2*C55+2*C56</f>
-        <v>6</v>
-      </c>
-      <c r="D57" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E57" s="10">
-        <f>D57*C57</f>
-        <v>3</v>
-      </c>
-      <c r="H57" s="19" t="s">
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="10">
+        <v>23</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="E59" s="10">
+        <f>D59*C59</f>
+        <v>19.55</v>
+      </c>
+      <c r="F59" s="31"/>
+      <c r="I59" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I57" s="10">
-        <v>1</v>
-      </c>
-      <c r="J57" s="10">
+      <c r="J59" s="10">
+        <v>1</v>
+      </c>
+      <c r="K59" s="10">
         <v>20000</v>
       </c>
-      <c r="K57" s="10">
-        <f t="shared" si="15"/>
+      <c r="L59" s="10">
+        <f t="shared" si="16"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10">
-        <v>0.85</v>
-      </c>
-      <c r="E58" s="10">
-        <f t="shared" ref="E58:E62" si="16">D58*C58</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I58" s="10">
-        <v>1</v>
-      </c>
-      <c r="J58" s="10">
-        <v>1400</v>
-      </c>
-      <c r="K58" s="10">
-        <f t="shared" si="15"/>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" s="10">
-        <v>1</v>
-      </c>
-      <c r="D59" s="10">
-        <v>1190</v>
-      </c>
-      <c r="E59" s="10">
-        <f t="shared" si="16"/>
-        <v>1190</v>
-      </c>
-      <c r="H59" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="I59" s="10">
-        <v>16</v>
-      </c>
-      <c r="J59" s="10">
-        <v>12</v>
-      </c>
-      <c r="K59" s="10">
-        <f t="shared" si="15"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>34</v>
       </c>
@@ -2029,24 +2227,25 @@
         <v>195</v>
       </c>
       <c r="E60" s="26">
+        <f>D60*C60</f>
+        <v>195</v>
+      </c>
+      <c r="F60" s="27"/>
+      <c r="I60" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J60" s="10">
+        <v>1</v>
+      </c>
+      <c r="K60" s="10">
+        <v>1400</v>
+      </c>
+      <c r="L60" s="10">
         <f t="shared" si="16"/>
-        <v>195</v>
-      </c>
-      <c r="H60" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I60" s="10">
-        <v>7</v>
-      </c>
-      <c r="J60" s="26">
-        <v>60</v>
-      </c>
-      <c r="K60" s="10">
-        <f t="shared" si="15"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>39</v>
       </c>
@@ -2057,101 +2256,131 @@
         <v>12</v>
       </c>
       <c r="E61" s="26">
+        <f>D61*C61</f>
+        <v>12</v>
+      </c>
+      <c r="F61" s="27"/>
+      <c r="I61" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J61" s="10">
+        <v>16</v>
+      </c>
+      <c r="K61" s="10">
+        <v>12</v>
+      </c>
+      <c r="L61" s="10">
         <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C62" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D62" s="26">
         <v>13</v>
       </c>
       <c r="E62" s="26">
+        <f>D62*C62</f>
+        <v>104</v>
+      </c>
+      <c r="F62" s="27"/>
+      <c r="I62" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" s="10">
+        <v>7</v>
+      </c>
+      <c r="K62" s="26">
+        <v>60</v>
+      </c>
+      <c r="L62" s="10">
         <f t="shared" si="16"/>
-        <v>78</v>
-      </c>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="27"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-    </row>
-    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H64" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I64" s="18">
-        <f>C62+I50+C49+I37+I20+C24+I9+C9</f>
-        <v>239</v>
-      </c>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J64" s="18"/>
       <c r="K64" s="18"/>
-    </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H65" s="30" t="s">
+      <c r="L64" s="18"/>
+    </row>
+    <row r="65" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D65" s="27"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+    </row>
+    <row r="66" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I66" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J66" s="18">
+        <f>C62+J51+C50+J37+J20+C24+J9+C9</f>
+        <v>312</v>
+      </c>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+    </row>
+    <row r="67" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="I67" s="30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F67" s="13" t="s">
+    <row r="69" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="F69" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="6:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="F68" s="16"/>
-    </row>
-    <row r="69" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F69" s="14" t="s">
+    <row r="70" spans="4:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="F70" s="16"/>
+    </row>
+    <row r="71" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F71" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F70" s="15"/>
-    </row>
-    <row r="71" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F71" s="17" t="s">
+    <row r="72" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F72" s="15"/>
+    </row>
+    <row r="73" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F73" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I71" s="18">
+      <c r="I73" s="18">
         <v>400.15</v>
       </c>
     </row>
-    <row r="72" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F72" s="17" t="s">
+    <row r="74" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F74" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="18">
+      <c r="I74" s="18">
         <v>450.2</v>
       </c>
     </row>
-    <row r="73" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F73" s="17" t="s">
+    <row r="75" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F75" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I75" s="17">
         <v>620.29999999999995</v>
       </c>
     </row>
-    <row r="74" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F74" s="17"/>
-    </row>
-    <row r="75" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F75" s="17"/>
-    </row>
-    <row r="76" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F76" s="17" t="s">
+    <row r="76" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F76" s="17"/>
+    </row>
+    <row r="77" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F77" s="17"/>
+    </row>
+    <row r="78" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F78" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I76" s="20"/>
+      <c r="I78" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
+++ b/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="67">
   <si>
     <t>Piso:</t>
   </si>
@@ -208,13 +208,25 @@
   </si>
   <si>
     <t>252,6m total</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>PRESUPUESTO</t>
+  </si>
+  <si>
+    <t>Total Presupuesto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +281,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -296,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -345,11 +397,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -375,9 +439,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -387,12 +448,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,8 +488,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -732,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N78"/>
+  <dimension ref="A3:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,1641 +848,1803 @@
     <col min="9" max="9" width="44" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="F2" s="34"/>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="C8" s="3"/>
+      <c r="F8" s="31"/>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="9" t="s">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="7" t="s">
+      <c r="F9" s="24"/>
+      <c r="H9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L9" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="47">
         <v>810</v>
       </c>
-      <c r="E4" s="10">
-        <f t="shared" ref="E4:E9" si="0">D4*C4</f>
+      <c r="E10" s="47">
+        <f t="shared" ref="E10:E15" si="0">D10*C10</f>
         <v>1620</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="I4" s="1" t="s">
+      <c r="F10" s="24"/>
+      <c r="I10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="5">
-        <v>2</v>
-      </c>
-      <c r="K4" s="10">
+      <c r="J10" s="5">
+        <v>2</v>
+      </c>
+      <c r="K10" s="47">
         <v>810</v>
       </c>
-      <c r="L4" s="10">
-        <f t="shared" ref="L4:L9" si="1">K4*J4</f>
+      <c r="L10" s="47">
+        <f t="shared" ref="L10:L15" si="1">K10*J10</f>
         <v>1620</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="47">
         <v>195</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E11" s="47">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="I5" s="1" t="s">
+      <c r="F11" s="24"/>
+      <c r="I11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="10">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="J11" s="10">
+        <v>1</v>
+      </c>
+      <c r="K11" s="47">
         <v>195</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L11" s="47">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5">
-        <f>2*C5</f>
-        <v>2</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C12" s="5">
+        <f>2*C11</f>
+        <v>2</v>
+      </c>
+      <c r="D12" s="47">
         <v>0.5</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E12" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="I6" s="1" t="s">
+      <c r="F12" s="24"/>
+      <c r="I12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="5">
-        <f>2*J5</f>
-        <v>2</v>
-      </c>
-      <c r="K6" s="10">
+      <c r="J12" s="5">
+        <f>2*J11</f>
+        <v>2</v>
+      </c>
+      <c r="K12" s="47">
         <v>0.5</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L12" s="47">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C13" s="10">
         <v>4.3</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D13" s="47">
         <v>0.85</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E13" s="47">
         <f t="shared" si="0"/>
         <v>3.6549999999999998</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="I7" s="1" t="s">
+      <c r="F13" s="24"/>
+      <c r="I13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J13" s="10">
         <v>603</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K13" s="47">
         <v>0.85</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L13" s="47">
         <f t="shared" si="1"/>
         <v>512.54999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="47">
         <v>12</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E14" s="47">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="I8" s="1" t="s">
+      <c r="F14" s="24"/>
+      <c r="I14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="10">
-        <v>1</v>
-      </c>
-      <c r="K8" s="26">
+      <c r="J14" s="10">
+        <v>1</v>
+      </c>
+      <c r="K14" s="48">
         <v>12</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L14" s="48">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C15" s="10">
         <v>6</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D15" s="47">
         <v>13</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E15" s="47">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="I9" s="1" t="s">
+      <c r="F15" s="24"/>
+      <c r="I15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J15" s="10">
         <v>6</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K15" s="48">
         <v>13</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L15" s="48">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F10" s="34"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="F11" s="34"/>
-      <c r="H11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="46">
+        <f>SUM(E10:E15)</f>
+        <v>1909.655</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="H16" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="46">
+        <f>SUM(L10:L15)</f>
+        <v>2418.5500000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="39"/>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="39"/>
+      <c r="F18" s="24"/>
+      <c r="M18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D19" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="I12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="F19" s="24"/>
+      <c r="H19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="47">
+        <v>450</v>
+      </c>
+      <c r="E20" s="47">
+        <f>D20*C20</f>
+        <v>450</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="I20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5">
+        <v>10</v>
+      </c>
+      <c r="D21" s="47">
+        <v>1699</v>
+      </c>
+      <c r="E21" s="47">
+        <f t="shared" ref="E21" si="2">D21*C21</f>
+        <v>16990</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="I21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="J21" s="5">
+        <v>4</v>
+      </c>
+      <c r="K21" s="47">
         <v>450</v>
       </c>
-      <c r="E13" s="10">
-        <f>D13*C13</f>
-        <v>450</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="I13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="5">
-        <v>4</v>
-      </c>
-      <c r="K13" s="10">
-        <v>450</v>
-      </c>
-      <c r="L13" s="10">
-        <f>K13*J13</f>
+      <c r="L21" s="47">
+        <f>K21*J21</f>
         <v>1800</v>
       </c>
-      <c r="M13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="47">
+        <v>125</v>
+      </c>
+      <c r="E22" s="47">
+        <f>D22*C22</f>
+        <v>125</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="I22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5">
-        <v>10</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="J22" s="5">
+        <v>21</v>
+      </c>
+      <c r="K22" s="47">
         <v>1699</v>
       </c>
-      <c r="E14" s="10">
-        <f t="shared" ref="E14" si="2">D14*C14</f>
-        <v>16990</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="I14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="L22" s="10">
+        <f t="shared" ref="L22" si="3">K22*J22</f>
+        <v>35679</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="47">
+        <v>4120</v>
+      </c>
+      <c r="E23" s="47">
+        <f>D23*C23</f>
+        <v>4120</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="I23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="47">
+        <v>1700</v>
+      </c>
+      <c r="L23" s="47">
+        <f>K23*J23</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="47">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="47">
+        <f>D24*C24</f>
+        <v>1700</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="I24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="5">
+        <v>42</v>
+      </c>
+      <c r="K24" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="47">
+        <f>K24*J24</f>
         <v>21</v>
       </c>
-      <c r="K14" s="10">
-        <v>1699</v>
-      </c>
-      <c r="L14" s="10">
-        <f t="shared" ref="L14" si="3">K14*J14</f>
-        <v>35679</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10">
-        <v>125</v>
-      </c>
-      <c r="E15" s="10">
-        <f>D15*C15</f>
-        <v>125</v>
-      </c>
-      <c r="F15" s="31"/>
-      <c r="I15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
-      <c r="K15" s="10">
-        <v>1700</v>
-      </c>
-      <c r="L15" s="10">
-        <f>K15*J15</f>
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="10">
-        <v>4120</v>
-      </c>
-      <c r="E16" s="10">
-        <f>D16*C16</f>
-        <v>4120</v>
-      </c>
-      <c r="F16" s="31"/>
-      <c r="I16" s="1" t="s">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="5">
-        <v>42</v>
-      </c>
-      <c r="K16" s="10">
+      <c r="C25" s="5">
+        <f>2*C21+2*C24+2*C28</f>
+        <v>24</v>
+      </c>
+      <c r="D25" s="47">
         <v>0.5</v>
       </c>
-      <c r="L16" s="10">
-        <f>K16*J16</f>
+      <c r="E25" s="47">
+        <f>D25*C25</f>
+        <v>12</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="I25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="47">
+        <v>0.85</v>
+      </c>
+      <c r="L25" s="47">
+        <f t="shared" ref="L25:L28" si="4">K25*J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="47">
+        <v>0.85</v>
+      </c>
+      <c r="E26" s="47">
+        <f t="shared" ref="E26:E32" si="5">D26*C26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="I26" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1700</v>
-      </c>
-      <c r="E17" s="10">
-        <f>D17*C17</f>
-        <v>1700</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="I17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="10">
-        <v>0.85</v>
-      </c>
-      <c r="L17" s="10">
-        <f t="shared" ref="L17:L20" si="4">K17*J17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="5">
-        <f>2*C14+2*C17+2*C21</f>
-        <v>24</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="10">
-        <f>D18*C18</f>
-        <v>12</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="I18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="10">
-        <v>1</v>
-      </c>
-      <c r="K18" s="10">
+      <c r="J26" s="10">
+        <v>1</v>
+      </c>
+      <c r="K26" s="47">
         <v>1190</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L26" s="47">
         <f t="shared" si="4"/>
         <v>1190</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="10">
-        <v>0.85</v>
-      </c>
-      <c r="E19" s="10">
-        <f t="shared" ref="E19:E25" si="5">D19*C19</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="I19" s="1" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+      <c r="D27" s="47">
+        <v>1190</v>
+      </c>
+      <c r="E27" s="47">
+        <f t="shared" si="5"/>
+        <v>1190</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="I27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J27" s="22">
         <v>6</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K27" s="48">
         <v>12</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L27" s="48">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="10">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1190</v>
-      </c>
-      <c r="E20" s="10">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="22">
+        <v>1</v>
+      </c>
+      <c r="D28" s="48">
+        <v>195</v>
+      </c>
+      <c r="E28" s="48">
         <f t="shared" si="5"/>
-        <v>1190</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="I20" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="I28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J28" s="10">
         <v>84</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K28" s="48">
         <v>13</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L28" s="48">
         <f t="shared" si="4"/>
         <v>1092</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="25">
-        <v>1</v>
-      </c>
-      <c r="D21" s="26">
-        <v>195</v>
-      </c>
-      <c r="E21" s="26">
-        <f t="shared" si="5"/>
-        <v>195</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="I21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="10">
-        <v>5</v>
-      </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26">
-        <f t="shared" ref="L21" si="6">K21*J21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C29" s="22">
         <v>4</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D29" s="48">
         <v>2499</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E29" s="48">
         <f t="shared" si="5"/>
         <v>9996</v>
       </c>
-      <c r="F22" s="27"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="F29" s="24"/>
+      <c r="I29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="10">
+        <v>5</v>
+      </c>
+      <c r="K29" s="23"/>
+      <c r="L29" s="48">
+        <f t="shared" ref="L29" si="6">K29*J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C30" s="22">
         <v>3</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D30" s="48">
         <v>12</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E30" s="48">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="F23" s="27"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="F30" s="24"/>
+      <c r="H30" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="46">
+        <f>SUM(L21:L29)</f>
+        <v>41554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C31" s="10">
         <v>40</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D31" s="48">
         <v>13</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E31" s="48">
         <f t="shared" si="5"/>
         <v>520</v>
       </c>
-      <c r="F24" s="27"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="C32" s="22">
+        <v>1</v>
+      </c>
+      <c r="D32" s="47">
         <v>5700</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E32" s="47">
         <f t="shared" si="5"/>
         <v>5700</v>
       </c>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N26" t="s">
+      <c r="N32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="H27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="46">
+        <f>SUM(E20:E32)</f>
+        <v>41034</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="H33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
         <v>3</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="N27" s="33" t="s">
+      <c r="J33" s="8"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="N33" s="30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="7" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D34" s="39"/>
+      <c r="F34" s="24"/>
+      <c r="I34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="K34" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="L34" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="I28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="M34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="28"/>
+      <c r="I35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="5">
+        <v>2</v>
+      </c>
+      <c r="K35" s="47">
+        <v>450</v>
+      </c>
+      <c r="L35" s="47">
+        <f>K35*J35</f>
+        <v>900</v>
+      </c>
+      <c r="M35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="D36" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M28">
+      <c r="F36" s="28"/>
+      <c r="I36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="5">
+        <v>21</v>
+      </c>
+      <c r="K36" s="47">
+        <v>1699</v>
+      </c>
+      <c r="L36" s="10">
+        <f t="shared" ref="L36" si="7">K36*J36</f>
+        <v>35679</v>
+      </c>
+      <c r="N36" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="5">
+        <v>6</v>
+      </c>
+      <c r="D37" s="47">
+        <v>450</v>
+      </c>
+      <c r="E37" s="47">
+        <f>D37*C37</f>
+        <v>2700</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="I37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1</v>
+      </c>
+      <c r="K37" s="47">
+        <v>1700</v>
+      </c>
+      <c r="L37" s="47">
+        <f>K37*J37</f>
+        <v>1700</v>
+      </c>
+      <c r="N37" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5">
+        <v>14</v>
+      </c>
+      <c r="D38" s="47">
+        <v>1699</v>
+      </c>
+      <c r="E38" s="47">
+        <f t="shared" ref="E38" si="8">D38*C38</f>
+        <v>23786</v>
+      </c>
+      <c r="F38" s="28"/>
+      <c r="I38" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="J38" s="5">
+        <v>42</v>
+      </c>
+      <c r="K38" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="L38" s="47">
+        <f>K38*J38</f>
+        <v>21</v>
+      </c>
+      <c r="N38" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="10">
-        <v>450</v>
-      </c>
-      <c r="E29" s="10">
-        <f>D29*C29</f>
-        <v>2700</v>
-      </c>
-      <c r="F29" s="31"/>
-      <c r="I29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="5">
-        <v>2</v>
-      </c>
-      <c r="K29" s="10">
-        <v>450</v>
-      </c>
-      <c r="L29" s="10">
-        <f>K29*J29</f>
-        <v>900</v>
-      </c>
-      <c r="M29">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="47">
+        <v>1700</v>
+      </c>
+      <c r="E39" s="47">
+        <f>D39*C39</f>
+        <v>1700</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="I39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="10">
+        <v>639.6</v>
+      </c>
+      <c r="K39" s="47">
+        <v>0.85</v>
+      </c>
+      <c r="L39" s="47">
+        <f t="shared" ref="L39:L44" si="9">K39*J39</f>
+        <v>543.66</v>
+      </c>
+      <c r="N39" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="5">
+        <v>28</v>
+      </c>
+      <c r="D40" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="47">
+        <f>D40*C40</f>
         <v>14</v>
       </c>
-      <c r="D30" s="10">
-        <v>1699</v>
-      </c>
-      <c r="E30" s="10">
-        <f t="shared" ref="E30" si="7">D30*C30</f>
-        <v>23786</v>
-      </c>
-      <c r="F30" s="31"/>
-      <c r="I30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="F40" s="28"/>
+      <c r="I40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K30" s="10">
-        <v>1699</v>
-      </c>
-      <c r="L30" s="10">
-        <f t="shared" ref="L30" si="8">K30*J30</f>
-        <v>35679</v>
-      </c>
-      <c r="N30" s="32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-      <c r="D31" s="10">
-        <v>1700</v>
-      </c>
-      <c r="E31" s="10">
-        <f>D31*C31</f>
-        <v>1700</v>
-      </c>
-      <c r="F31" s="31"/>
-      <c r="I31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="5">
-        <v>1</v>
-      </c>
-      <c r="K31" s="10">
-        <v>1700</v>
-      </c>
-      <c r="L31" s="10">
-        <f>K31*J31</f>
-        <v>1700</v>
-      </c>
-      <c r="N31" s="33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="5">
-        <v>28</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E32" s="10">
-        <f>D32*C32</f>
-        <v>14</v>
-      </c>
-      <c r="F32" s="31"/>
-      <c r="I32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="5">
-        <v>42</v>
-      </c>
-      <c r="K32" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L32" s="10">
-        <f>K32*J32</f>
-        <v>21</v>
-      </c>
-      <c r="N32" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="10">
-        <v>0.85</v>
-      </c>
-      <c r="E33" s="10">
-        <f t="shared" ref="E33:E37" si="9">D33*C33</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="31"/>
-      <c r="I33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="10">
-        <v>639.6</v>
-      </c>
-      <c r="K33" s="10">
-        <v>0.85</v>
-      </c>
-      <c r="L33" s="10">
-        <f t="shared" ref="L33:L38" si="10">K33*J33</f>
-        <v>543.66</v>
-      </c>
-      <c r="N33" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="10">
-        <v>1</v>
-      </c>
-      <c r="D34" s="10">
+      <c r="J40" s="10">
+        <v>1</v>
+      </c>
+      <c r="K40" s="47">
         <v>1190</v>
       </c>
-      <c r="E34" s="10">
+      <c r="L40" s="47">
         <f t="shared" si="9"/>
         <v>1190</v>
       </c>
-      <c r="F34" s="31"/>
-      <c r="I34" s="1" t="s">
+      <c r="N40" s="30">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="47">
+        <v>0.85</v>
+      </c>
+      <c r="E41" s="47">
+        <f t="shared" ref="E41:E45" si="10">D41*C41</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="28"/>
+      <c r="I41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="22">
+        <v>1</v>
+      </c>
+      <c r="K41" s="48">
+        <v>3934</v>
+      </c>
+      <c r="L41" s="48">
+        <f t="shared" si="9"/>
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="10">
-        <v>1</v>
-      </c>
-      <c r="K34" s="10">
+      <c r="C42" s="10">
+        <v>1</v>
+      </c>
+      <c r="D42" s="47">
         <v>1190</v>
       </c>
-      <c r="L34" s="10">
+      <c r="E42" s="47">
         <f t="shared" si="10"/>
         <v>1190</v>
       </c>
-      <c r="N34" s="33">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+      <c r="F42" s="28"/>
+      <c r="I42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="10">
-        <v>4</v>
-      </c>
-      <c r="D35" s="26">
+      <c r="J42" s="22">
+        <v>6</v>
+      </c>
+      <c r="K42" s="48">
         <v>12</v>
       </c>
-      <c r="E35" s="10">
+      <c r="L42" s="48">
         <f t="shared" si="9"/>
-        <v>48</v>
-      </c>
-      <c r="F35" s="31"/>
-      <c r="I35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" s="25">
-        <v>1</v>
-      </c>
-      <c r="K35" s="26">
-        <v>3934</v>
-      </c>
-      <c r="L35" s="26">
-        <f t="shared" si="10"/>
-        <v>3934</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="10">
-        <v>56</v>
-      </c>
-      <c r="D36" s="26">
-        <v>13</v>
-      </c>
-      <c r="E36" s="10">
-        <f t="shared" si="9"/>
-        <v>728</v>
-      </c>
-      <c r="F36" s="31"/>
-      <c r="I36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J36" s="25">
-        <v>6</v>
-      </c>
-      <c r="K36" s="26">
-        <v>12</v>
-      </c>
-      <c r="L36" s="26">
-        <f t="shared" si="10"/>
         <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="10">
-        <v>9</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="27"/>
-      <c r="I37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J37" s="10">
-        <v>84</v>
-      </c>
-      <c r="K37" s="26">
-        <v>13</v>
-      </c>
-      <c r="L37" s="26">
-        <f t="shared" si="10"/>
-        <v>1092</v>
-      </c>
-      <c r="N37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J38" s="10">
-        <v>13</v>
-      </c>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="2">
-        <v>4</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2">
-        <v>5</v>
-      </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42">
-        <v>13</v>
-      </c>
-      <c r="N42" s="33" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="10">
         <v>4</v>
       </c>
-      <c r="C43" s="5">
-        <v>4</v>
-      </c>
-      <c r="D43" s="10">
-        <v>450</v>
-      </c>
-      <c r="E43" s="10">
-        <f>D43*C43</f>
-        <v>1800</v>
-      </c>
-      <c r="F43" s="35"/>
+      <c r="D43" s="48">
+        <v>12</v>
+      </c>
+      <c r="E43" s="47">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="F43" s="24"/>
       <c r="I43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="5">
-        <v>4</v>
-      </c>
-      <c r="K43" s="10">
-        <v>450</v>
-      </c>
-      <c r="L43" s="10">
-        <f>K43*J43</f>
-        <v>1800</v>
-      </c>
-      <c r="M43">
-        <v>12</v>
-      </c>
-      <c r="N43" s="33"/>
+        <v>40</v>
+      </c>
+      <c r="J43" s="10">
+        <v>84</v>
+      </c>
+      <c r="K43" s="48">
+        <v>13</v>
+      </c>
+      <c r="L43" s="48">
+        <f t="shared" si="9"/>
+        <v>1092</v>
+      </c>
+      <c r="N43" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="5">
-        <v>14</v>
-      </c>
-      <c r="D44" s="10">
-        <v>1699</v>
-      </c>
-      <c r="E44" s="10">
-        <f t="shared" ref="E44" si="11">D44*C44</f>
-        <v>23786</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>53</v>
+        <v>40</v>
+      </c>
+      <c r="C44" s="10">
+        <v>56</v>
+      </c>
+      <c r="D44" s="48">
+        <v>13</v>
+      </c>
+      <c r="E44" s="47">
+        <f t="shared" si="10"/>
+        <v>728</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="5">
-        <v>7</v>
-      </c>
-      <c r="K44" s="10">
-        <v>1699</v>
-      </c>
-      <c r="L44" s="10">
-        <f t="shared" ref="L44" si="12">K44*J44</f>
-        <v>11893</v>
-      </c>
-      <c r="N44" s="33">
-        <v>9.6999999999999993</v>
+        <v>46</v>
+      </c>
+      <c r="J44" s="10">
+        <v>13</v>
+      </c>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="10">
+        <v>9</v>
+      </c>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="46">
+        <f>SUM(L35:L44)</f>
+        <v>45131.66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="46">
+        <f>SUM(E37:E45)</f>
+        <v>30166</v>
+      </c>
+      <c r="K46" s="39"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D47" s="39"/>
+      <c r="F47" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>5</v>
+      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2">
+        <v>4</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48">
+        <v>13</v>
+      </c>
+      <c r="N48" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="32"/>
+      <c r="I49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="5">
+        <v>4</v>
+      </c>
+      <c r="K49" s="47">
+        <v>450</v>
+      </c>
+      <c r="L49" s="47">
+        <f>K49*J49</f>
+        <v>1800</v>
+      </c>
+      <c r="M49">
+        <v>12</v>
+      </c>
+      <c r="N49" s="30"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="5">
+        <v>4</v>
+      </c>
+      <c r="D50" s="47">
+        <v>450</v>
+      </c>
+      <c r="E50" s="47">
+        <f>D50*C50</f>
+        <v>1800</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="5">
+        <v>7</v>
+      </c>
+      <c r="K50" s="47">
+        <v>1699</v>
+      </c>
+      <c r="L50" s="47">
+        <f t="shared" ref="L50" si="11">K50*J50</f>
+        <v>11893</v>
+      </c>
+      <c r="N50" s="30">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="5">
+        <v>14</v>
+      </c>
+      <c r="D51" s="47">
+        <v>1699</v>
+      </c>
+      <c r="E51" s="47">
+        <f t="shared" ref="E51" si="12">D51*C51</f>
+        <v>23786</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="5">
-        <v>1</v>
-      </c>
-      <c r="D45" s="10">
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
+      <c r="K51" s="47">
         <v>1700</v>
       </c>
-      <c r="E45" s="10">
-        <f>D45*C45</f>
+      <c r="L51" s="47">
+        <f>K51*J51</f>
         <v>1700</v>
       </c>
-      <c r="F45" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="N51" s="30">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J45" s="5">
-        <v>1</v>
-      </c>
-      <c r="K45" s="10">
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="47">
         <v>1700</v>
       </c>
-      <c r="L45" s="10">
-        <f>K45*J45</f>
+      <c r="E52" s="47">
+        <f>D52*C52</f>
         <v>1700</v>
       </c>
-      <c r="N45" s="33">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+      <c r="F52" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="5">
+      <c r="J52" s="5">
+        <v>14</v>
+      </c>
+      <c r="K52" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="L52" s="47">
+        <f>K52*J52</f>
+        <v>7</v>
+      </c>
+      <c r="N52" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="5">
         <v>28</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D53" s="47">
         <v>0.5</v>
       </c>
-      <c r="E46" s="10">
-        <f>D46*C46</f>
+      <c r="E53" s="47">
+        <f>D53*C53</f>
         <v>14</v>
       </c>
-      <c r="F46" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="5">
-        <v>14</v>
-      </c>
-      <c r="K46" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L46" s="10">
-        <f>K46*J46</f>
-        <v>7</v>
-      </c>
-      <c r="N46" s="33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+      <c r="F53" s="33"/>
+      <c r="I53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="10">
+      <c r="J53" s="10">
+        <v>252.6</v>
+      </c>
+      <c r="K53" s="47">
+        <v>0.85</v>
+      </c>
+      <c r="L53" s="47">
+        <f t="shared" ref="L53:L58" si="13">K53*J53</f>
+        <v>214.70999999999998</v>
+      </c>
+      <c r="N53" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="10">
         <v>502</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D54" s="47">
         <v>0.85</v>
       </c>
-      <c r="E47" s="10">
-        <f t="shared" ref="E47:E51" si="13">D47*C47</f>
+      <c r="E54" s="47">
+        <f t="shared" ref="E54:E58" si="14">D54*C54</f>
         <v>426.7</v>
       </c>
-      <c r="F47" s="36"/>
-      <c r="I47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="10">
-        <v>252.6</v>
-      </c>
-      <c r="K47" s="10">
-        <v>0.85</v>
-      </c>
-      <c r="L47" s="10">
-        <f t="shared" ref="L47:L52" si="14">K47*J47</f>
-        <v>214.70999999999998</v>
-      </c>
-      <c r="N47" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+      <c r="F54" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="10">
-        <v>1</v>
-      </c>
-      <c r="D48" s="10">
+      <c r="J54" s="10">
+        <v>1</v>
+      </c>
+      <c r="K54" s="47">
         <v>1190</v>
       </c>
-      <c r="E48" s="10">
+      <c r="L54" s="47">
         <f t="shared" si="13"/>
         <v>1190</v>
       </c>
-      <c r="F48" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="I48" s="1" t="s">
+      <c r="N54" s="30"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J48" s="10">
-        <v>1</v>
-      </c>
-      <c r="K48" s="10">
+      <c r="C55" s="10">
+        <v>1</v>
+      </c>
+      <c r="D55" s="47">
         <v>1190</v>
       </c>
-      <c r="L48" s="10">
+      <c r="E55" s="47">
         <f t="shared" si="14"/>
         <v>1190</v>
       </c>
-      <c r="N48" s="33"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="25">
-        <v>3</v>
-      </c>
-      <c r="D49" s="26">
-        <v>12</v>
-      </c>
-      <c r="E49" s="26">
+      <c r="F55" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J55" s="22">
+        <v>1</v>
+      </c>
+      <c r="K55" s="48">
+        <v>3935</v>
+      </c>
+      <c r="L55" s="48">
         <f t="shared" si="13"/>
-        <v>36</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J49" s="25">
-        <v>1</v>
-      </c>
-      <c r="K49" s="26">
         <v>3935</v>
       </c>
-      <c r="L49" s="26">
-        <f t="shared" si="14"/>
-        <v>3935</v>
-      </c>
-      <c r="N49" s="33" t="s">
+      <c r="N55" s="30" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="10">
-        <v>56</v>
-      </c>
-      <c r="D50" s="26">
-        <v>13</v>
-      </c>
-      <c r="E50" s="26">
-        <f t="shared" si="13"/>
-        <v>728</v>
-      </c>
-      <c r="F50" s="35"/>
-      <c r="I50" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J50" s="25">
-        <v>2</v>
-      </c>
-      <c r="K50" s="26">
-        <v>12</v>
-      </c>
-      <c r="L50" s="26">
-        <f t="shared" si="14"/>
-        <v>24</v>
-      </c>
-      <c r="N50" s="33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="10">
-        <v>17</v>
-      </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="35"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J51" s="29">
-        <v>28</v>
-      </c>
-      <c r="K51" s="26">
-        <v>13</v>
-      </c>
-      <c r="L51" s="26">
-        <f t="shared" si="14"/>
-        <v>364</v>
-      </c>
-      <c r="N51" s="33"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H52" s="12"/>
-      <c r="I52" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J52" s="10">
-        <v>21</v>
-      </c>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N52" s="33"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="I54" s="12"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="27"/>
-      <c r="H55" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I55" s="21"/>
-      <c r="M55">
-        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="5">
-        <v>1</v>
-      </c>
-      <c r="D56" s="10">
-        <v>450</v>
-      </c>
-      <c r="E56" s="10">
-        <f>D56*C56</f>
-        <v>450</v>
-      </c>
-      <c r="F56" s="31"/>
+        <v>39</v>
+      </c>
+      <c r="C56" s="22">
+        <v>3</v>
+      </c>
+      <c r="D56" s="48">
+        <v>12</v>
+      </c>
+      <c r="E56" s="48">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="F56" s="32"/>
       <c r="I56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>8</v>
+        <v>39</v>
+      </c>
+      <c r="J56" s="22">
+        <v>2</v>
+      </c>
+      <c r="K56" s="48">
+        <v>12</v>
+      </c>
+      <c r="L56" s="48">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="N56" s="30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="5">
-        <v>2</v>
-      </c>
-      <c r="D57" s="10">
-        <v>1699</v>
-      </c>
-      <c r="E57" s="10">
-        <f t="shared" ref="E57" si="15">D57*C57</f>
-        <v>3398</v>
-      </c>
-      <c r="F57" s="31"/>
-      <c r="I57" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10">
-        <f t="shared" ref="L57:L62" si="16">J57*K57</f>
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C57" s="10">
+        <v>56</v>
+      </c>
+      <c r="D57" s="48">
+        <v>13</v>
+      </c>
+      <c r="E57" s="48">
+        <f t="shared" si="14"/>
+        <v>728</v>
+      </c>
+      <c r="F57" s="32"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" s="26">
+        <v>28</v>
+      </c>
+      <c r="K57" s="48">
+        <v>13</v>
+      </c>
+      <c r="L57" s="48">
+        <f t="shared" si="13"/>
+        <v>364</v>
+      </c>
+      <c r="N57" s="30"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="5">
-        <v>2</v>
-      </c>
-      <c r="D58" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E58" s="10">
-        <f>D58*C58</f>
-        <v>1</v>
-      </c>
-      <c r="F58" s="31"/>
-      <c r="I58" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C58" s="10">
+        <v>17</v>
+      </c>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="I58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J58" s="10">
+        <v>21</v>
+      </c>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="30"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="10">
-        <v>23</v>
-      </c>
-      <c r="D59" s="10">
-        <v>0.85</v>
-      </c>
-      <c r="E59" s="10">
-        <f>D59*C59</f>
-        <v>19.55</v>
-      </c>
-      <c r="F59" s="31"/>
-      <c r="I59" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J59" s="10">
-        <v>1</v>
-      </c>
-      <c r="K59" s="10">
-        <v>20000</v>
-      </c>
-      <c r="L59" s="10">
-        <f t="shared" si="16"/>
-        <v>20000</v>
+      <c r="A59" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="46">
+        <f>SUM(E50:E58)</f>
+        <v>29680.7</v>
+      </c>
+      <c r="H59" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="46">
+        <f>SUM(L49:L58)</f>
+        <v>21127.71</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="25">
-        <v>1</v>
-      </c>
-      <c r="D60" s="26">
-        <v>195</v>
-      </c>
-      <c r="E60" s="26">
-        <f>D60*C60</f>
-        <v>195</v>
-      </c>
-      <c r="F60" s="27"/>
-      <c r="I60" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="J60" s="10">
-        <v>1</v>
-      </c>
-      <c r="K60" s="10">
-        <v>1400</v>
-      </c>
-      <c r="L60" s="10">
-        <f t="shared" si="16"/>
-        <v>1400</v>
-      </c>
+      <c r="D60" s="39"/>
+      <c r="F60" s="6"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="25">
-        <v>1</v>
-      </c>
-      <c r="D61" s="26">
-        <v>12</v>
-      </c>
-      <c r="E61" s="26">
-        <f>D61*C61</f>
-        <v>12</v>
-      </c>
-      <c r="F61" s="27"/>
-      <c r="I61" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J61" s="10">
-        <v>16</v>
-      </c>
-      <c r="K61" s="10">
-        <v>12</v>
-      </c>
-      <c r="L61" s="10">
-        <f t="shared" si="16"/>
-        <v>192</v>
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="24"/>
+      <c r="H61" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="18"/>
+      <c r="M61">
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="28"/>
+      <c r="I62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+      <c r="D63" s="47">
+        <v>450</v>
+      </c>
+      <c r="E63" s="47">
+        <f>D63*C63</f>
+        <v>450</v>
+      </c>
+      <c r="F63" s="28"/>
+      <c r="I63" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="47">
+        <f t="shared" ref="L63:L68" si="15">J63*K63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2</v>
+      </c>
+      <c r="D64" s="47">
+        <v>1699</v>
+      </c>
+      <c r="E64" s="47">
+        <f t="shared" ref="E64" si="16">D64*C64</f>
+        <v>3398</v>
+      </c>
+      <c r="F64" s="28"/>
+      <c r="I64" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2</v>
+      </c>
+      <c r="D65" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E65" s="47">
+        <f>D65*C65</f>
+        <v>1</v>
+      </c>
+      <c r="F65" s="28"/>
+      <c r="I65" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J65" s="10">
+        <v>1</v>
+      </c>
+      <c r="K65" s="10">
+        <v>20000</v>
+      </c>
+      <c r="L65" s="10">
+        <f t="shared" si="15"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="10">
+        <v>23</v>
+      </c>
+      <c r="D66" s="47">
+        <v>0.85</v>
+      </c>
+      <c r="E66" s="47">
+        <f>D66*C66</f>
+        <v>19.55</v>
+      </c>
+      <c r="F66" s="24"/>
+      <c r="I66" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J66" s="10">
+        <v>1</v>
+      </c>
+      <c r="K66" s="47">
+        <v>1400</v>
+      </c>
+      <c r="L66" s="47">
+        <f t="shared" si="15"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="22">
+        <v>1</v>
+      </c>
+      <c r="D67" s="48">
+        <v>195</v>
+      </c>
+      <c r="E67" s="48">
+        <f>D67*C67</f>
+        <v>195</v>
+      </c>
+      <c r="F67" s="24"/>
+      <c r="I67" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J67" s="10">
+        <v>16</v>
+      </c>
+      <c r="K67" s="47">
+        <v>12</v>
+      </c>
+      <c r="L67" s="47">
+        <f t="shared" si="15"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="22">
+        <v>1</v>
+      </c>
+      <c r="D68" s="48">
+        <v>12</v>
+      </c>
+      <c r="E68" s="48">
+        <f>D68*C68</f>
+        <v>12</v>
+      </c>
+      <c r="F68" s="24"/>
+      <c r="I68" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J68" s="10">
+        <v>7</v>
+      </c>
+      <c r="K68" s="48">
+        <v>60</v>
+      </c>
+      <c r="L68" s="47">
+        <f t="shared" si="15"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C69" s="10">
         <v>8</v>
       </c>
-      <c r="D62" s="26">
+      <c r="D69" s="48">
         <v>13</v>
       </c>
-      <c r="E62" s="26">
-        <f>D62*C62</f>
+      <c r="E69" s="48">
+        <f>D69*C69</f>
         <v>104</v>
       </c>
-      <c r="F62" s="27"/>
-      <c r="I62" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="J62" s="10">
-        <v>7</v>
-      </c>
-      <c r="K62" s="26">
-        <v>60</v>
-      </c>
-      <c r="L62" s="10">
-        <f t="shared" si="16"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-    </row>
-    <row r="65" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D65" s="27"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-    </row>
-    <row r="66" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I66" s="30" t="s">
+      <c r="H69" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="46">
+        <f>SUM(L63:L68)</f>
+        <v>22012</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="46">
+        <f>SUM(E63:E69)</f>
+        <v>4179.55</v>
+      </c>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D71" s="24"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I72" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J66" s="18">
-        <f>C62+J51+C50+J37+J20+C24+J9+C9</f>
+      <c r="J72" s="16">
+        <f>C69+J57+C57+J43+J28+C31+J15+C15</f>
         <v>312</v>
       </c>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-    </row>
-    <row r="67" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="I67" s="30" t="s">
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I73" s="27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="F69" s="13" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F76" s="38" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" spans="4:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="F70" s="16"/>
-    </row>
-    <row r="71" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F71" s="14" t="s">
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+    </row>
+    <row r="77" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="F77" s="15"/>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F78" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F72" s="15"/>
-    </row>
-    <row r="73" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F73" s="17" t="s">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F79" s="14"/>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F80" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="I73" s="18">
-        <v>400.15</v>
-      </c>
-    </row>
-    <row r="74" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F74" s="17" t="s">
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="45">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="81" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F81" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I74" s="18">
-        <v>450.2</v>
-      </c>
-    </row>
-    <row r="75" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F75" s="17" t="s">
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="40">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="82" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F82" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="I75" s="17">
-        <v>620.29999999999995</v>
-      </c>
-    </row>
-    <row r="76" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F76" s="17"/>
-    </row>
-    <row r="77" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F77" s="17"/>
-    </row>
-    <row r="78" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F78" s="17" t="s">
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="43">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="83" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F83" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I78" s="20"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="41">
+        <f>E70+L69+L59+E59+L45+E46+L30+E33+L16+E16</f>
+        <v>239213.82499999998</v>
+      </c>
+    </row>
+    <row r="84" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F84" s="42"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+    </row>
+    <row r="85" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F85" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="40">
+        <f>SUM(I80:I84)</f>
+        <v>246213.82499999998</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E3:I5"/>
+    <mergeCell ref="F76:I76"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2648,13 +2910,13 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
-      <c r="D18" s="19"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="19"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="19"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
@@ -2664,7 +2926,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="19"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E24" s="6"/>
@@ -2810,7 +3072,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
-      <c r="D32" s="19"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="I32" s="1"/>
@@ -3010,7 +3272,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="H50" s="11"/>
-      <c r="I50" s="24" t="s">
+      <c r="I50" s="21" t="s">
         <v>26</v>
       </c>
       <c r="J50" s="11"/>
@@ -3031,8 +3293,8 @@
       <c r="F51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
@@ -3054,9 +3316,9 @@
       <c r="I52" t="s">
         <v>29</v>
       </c>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
       <c r="M52" s="11"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -3072,9 +3334,9 @@
         <v>0</v>
       </c>
       <c r="H53" s="11"/>
-      <c r="I53" s="23"/>
+      <c r="I53" s="20"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="23"/>
+      <c r="K53" s="20"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
     </row>
@@ -3136,14 +3398,14 @@
       <c r="F58" s="10"/>
     </row>
     <row r="60" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
     </row>
     <row r="61" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
+++ b/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="presupuesa" localSheetId="0">Hoja1!$F$84</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -63,9 +66,6 @@
     <t>Instalaciones y configuración</t>
   </si>
   <si>
-    <t>Instalación del armario rack 19” </t>
-  </si>
-  <si>
     <t>Instalación equipamiento para puestos de trabajo</t>
   </si>
   <si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Total Presupuesto</t>
+  </si>
+  <si>
+    <t>Instalación  armarios rack 19” </t>
   </si>
 </sst>
 </file>
@@ -494,15 +497,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -529,6 +523,15 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -832,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N85"/>
+  <dimension ref="A3:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E70" sqref="E9:E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,38 +846,40 @@
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="44" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E3" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="E3" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -904,7 +909,7 @@
       <c r="D9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="47" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="24"/>
@@ -918,7 +923,7 @@
       <c r="K9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="47" t="s">
         <v>8</v>
       </c>
     </row>
@@ -929,10 +934,10 @@
       <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="44">
         <v>810</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="44">
         <f t="shared" ref="E10:E15" si="0">D10*C10</f>
         <v>1620</v>
       </c>
@@ -943,10 +948,10 @@
       <c r="J10" s="5">
         <v>2</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="44">
         <v>810</v>
       </c>
-      <c r="L10" s="47">
+      <c r="L10" s="44">
         <f t="shared" ref="L10:L15" si="1">K10*J10</f>
         <v>1620</v>
       </c>
@@ -958,10 +963,10 @@
       <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="44">
         <v>195</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="44">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
@@ -972,158 +977,160 @@
       <c r="J11" s="10">
         <v>1</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="44">
         <v>195</v>
       </c>
-      <c r="L11" s="47">
+      <c r="L11" s="44">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5">
         <f>2*C11</f>
         <v>2</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="44">
         <v>0.5</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F12" s="24"/>
       <c r="I12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="5">
         <f>2*J11</f>
         <v>2</v>
       </c>
-      <c r="K12" s="47">
+      <c r="K12" s="44">
         <v>0.5</v>
       </c>
-      <c r="L12" s="47">
+      <c r="L12" s="44">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="10">
         <v>4.3</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="44">
         <v>0.85</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="44">
         <f t="shared" si="0"/>
         <v>3.6549999999999998</v>
       </c>
       <c r="F13" s="24"/>
       <c r="I13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13" s="10">
         <v>603</v>
       </c>
-      <c r="K13" s="47">
+      <c r="K13" s="44">
         <v>0.85</v>
       </c>
-      <c r="L13" s="47">
+      <c r="L13" s="44">
         <f t="shared" si="1"/>
         <v>512.54999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="10">
         <v>1</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="44">
         <v>12</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="44">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F14" s="24"/>
       <c r="I14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" s="10">
         <v>1</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="45">
         <v>12</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="45">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="10">
         <v>6</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="44">
         <v>13</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="44">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="F15" s="24"/>
       <c r="I15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15" s="10">
         <v>6</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="45">
         <v>13</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L15" s="45">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="46">
+      <c r="D16" s="46"/>
+      <c r="E16" s="43">
         <f>SUM(E10:E15)</f>
         <v>1909.655</v>
       </c>
       <c r="F16" s="31"/>
       <c r="H16" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="46">
+      <c r="L16" s="43">
         <f>SUM(L10:L15)</f>
         <v>2418.5500000000002</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="39"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="31"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1133,8 +1140,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="39"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="24"/>
+      <c r="L18" s="36"/>
       <c r="M18">
         <v>15</v>
       </c>
@@ -1146,10 +1155,10 @@
       <c r="C19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="47" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="24"/>
@@ -1161,7 +1170,7 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="L19" s="48"/>
       <c r="M19">
         <v>25</v>
       </c>
@@ -1173,10 +1182,10 @@
       <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="44">
         <v>450</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="44">
         <f>D20*C20</f>
         <v>450</v>
       </c>
@@ -1190,7 +1199,7 @@
       <c r="K20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="47" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1201,10 +1210,10 @@
       <c r="C21" s="5">
         <v>10</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="44">
         <v>1699</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="44">
         <f t="shared" ref="E21" si="2">D21*C21</f>
         <v>16990</v>
       </c>
@@ -1215,25 +1224,25 @@
       <c r="J21" s="5">
         <v>4</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="44">
         <v>450</v>
       </c>
-      <c r="L21" s="47">
+      <c r="L21" s="44">
         <f>K21*J21</f>
         <v>1800</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="44">
         <v>125</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="44">
         <f>D22*C22</f>
         <v>125</v>
       </c>
@@ -1244,25 +1253,25 @@
       <c r="J22" s="5">
         <v>21</v>
       </c>
-      <c r="K22" s="47">
+      <c r="K22" s="44">
         <v>1699</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="44">
         <f t="shared" ref="L22" si="3">K22*J22</f>
         <v>35679</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="44">
         <v>4120</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="44">
         <f>D23*C23</f>
         <v>4120</v>
       </c>
@@ -1273,10 +1282,10 @@
       <c r="J23" s="5">
         <v>1</v>
       </c>
-      <c r="K23" s="47">
+      <c r="K23" s="44">
         <v>1700</v>
       </c>
-      <c r="L23" s="47">
+      <c r="L23" s="44">
         <f>K23*J23</f>
         <v>1700</v>
       </c>
@@ -1288,108 +1297,108 @@
       <c r="C24" s="5">
         <v>1</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="44">
         <v>1700</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="44">
         <f>D24*C24</f>
         <v>1700</v>
       </c>
       <c r="F24" s="28"/>
       <c r="I24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J24" s="5">
         <v>42</v>
       </c>
-      <c r="K24" s="47">
+      <c r="K24" s="44">
         <v>0.5</v>
       </c>
-      <c r="L24" s="47">
+      <c r="L24" s="44">
         <f>K24*J24</f>
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="5">
         <f>2*C21+2*C24+2*C28</f>
         <v>24</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="44">
         <v>0.5</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="44">
         <f>D25*C25</f>
         <v>12</v>
       </c>
       <c r="F25" s="28"/>
       <c r="I25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J25" s="17"/>
-      <c r="K25" s="47">
+      <c r="K25" s="44">
         <v>0.85</v>
       </c>
-      <c r="L25" s="47">
+      <c r="L25" s="44">
         <f t="shared" ref="L25:L28" si="4">K25*J25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="17"/>
-      <c r="D26" s="47">
+      <c r="D26" s="44">
         <v>0.85</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="44">
         <f t="shared" ref="E26:E32" si="5">D26*C26</f>
         <v>0</v>
       </c>
       <c r="F26" s="28"/>
       <c r="I26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J26" s="10">
         <v>1</v>
       </c>
-      <c r="K26" s="47">
+      <c r="K26" s="44">
         <v>1190</v>
       </c>
-      <c r="L26" s="47">
+      <c r="L26" s="44">
         <f t="shared" si="4"/>
         <v>1190</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="10">
         <v>1</v>
       </c>
-      <c r="D27" s="47">
+      <c r="D27" s="44">
         <v>1190</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="44">
         <f t="shared" si="5"/>
         <v>1190</v>
       </c>
       <c r="F27" s="24"/>
       <c r="I27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J27" s="22">
         <v>6</v>
       </c>
-      <c r="K27" s="48">
+      <c r="K27" s="45">
         <v>12</v>
       </c>
-      <c r="L27" s="48">
+      <c r="L27" s="45">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
@@ -1401,123 +1410,125 @@
       <c r="C28" s="22">
         <v>1</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="45">
         <v>195</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="45">
         <f t="shared" si="5"/>
         <v>195</v>
       </c>
       <c r="F28" s="24"/>
       <c r="I28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J28" s="10">
         <v>84</v>
       </c>
-      <c r="K28" s="48">
+      <c r="K28" s="45">
         <v>13</v>
       </c>
-      <c r="L28" s="48">
+      <c r="L28" s="45">
         <f t="shared" si="4"/>
         <v>1092</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="22">
         <v>4</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="45">
         <v>2499</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="45">
         <f t="shared" si="5"/>
         <v>9996</v>
       </c>
       <c r="F29" s="24"/>
       <c r="I29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J29" s="10">
         <v>5</v>
       </c>
       <c r="K29" s="23"/>
-      <c r="L29" s="48">
+      <c r="L29" s="45">
         <f t="shared" ref="L29" si="6">K29*J29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="22">
         <v>3</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="45">
         <v>12</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="45">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="F30" s="24"/>
       <c r="H30" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
       <c r="K30" s="35"/>
-      <c r="L30" s="46">
+      <c r="L30" s="43">
         <f>SUM(L21:L29)</f>
         <v>41554</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="10">
         <v>40</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="45">
         <v>13</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="45">
         <f t="shared" si="5"/>
         <v>520</v>
       </c>
       <c r="F31" s="28"/>
+      <c r="L31" s="36"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="22">
         <v>1</v>
       </c>
-      <c r="D32" s="47">
+      <c r="D32" s="44">
         <v>5700</v>
       </c>
-      <c r="E32" s="47">
+      <c r="E32" s="44">
         <f t="shared" si="5"/>
         <v>5700</v>
       </c>
+      <c r="L32" s="36"/>
       <c r="N32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="46">
+      <c r="D33" s="46"/>
+      <c r="E33" s="43">
         <f>SUM(E20:E32)</f>
         <v>41034</v>
       </c>
@@ -1530,13 +1541,14 @@
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+      <c r="L33" s="48"/>
       <c r="N33" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D34" s="39"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="24"/>
       <c r="I34" s="1" t="s">
         <v>2</v>
@@ -1547,7 +1559,7 @@
       <c r="K34" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="L34" s="47" t="s">
         <v>8</v>
       </c>
       <c r="M34">
@@ -1562,8 +1574,8 @@
         <v>2</v>
       </c>
       <c r="C35" s="8"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="6"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="28"/>
       <c r="I35" s="1" t="s">
         <v>4</v>
@@ -1571,10 +1583,10 @@
       <c r="J35" s="5">
         <v>2</v>
       </c>
-      <c r="K35" s="47">
+      <c r="K35" s="44">
         <v>450</v>
       </c>
-      <c r="L35" s="47">
+      <c r="L35" s="44">
         <f>K35*J35</f>
         <v>900</v>
       </c>
@@ -1589,10 +1601,10 @@
       <c r="C36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="47" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="28"/>
@@ -1602,15 +1614,15 @@
       <c r="J36" s="5">
         <v>21</v>
       </c>
-      <c r="K36" s="47">
+      <c r="K36" s="44">
         <v>1699</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="44">
         <f t="shared" ref="L36" si="7">K36*J36</f>
         <v>35679</v>
       </c>
       <c r="N36" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -1620,10 +1632,10 @@
       <c r="C37" s="5">
         <v>6</v>
       </c>
-      <c r="D37" s="47">
+      <c r="D37" s="44">
         <v>450</v>
       </c>
-      <c r="E37" s="47">
+      <c r="E37" s="44">
         <f>D37*C37</f>
         <v>2700</v>
       </c>
@@ -1634,15 +1646,15 @@
       <c r="J37" s="5">
         <v>1</v>
       </c>
-      <c r="K37" s="47">
+      <c r="K37" s="44">
         <v>1700</v>
       </c>
-      <c r="L37" s="47">
+      <c r="L37" s="44">
         <f>K37*J37</f>
         <v>1700</v>
       </c>
       <c r="N37" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -1652,29 +1664,29 @@
       <c r="C38" s="5">
         <v>14</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="44">
         <v>1699</v>
       </c>
-      <c r="E38" s="47">
+      <c r="E38" s="44">
         <f t="shared" ref="E38" si="8">D38*C38</f>
         <v>23786</v>
       </c>
       <c r="F38" s="28"/>
       <c r="I38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J38" s="5">
         <v>42</v>
       </c>
-      <c r="K38" s="47">
+      <c r="K38" s="44">
         <v>0.5</v>
       </c>
-      <c r="L38" s="47">
+      <c r="L38" s="44">
         <f>K38*J38</f>
         <v>21</v>
       </c>
       <c r="N38" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -1684,56 +1696,56 @@
       <c r="C39" s="5">
         <v>1</v>
       </c>
-      <c r="D39" s="47">
+      <c r="D39" s="44">
         <v>1700</v>
       </c>
-      <c r="E39" s="47">
+      <c r="E39" s="44">
         <f>D39*C39</f>
         <v>1700</v>
       </c>
       <c r="F39" s="28"/>
       <c r="I39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J39" s="10">
         <v>639.6</v>
       </c>
-      <c r="K39" s="47">
+      <c r="K39" s="44">
         <v>0.85</v>
       </c>
-      <c r="L39" s="47">
+      <c r="L39" s="44">
         <f t="shared" ref="L39:L44" si="9">K39*J39</f>
         <v>543.66</v>
       </c>
       <c r="N39" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40" s="5">
         <v>28</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="44">
         <v>0.5</v>
       </c>
-      <c r="E40" s="47">
+      <c r="E40" s="44">
         <f>D40*C40</f>
         <v>14</v>
       </c>
       <c r="F40" s="28"/>
       <c r="I40" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J40" s="10">
         <v>1</v>
       </c>
-      <c r="K40" s="47">
+      <c r="K40" s="44">
         <v>1190</v>
       </c>
-      <c r="L40" s="47">
+      <c r="L40" s="44">
         <f t="shared" si="9"/>
         <v>1190</v>
       </c>
@@ -1743,161 +1755,163 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" s="17"/>
-      <c r="D41" s="47">
+      <c r="D41" s="44">
         <v>0.85</v>
       </c>
-      <c r="E41" s="47">
+      <c r="E41" s="44">
         <f t="shared" ref="E41:E45" si="10">D41*C41</f>
         <v>0</v>
       </c>
       <c r="F41" s="28"/>
       <c r="I41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J41" s="22">
         <v>1</v>
       </c>
-      <c r="K41" s="48">
+      <c r="K41" s="45">
         <v>3934</v>
       </c>
-      <c r="L41" s="48">
+      <c r="L41" s="45">
         <f t="shared" si="9"/>
         <v>3934</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="10">
         <v>1</v>
       </c>
-      <c r="D42" s="47">
+      <c r="D42" s="44">
         <v>1190</v>
       </c>
-      <c r="E42" s="47">
+      <c r="E42" s="44">
         <f t="shared" si="10"/>
         <v>1190</v>
       </c>
       <c r="F42" s="28"/>
       <c r="I42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J42" s="22">
         <v>6</v>
       </c>
-      <c r="K42" s="48">
+      <c r="K42" s="45">
         <v>12</v>
       </c>
-      <c r="L42" s="48">
+      <c r="L42" s="45">
         <f t="shared" si="9"/>
         <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="10">
         <v>4</v>
       </c>
-      <c r="D43" s="48">
+      <c r="D43" s="45">
         <v>12</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E43" s="44">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="F43" s="24"/>
       <c r="I43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J43" s="10">
         <v>84</v>
       </c>
-      <c r="K43" s="48">
+      <c r="K43" s="45">
         <v>13</v>
       </c>
-      <c r="L43" s="48">
+      <c r="L43" s="45">
         <f t="shared" si="9"/>
         <v>1092</v>
       </c>
       <c r="N43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" s="10">
         <v>56</v>
       </c>
-      <c r="D44" s="48">
+      <c r="D44" s="45">
         <v>13</v>
       </c>
-      <c r="E44" s="47">
+      <c r="E44" s="44">
         <f t="shared" si="10"/>
         <v>728</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J44" s="10">
         <v>13</v>
       </c>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48">
+      <c r="K44" s="45"/>
+      <c r="L44" s="45">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="10">
         <v>9</v>
       </c>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48">
+      <c r="D45" s="45"/>
+      <c r="E45" s="45">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I45" s="35"/>
       <c r="J45" s="35"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="46">
+      <c r="K45" s="46"/>
+      <c r="L45" s="43">
         <f>SUM(L35:L44)</f>
         <v>45131.66</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="46">
+      <c r="D46" s="46"/>
+      <c r="E46" s="43">
         <f>SUM(E37:E45)</f>
         <v>30166</v>
       </c>
-      <c r="K46" s="39"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D47" s="39"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>0</v>
@@ -1906,8 +1920,8 @@
         <v>5</v>
       </c>
       <c r="J47" s="8"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="6"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -1917,10 +1931,10 @@
         <v>4</v>
       </c>
       <c r="C48" s="8"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="6"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
       <c r="F48" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>2</v>
@@ -1928,17 +1942,17 @@
       <c r="J48" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="50" t="s">
+      <c r="K48" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="L48" s="9" t="s">
+      <c r="L48" s="47" t="s">
         <v>8</v>
       </c>
       <c r="M48">
         <v>13</v>
       </c>
       <c r="N48" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -1948,10 +1962,10 @@
       <c r="C49" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="47" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="32"/>
@@ -1961,10 +1975,10 @@
       <c r="J49" s="5">
         <v>4</v>
       </c>
-      <c r="K49" s="47">
+      <c r="K49" s="44">
         <v>450</v>
       </c>
-      <c r="L49" s="47">
+      <c r="L49" s="44">
         <f>K49*J49</f>
         <v>1800</v>
       </c>
@@ -1980,15 +1994,15 @@
       <c r="C50" s="5">
         <v>4</v>
       </c>
-      <c r="D50" s="47">
+      <c r="D50" s="44">
         <v>450</v>
       </c>
-      <c r="E50" s="47">
+      <c r="E50" s="44">
         <f>D50*C50</f>
         <v>1800</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>5</v>
@@ -1996,10 +2010,10 @@
       <c r="J50" s="5">
         <v>7</v>
       </c>
-      <c r="K50" s="47">
+      <c r="K50" s="44">
         <v>1699</v>
       </c>
-      <c r="L50" s="47">
+      <c r="L50" s="44">
         <f t="shared" ref="L50" si="11">K50*J50</f>
         <v>11893</v>
       </c>
@@ -2014,15 +2028,15 @@
       <c r="C51" s="5">
         <v>14</v>
       </c>
-      <c r="D51" s="47">
+      <c r="D51" s="44">
         <v>1699</v>
       </c>
-      <c r="E51" s="47">
+      <c r="E51" s="44">
         <f t="shared" ref="E51" si="12">D51*C51</f>
         <v>23786</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>6</v>
@@ -2030,10 +2044,10 @@
       <c r="J51" s="5">
         <v>1</v>
       </c>
-      <c r="K51" s="47">
+      <c r="K51" s="44">
         <v>1700</v>
       </c>
-      <c r="L51" s="47">
+      <c r="L51" s="44">
         <f>K51*J51</f>
         <v>1700</v>
       </c>
@@ -2048,92 +2062,92 @@
       <c r="C52" s="5">
         <v>1</v>
       </c>
-      <c r="D52" s="47">
+      <c r="D52" s="44">
         <v>1700</v>
       </c>
-      <c r="E52" s="47">
+      <c r="E52" s="44">
         <f>D52*C52</f>
         <v>1700</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J52" s="5">
         <v>14</v>
       </c>
-      <c r="K52" s="47">
+      <c r="K52" s="44">
         <v>0.5</v>
       </c>
-      <c r="L52" s="47">
+      <c r="L52" s="44">
         <f>K52*J52</f>
         <v>7</v>
       </c>
       <c r="N52" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="5">
         <v>28</v>
       </c>
-      <c r="D53" s="47">
+      <c r="D53" s="44">
         <v>0.5</v>
       </c>
-      <c r="E53" s="47">
+      <c r="E53" s="44">
         <f>D53*C53</f>
         <v>14</v>
       </c>
       <c r="F53" s="33"/>
       <c r="I53" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J53" s="10">
         <v>252.6</v>
       </c>
-      <c r="K53" s="47">
+      <c r="K53" s="44">
         <v>0.85</v>
       </c>
-      <c r="L53" s="47">
+      <c r="L53" s="44">
         <f t="shared" ref="L53:L58" si="13">K53*J53</f>
         <v>214.70999999999998</v>
       </c>
       <c r="N53" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" s="10">
         <v>502</v>
       </c>
-      <c r="D54" s="47">
+      <c r="D54" s="44">
         <v>0.85</v>
       </c>
-      <c r="E54" s="47">
+      <c r="E54" s="44">
         <f t="shared" ref="E54:E58" si="14">D54*C54</f>
         <v>426.7</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J54" s="10">
         <v>1</v>
       </c>
-      <c r="K54" s="47">
+      <c r="K54" s="44">
         <v>1190</v>
       </c>
-      <c r="L54" s="47">
+      <c r="L54" s="44">
         <f t="shared" si="13"/>
         <v>1190</v>
       </c>
@@ -2141,96 +2155,96 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C55" s="10">
         <v>1</v>
       </c>
-      <c r="D55" s="47">
+      <c r="D55" s="44">
         <v>1190</v>
       </c>
-      <c r="E55" s="47">
+      <c r="E55" s="44">
         <f t="shared" si="14"/>
         <v>1190</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J55" s="22">
         <v>1</v>
       </c>
-      <c r="K55" s="48">
+      <c r="K55" s="45">
         <v>3935</v>
       </c>
-      <c r="L55" s="48">
+      <c r="L55" s="45">
         <f t="shared" si="13"/>
         <v>3935</v>
       </c>
       <c r="N55" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" s="22">
         <v>3</v>
       </c>
-      <c r="D56" s="48">
+      <c r="D56" s="45">
         <v>12</v>
       </c>
-      <c r="E56" s="48">
+      <c r="E56" s="45">
         <f t="shared" si="14"/>
         <v>36</v>
       </c>
       <c r="F56" s="32"/>
       <c r="I56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J56" s="22">
         <v>2</v>
       </c>
-      <c r="K56" s="48">
+      <c r="K56" s="45">
         <v>12</v>
       </c>
-      <c r="L56" s="48">
+      <c r="L56" s="45">
         <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="N56" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57" s="10">
         <v>56</v>
       </c>
-      <c r="D57" s="48">
+      <c r="D57" s="45">
         <v>13</v>
       </c>
-      <c r="E57" s="48">
+      <c r="E57" s="45">
         <f t="shared" si="14"/>
         <v>728</v>
       </c>
       <c r="F57" s="32"/>
       <c r="H57" s="12"/>
       <c r="I57" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J57" s="26">
         <v>28</v>
       </c>
-      <c r="K57" s="48">
+      <c r="K57" s="45">
         <v>13</v>
       </c>
-      <c r="L57" s="48">
+      <c r="L57" s="45">
         <f t="shared" si="13"/>
         <v>364</v>
       </c>
@@ -2238,25 +2252,25 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="10">
         <v>17</v>
       </c>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48">
+      <c r="D58" s="45"/>
+      <c r="E58" s="45">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J58" s="10">
         <v>21</v>
       </c>
-      <c r="K58" s="48"/>
-      <c r="L58" s="48">
+      <c r="K58" s="45"/>
+      <c r="L58" s="45">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -2264,30 +2278,32 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="35"/>
       <c r="C59" s="35"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="46">
+      <c r="D59" s="46"/>
+      <c r="E59" s="43">
         <f>SUM(E50:E58)</f>
         <v>29680.7</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I59" s="35"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
-      <c r="L59" s="46">
+      <c r="L59" s="43">
         <f>SUM(L49:L58)</f>
         <v>21127.71</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D60" s="39"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
       <c r="F60" s="6"/>
       <c r="I60" s="12"/>
+      <c r="L60" s="36"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -2297,13 +2313,14 @@
         <v>9</v>
       </c>
       <c r="C61" s="8"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="6"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
       <c r="F61" s="24"/>
       <c r="H61" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I61" s="18"/>
+      <c r="L61" s="36"/>
       <c r="M61">
         <v>3</v>
       </c>
@@ -2315,10 +2332,10 @@
       <c r="C62" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="50" t="s">
+      <c r="D62" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="47" t="s">
         <v>8</v>
       </c>
       <c r="F62" s="28"/>
@@ -2331,7 +2348,7 @@
       <c r="K62" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L62" s="9" t="s">
+      <c r="L62" s="47" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2342,20 +2359,20 @@
       <c r="C63" s="5">
         <v>1</v>
       </c>
-      <c r="D63" s="47">
+      <c r="D63" s="44">
         <v>450</v>
       </c>
-      <c r="E63" s="47">
+      <c r="E63" s="44">
         <f>D63*C63</f>
         <v>450</v>
       </c>
       <c r="F63" s="28"/>
       <c r="I63" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
-      <c r="L63" s="47">
+      <c r="L63" s="44">
         <f t="shared" ref="L63:L68" si="15">J63*K63</f>
         <v>0</v>
       </c>
@@ -2367,173 +2384,173 @@
       <c r="C64" s="5">
         <v>2</v>
       </c>
-      <c r="D64" s="47">
+      <c r="D64" s="44">
         <v>1699</v>
       </c>
-      <c r="E64" s="47">
+      <c r="E64" s="44">
         <f t="shared" ref="E64" si="16">D64*C64</f>
         <v>3398</v>
       </c>
       <c r="F64" s="28"/>
       <c r="I64" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
-      <c r="L64" s="47">
+      <c r="L64" s="44">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C65" s="5">
         <v>2</v>
       </c>
-      <c r="D65" s="47">
+      <c r="D65" s="44">
         <v>0.5</v>
       </c>
-      <c r="E65" s="47">
+      <c r="E65" s="44">
         <f>D65*C65</f>
         <v>1</v>
       </c>
       <c r="F65" s="28"/>
       <c r="I65" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J65" s="10">
         <v>1</v>
       </c>
-      <c r="K65" s="10">
+      <c r="K65" s="44">
         <v>20000</v>
       </c>
-      <c r="L65" s="10">
+      <c r="L65" s="44">
         <f t="shared" si="15"/>
         <v>20000</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" s="10">
         <v>23</v>
       </c>
-      <c r="D66" s="47">
+      <c r="D66" s="44">
         <v>0.85</v>
       </c>
-      <c r="E66" s="47">
+      <c r="E66" s="44">
         <f>D66*C66</f>
         <v>19.55</v>
       </c>
       <c r="F66" s="24"/>
       <c r="I66" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J66" s="10">
         <v>1</v>
       </c>
-      <c r="K66" s="47">
+      <c r="K66" s="44">
         <v>1400</v>
       </c>
-      <c r="L66" s="47">
+      <c r="L66" s="44">
         <f t="shared" si="15"/>
         <v>1400</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C67" s="22">
         <v>1</v>
       </c>
-      <c r="D67" s="48">
+      <c r="D67" s="45">
         <v>195</v>
       </c>
-      <c r="E67" s="48">
+      <c r="E67" s="45">
         <f>D67*C67</f>
         <v>195</v>
       </c>
       <c r="F67" s="24"/>
       <c r="I67" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J67" s="10">
         <v>16</v>
       </c>
-      <c r="K67" s="47">
+      <c r="K67" s="44">
         <v>12</v>
       </c>
-      <c r="L67" s="47">
+      <c r="L67" s="44">
         <f t="shared" si="15"/>
         <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C68" s="22">
         <v>1</v>
       </c>
-      <c r="D68" s="48">
+      <c r="D68" s="45">
         <v>12</v>
       </c>
-      <c r="E68" s="48">
+      <c r="E68" s="45">
         <f>D68*C68</f>
         <v>12</v>
       </c>
       <c r="F68" s="24"/>
       <c r="I68" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J68" s="10">
         <v>7</v>
       </c>
-      <c r="K68" s="48">
+      <c r="K68" s="45">
         <v>60</v>
       </c>
-      <c r="L68" s="47">
+      <c r="L68" s="44">
         <f t="shared" si="15"/>
         <v>420</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C69" s="10">
         <v>8</v>
       </c>
-      <c r="D69" s="48">
+      <c r="D69" s="45">
         <v>13</v>
       </c>
-      <c r="E69" s="48">
+      <c r="E69" s="45">
         <f>D69*C69</f>
         <v>104</v>
       </c>
       <c r="H69" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I69" s="35"/>
       <c r="J69" s="35"/>
       <c r="K69" s="35"/>
-      <c r="L69" s="46">
+      <c r="L69" s="43">
         <f>SUM(L63:L68)</f>
         <v>22012</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" s="35"/>
       <c r="C70" s="35"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="46">
+      <c r="D70" s="46"/>
+      <c r="E70" s="43">
         <f>SUM(E63:E69)</f>
         <v>4179.55</v>
       </c>
@@ -2549,7 +2566,7 @@
     </row>
     <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I72" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J72" s="16">
         <f>C69+J57+C57+J43+J28+C31+J15+C15</f>
@@ -2560,16 +2577,16 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I73" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F76" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
+      <c r="F76" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
     </row>
     <row r="77" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="F77" s="15"/>
@@ -2583,62 +2600,74 @@
       <c r="F79" s="14"/>
     </row>
     <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F80" s="42" t="s">
-        <v>15</v>
+      <c r="F80" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
-      <c r="I80" s="45">
-        <v>1500</v>
+      <c r="I80" s="42">
+        <v>2500</v>
       </c>
     </row>
     <row r="81" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F81" s="42" t="s">
-        <v>16</v>
+      <c r="F81" s="39" t="s">
+        <v>15</v>
       </c>
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
-      <c r="I81" s="40">
+      <c r="I81" s="37">
         <v>2500</v>
       </c>
     </row>
     <row r="82" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F82" s="42" t="s">
-        <v>17</v>
+      <c r="F82" s="39" t="s">
+        <v>16</v>
       </c>
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
-      <c r="I82" s="43">
+      <c r="I82" s="40">
         <v>3000</v>
       </c>
     </row>
     <row r="83" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F83" s="42" t="s">
-        <v>18</v>
+      <c r="F83" s="39" t="s">
+        <v>17</v>
       </c>
       <c r="G83" s="16"/>
       <c r="H83" s="16"/>
-      <c r="I83" s="41">
+      <c r="I83" s="38">
         <f>E70+L69+L59+E59+L45+E46+L30+E33+L16+E16</f>
         <v>239213.82499999998</v>
       </c>
     </row>
-    <row r="84" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F84" s="42"/>
+    <row r="84" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F84" s="39"/>
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
+      <c r="I84" s="37"/>
     </row>
     <row r="85" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F85" s="44" t="s">
-        <v>66</v>
+      <c r="F85" s="41" t="s">
+        <v>65</v>
       </c>
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
-      <c r="I85" s="40">
-        <f>SUM(I80:I84)</f>
-        <v>246213.82499999998</v>
-      </c>
+      <c r="I85" s="37">
+        <f ca="1">SUM(I80:I87)</f>
+        <v>247213.82499999998</v>
+      </c>
+    </row>
+    <row r="86" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F86" s="39"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="37"/>
+    </row>
+    <row r="87" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2689,7 +2718,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>8</v>
@@ -2702,7 +2731,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>8</v>
@@ -2732,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -2759,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -2808,7 +2837,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>8</v>
@@ -2820,7 +2849,7 @@
         <v>3</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>8</v>
@@ -2960,7 +2989,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>8</v>
@@ -2972,7 +3001,7 @@
         <v>3</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L26" s="9" t="s">
         <v>8</v>
@@ -3118,7 +3147,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>8</v>
@@ -3130,7 +3159,7 @@
         <v>3</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L39" s="9" t="s">
         <v>8</v>
@@ -3273,7 +3302,7 @@
       <c r="F50" s="6"/>
       <c r="H50" s="11"/>
       <c r="I50" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
@@ -3288,7 +3317,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>8</v>
@@ -3314,7 +3343,7 @@
       </c>
       <c r="H52" s="11"/>
       <c r="I52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
@@ -3354,7 +3383,7 @@
       </c>
       <c r="H54" s="11"/>
       <c r="I54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>

--- a/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
+++ b/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="66">
   <si>
     <t>Piso:</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Cable UTP</t>
-  </si>
-  <si>
-    <t>Fibra</t>
   </si>
   <si>
     <t>Total bocas</t>
@@ -838,7 +835,7 @@
   <dimension ref="A3:N87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E70" sqref="E9:E70"/>
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +857,7 @@
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E3" s="49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
@@ -1047,7 +1044,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="10">
         <v>1</v>
@@ -1061,22 +1058,15 @@
       </c>
       <c r="F14" s="24"/>
       <c r="I14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="10">
-        <v>1</v>
-      </c>
-      <c r="K14" s="45">
-        <v>12</v>
-      </c>
-      <c r="L14" s="45">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="10">
         <v>6</v>
@@ -1090,7 +1080,7 @@
       </c>
       <c r="F15" s="24"/>
       <c r="I15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" s="10">
         <v>6</v>
@@ -1105,7 +1095,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -1116,14 +1106,14 @@
       </c>
       <c r="F16" s="31"/>
       <c r="H16" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
       <c r="L16" s="43">
         <f>SUM(L10:L15)</f>
-        <v>2418.5500000000002</v>
+        <v>2406.5500000000002</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1234,7 +1224,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -1263,7 +1253,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -1390,17 +1380,17 @@
       </c>
       <c r="F27" s="24"/>
       <c r="I27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J27" s="22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K27" s="45">
         <v>12</v>
       </c>
       <c r="L27" s="45">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1419,7 +1409,7 @@
       </c>
       <c r="F28" s="24"/>
       <c r="I28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28" s="10">
         <v>84</v>
@@ -1434,7 +1424,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="22">
         <v>4</v>
@@ -1448,46 +1438,48 @@
       </c>
       <c r="F29" s="24"/>
       <c r="I29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J29" s="10">
         <v>5</v>
       </c>
-      <c r="K29" s="23"/>
+      <c r="K29" s="23">
+        <v>15</v>
+      </c>
       <c r="L29" s="45">
         <f t="shared" ref="L29" si="6">K29*J29</f>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="45">
         <v>12</v>
       </c>
       <c r="E30" s="45">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F30" s="24"/>
       <c r="H30" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
       <c r="K30" s="35"/>
       <c r="L30" s="43">
         <f>SUM(L21:L29)</f>
-        <v>41554</v>
+        <v>41593</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="10">
         <v>40</v>
@@ -1504,7 +1496,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="22">
         <v>1</v>
@@ -1518,19 +1510,19 @@
       </c>
       <c r="L32" s="36"/>
       <c r="N32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
       <c r="D33" s="46"/>
       <c r="E33" s="43">
         <f>SUM(E20:E32)</f>
-        <v>41034</v>
+        <v>41022</v>
       </c>
       <c r="F33" s="6"/>
       <c r="H33" s="1" t="s">
@@ -1543,7 +1535,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="48"/>
       <c r="N33" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -1622,7 +1614,7 @@
         <v>35679</v>
       </c>
       <c r="N36" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -1654,7 +1646,7 @@
         <v>1700</v>
       </c>
       <c r="N37" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -1686,7 +1678,7 @@
         <v>21</v>
       </c>
       <c r="N38" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -1718,7 +1710,7 @@
         <v>543.66</v>
       </c>
       <c r="N39" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -1767,7 +1759,7 @@
       </c>
       <c r="F41" s="28"/>
       <c r="I41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J41" s="22">
         <v>1</v>
@@ -1796,36 +1788,36 @@
       </c>
       <c r="F42" s="28"/>
       <c r="I42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J42" s="22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K42" s="45">
         <v>12</v>
       </c>
       <c r="L42" s="45">
         <f t="shared" si="9"/>
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" s="45">
         <v>12</v>
       </c>
       <c r="E43" s="44">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F43" s="24"/>
       <c r="I43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J43" s="10">
         <v>84</v>
@@ -1838,12 +1830,12 @@
         <v>1092</v>
       </c>
       <c r="N43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="10">
         <v>56</v>
@@ -1856,53 +1848,57 @@
         <v>728</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J44" s="10">
         <v>13</v>
       </c>
-      <c r="K44" s="45"/>
+      <c r="K44" s="45">
+        <v>15</v>
+      </c>
       <c r="L44" s="45">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="N44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="10">
         <v>9</v>
       </c>
-      <c r="D45" s="45"/>
+      <c r="D45" s="45">
+        <v>15</v>
+      </c>
       <c r="E45" s="45">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I45" s="35"/>
       <c r="J45" s="35"/>
       <c r="K45" s="46"/>
       <c r="L45" s="43">
         <f>SUM(L35:L44)</f>
-        <v>45131.66</v>
+        <v>45290.66</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="46"/>
       <c r="E46" s="43">
         <f>SUM(E37:E45)</f>
-        <v>30166</v>
+        <v>30277</v>
       </c>
       <c r="K46" s="36"/>
       <c r="L46" s="36"/>
@@ -1911,7 +1907,7 @@
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>0</v>
@@ -1934,7 +1930,7 @@
       <c r="D48" s="48"/>
       <c r="E48" s="48"/>
       <c r="F48" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>2</v>
@@ -1952,7 +1948,7 @@
         <v>13</v>
       </c>
       <c r="N48" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -2002,7 +1998,7 @@
         <v>1800</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>5</v>
@@ -2036,7 +2032,7 @@
         <v>23786</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>6</v>
@@ -2070,7 +2066,7 @@
         <v>1700</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>19</v>
@@ -2086,7 +2082,7 @@
         <v>7</v>
       </c>
       <c r="N52" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -2118,7 +2114,7 @@
         <v>214.70999999999998</v>
       </c>
       <c r="N53" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -2136,7 +2132,7 @@
         <v>426.7</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>20</v>
@@ -2168,10 +2164,10 @@
         <v>1190</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J55" s="22">
         <v>1</v>
@@ -2184,44 +2180,44 @@
         <v>3935</v>
       </c>
       <c r="N55" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" s="45">
         <v>12</v>
       </c>
       <c r="E56" s="45">
         <f t="shared" si="14"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F56" s="32"/>
       <c r="I56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J56" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K56" s="45">
         <v>12</v>
       </c>
       <c r="L56" s="45">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N56" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C57" s="10">
         <v>56</v>
@@ -2236,7 +2232,7 @@
       <c r="F57" s="32"/>
       <c r="H57" s="12"/>
       <c r="I57" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J57" s="26">
         <v>28</v>
@@ -2252,50 +2248,54 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" s="10">
         <v>17</v>
       </c>
-      <c r="D58" s="45"/>
+      <c r="D58" s="45">
+        <v>15</v>
+      </c>
       <c r="E58" s="45">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J58" s="10">
         <v>21</v>
       </c>
-      <c r="K58" s="45"/>
+      <c r="K58" s="45">
+        <v>15</v>
+      </c>
       <c r="L58" s="45">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="N58" s="30"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" s="35"/>
       <c r="C59" s="35"/>
       <c r="D59" s="46"/>
       <c r="E59" s="43">
         <f>SUM(E50:E58)</f>
-        <v>29680.7</v>
+        <v>29923.7</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I59" s="35"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="43">
         <f>SUM(L49:L58)</f>
-        <v>21127.71</v>
+        <v>21430.71</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -2317,7 +2317,7 @@
       <c r="E61" s="48"/>
       <c r="F61" s="24"/>
       <c r="H61" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I61" s="18"/>
       <c r="L61" s="36"/>
@@ -2368,13 +2368,17 @@
       </c>
       <c r="F63" s="28"/>
       <c r="I63" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="J63" s="10">
+        <v>10</v>
+      </c>
+      <c r="K63" s="10">
+        <v>130</v>
+      </c>
       <c r="L63" s="44">
-        <f t="shared" ref="L63:L68" si="15">J63*K63</f>
-        <v>0</v>
+        <f>J63*K63</f>
+        <v>1300</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -2388,18 +2392,22 @@
         <v>1699</v>
       </c>
       <c r="E64" s="44">
-        <f t="shared" ref="E64" si="16">D64*C64</f>
+        <f t="shared" ref="E64" si="15">D64*C64</f>
         <v>3398</v>
       </c>
       <c r="F64" s="28"/>
       <c r="I64" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="J64" s="10">
+        <v>1</v>
+      </c>
+      <c r="K64" s="44">
+        <v>20000</v>
+      </c>
       <c r="L64" s="44">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>J64*K64</f>
+        <v>20000</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2417,18 +2425,18 @@
         <v>1</v>
       </c>
       <c r="F65" s="28"/>
-      <c r="I65" s="17" t="s">
-        <v>30</v>
+      <c r="I65" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="J65" s="10">
         <v>1</v>
       </c>
       <c r="K65" s="44">
-        <v>20000</v>
+        <v>1400</v>
       </c>
       <c r="L65" s="44">
-        <f t="shared" si="15"/>
-        <v>20000</v>
+        <f>J65*K65</f>
+        <v>1400</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2450,19 +2458,19 @@
         <v>34</v>
       </c>
       <c r="J66" s="10">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K66" s="44">
-        <v>1400</v>
+        <v>12</v>
       </c>
       <c r="L66" s="44">
-        <f t="shared" si="15"/>
-        <v>1400</v>
+        <f>J66*K66</f>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67" s="22">
         <v>1</v>
@@ -2479,19 +2487,19 @@
         <v>35</v>
       </c>
       <c r="J67" s="10">
-        <v>16</v>
-      </c>
-      <c r="K67" s="44">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="K67" s="45">
+        <v>60</v>
       </c>
       <c r="L67" s="44">
-        <f t="shared" si="15"/>
-        <v>192</v>
+        <f>J67*K67</f>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C68" s="22">
         <v>1</v>
@@ -2504,23 +2512,20 @@
         <v>12</v>
       </c>
       <c r="F68" s="24"/>
-      <c r="I68" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J68" s="10">
-        <v>7</v>
-      </c>
-      <c r="K68" s="45">
-        <v>60</v>
-      </c>
-      <c r="L68" s="44">
-        <f t="shared" si="15"/>
-        <v>420</v>
+      <c r="H68" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="43">
+        <f>SUM(L63:L67)</f>
+        <v>23312</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C69" s="10">
         <v>8</v>
@@ -2532,20 +2537,10 @@
         <f>D69*C69</f>
         <v>104</v>
       </c>
-      <c r="H69" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="43">
-        <f>SUM(L63:L68)</f>
-        <v>22012</v>
-      </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B70" s="35"/>
       <c r="C70" s="35"/>
@@ -2566,7 +2561,7 @@
     </row>
     <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I72" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J72" s="16">
         <f>C69+J57+C57+J43+J28+C31+J15+C15</f>
@@ -2577,7 +2572,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I73" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -2601,7 +2596,7 @@
     </row>
     <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F80" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
@@ -2636,8 +2631,8 @@
       <c r="G83" s="16"/>
       <c r="H83" s="16"/>
       <c r="I83" s="38">
-        <f>E70+L69+L59+E59+L45+E46+L30+E33+L16+E16</f>
-        <v>239213.82499999998</v>
+        <f>E70+L68+L59+E59+L45+E46+L30+E33+L16+E16</f>
+        <v>241344.82499999998</v>
       </c>
     </row>
     <row r="84" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2648,7 +2643,7 @@
     </row>
     <row r="85" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F85" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
@@ -2718,7 +2713,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>8</v>
@@ -2731,7 +2726,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>8</v>
@@ -2761,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -2788,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -2837,7 +2832,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>8</v>
@@ -2849,7 +2844,7 @@
         <v>3</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>8</v>
@@ -2989,7 +2984,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>8</v>
@@ -3001,7 +2996,7 @@
         <v>3</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L26" s="9" t="s">
         <v>8</v>
@@ -3147,7 +3142,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>8</v>
@@ -3159,7 +3154,7 @@
         <v>3</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L39" s="9" t="s">
         <v>8</v>
@@ -3302,7 +3297,7 @@
       <c r="F50" s="6"/>
       <c r="H50" s="11"/>
       <c r="I50" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
@@ -3317,7 +3312,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>8</v>
@@ -3343,7 +3338,7 @@
       </c>
       <c r="H52" s="11"/>
       <c r="I52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
@@ -3383,7 +3378,7 @@
       </c>
       <c r="H54" s="11"/>
       <c r="I54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>

--- a/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
+++ b/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="66">
   <si>
     <t>Piso:</t>
   </si>
@@ -835,7 +835,7 @@
   <dimension ref="A3:N87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,11 +1058,18 @@
       </c>
       <c r="F14" s="24"/>
       <c r="I14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
+        <v>38</v>
+      </c>
+      <c r="J14" s="10">
+        <v>6</v>
+      </c>
+      <c r="K14" s="45">
+        <v>13</v>
+      </c>
+      <c r="L14" s="45">
+        <f>K14*J14</f>
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -1079,18 +1086,15 @@
         <v>78</v>
       </c>
       <c r="F15" s="24"/>
-      <c r="I15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="10">
-        <v>6</v>
-      </c>
-      <c r="K15" s="45">
-        <v>13</v>
-      </c>
-      <c r="L15" s="45">
-        <f t="shared" si="1"/>
-        <v>78</v>
+      <c r="H15" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="43">
+        <f>SUM(L10:L14)</f>
+        <v>2406.5500000000002</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1105,16 +1109,6 @@
         <v>1909.655</v>
       </c>
       <c r="F16" s="31"/>
-      <c r="H16" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="43">
-        <f>SUM(L10:L15)</f>
-        <v>2406.5500000000002</v>
-      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D17" s="36"/>
@@ -2564,7 +2558,7 @@
         <v>40</v>
       </c>
       <c r="J72" s="16">
-        <f>C69+J57+C57+J43+J28+C31+J15+C15</f>
+        <f>C69+J57+C57+J43+J28+C31+J14+C15</f>
         <v>312</v>
       </c>
       <c r="K72" s="16"/>
@@ -2631,7 +2625,7 @@
       <c r="G83" s="16"/>
       <c r="H83" s="16"/>
       <c r="I83" s="38">
-        <f>E70+L68+L59+E59+L45+E46+L30+E33+L16+E16</f>
+        <f>E70+L68+L59+E59+L45+E46+L30+E33+L15+E16</f>
         <v>241344.82499999998</v>
       </c>
     </row>

--- a/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
+++ b/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="presupuesa" localSheetId="0">Hoja1!$F$84</definedName>
+    <definedName name="presupuesa" localSheetId="0">Hoja1!$F$102</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="69">
   <si>
     <t>Piso:</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>Instalación  armarios rack 19” </t>
+  </si>
+  <si>
+    <t>Roseta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 x piso</t>
+  </si>
+  <si>
+    <t>1  x PC</t>
   </si>
 </sst>
 </file>
@@ -348,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -408,12 +417,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -460,9 +480,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -529,6 +546,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -832,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N87"/>
+  <dimension ref="A3:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,27 +880,27 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -886,7 +910,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="F8" s="31"/>
+      <c r="F8" s="30"/>
       <c r="H8" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,13 +927,13 @@
       <c r="C9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="23"/>
       <c r="H9" s="1" t="s">
         <v>2</v>
       </c>
@@ -917,10 +941,10 @@
       <c r="J9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="46" t="s">
         <v>8</v>
       </c>
     </row>
@@ -931,25 +955,25 @@
       <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="43">
         <v>810</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="43">
         <f t="shared" ref="E10:E15" si="0">D10*C10</f>
         <v>1620</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="23"/>
       <c r="I10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="5">
         <v>2</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="43">
         <v>810</v>
       </c>
-      <c r="L10" s="44">
-        <f t="shared" ref="L10:L15" si="1">K10*J10</f>
+      <c r="L10" s="43">
+        <f t="shared" ref="L10:L13" si="1">K10*J10</f>
         <v>1620</v>
       </c>
     </row>
@@ -960,24 +984,24 @@
       <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="43">
         <v>195</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="43">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="23"/>
       <c r="I11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="10">
         <v>1</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="43">
         <v>195</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="43">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
@@ -990,14 +1014,14 @@
         <f>2*C11</f>
         <v>2</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="43">
         <v>0.5</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="23"/>
       <c r="I12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1005,10 +1029,10 @@
         <f>2*J11</f>
         <v>2</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="43">
         <v>0.5</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="43">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1020,24 +1044,24 @@
       <c r="C13" s="10">
         <v>4.3</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="43">
         <v>0.85</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="43">
         <f t="shared" si="0"/>
         <v>3.6549999999999998</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="23"/>
       <c r="I13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="10">
         <v>603</v>
       </c>
-      <c r="K13" s="44">
+      <c r="K13" s="43">
         <v>0.85</v>
       </c>
-      <c r="L13" s="44">
+      <c r="L13" s="43">
         <f t="shared" si="1"/>
         <v>512.54999999999995</v>
       </c>
@@ -1049,24 +1073,24 @@
       <c r="C14" s="10">
         <v>1</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="43">
         <v>12</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="43">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="23"/>
       <c r="I14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J14" s="10">
         <v>6</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="44">
         <v>13</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="44">
         <f>K14*J14</f>
         <v>78</v>
       </c>
@@ -1078,1590 +1102,1679 @@
       <c r="C15" s="10">
         <v>6</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="43">
         <v>13</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="43">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="H15" s="34" t="s">
+      <c r="F15" s="23"/>
+      <c r="H15" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="43">
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="42">
         <f>SUM(L10:L14)</f>
         <v>2406.5500000000002</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="43">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="42">
         <f>SUM(E10:E15)</f>
         <v>1909.655</v>
       </c>
-      <c r="F16" s="31"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="31"/>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="24"/>
-      <c r="L18" s="36"/>
-      <c r="M18">
+      <c r="F16" s="30"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="30"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="23"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="7" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="23"/>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D23" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E23" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="H19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="48"/>
-      <c r="M19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="F23" s="23"/>
+      <c r="I23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="44">
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="43">
         <v>450</v>
       </c>
-      <c r="E20" s="44">
-        <f>D20*C20</f>
+      <c r="E24" s="43">
+        <f>D24*C24</f>
         <v>450</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="I20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="F24" s="27"/>
+      <c r="I24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="5">
+        <v>4</v>
+      </c>
+      <c r="K24" s="43">
+        <v>450</v>
+      </c>
+      <c r="L24" s="43">
+        <f>K24*J24</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C25" s="5">
         <v>10</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D25" s="43">
         <v>1699</v>
       </c>
-      <c r="E21" s="44">
-        <f t="shared" ref="E21" si="2">D21*C21</f>
+      <c r="E25" s="43">
+        <f t="shared" ref="E25" si="2">D25*C25</f>
         <v>16990</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="I21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="5">
-        <v>4</v>
-      </c>
-      <c r="K21" s="44">
-        <v>450</v>
-      </c>
-      <c r="L21" s="44">
-        <f>K21*J21</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="F25" s="27"/>
+      <c r="I25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="5">
+        <v>21</v>
+      </c>
+      <c r="K25" s="43">
+        <v>1699</v>
+      </c>
+      <c r="L25" s="43">
+        <f t="shared" ref="L25" si="3">K25*J25</f>
+        <v>35679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="44">
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="43">
         <v>125</v>
       </c>
-      <c r="E22" s="44">
-        <f>D22*C22</f>
+      <c r="E26" s="43">
+        <f>D26*C26</f>
         <v>125</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="I22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="5">
+      <c r="F26" s="27"/>
+      <c r="I26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="43">
+        <v>1700</v>
+      </c>
+      <c r="L26" s="43">
+        <f>K26*J26</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="43">
+        <v>4120</v>
+      </c>
+      <c r="E27" s="43">
+        <f>D27*C27</f>
+        <v>4120</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="I27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="5">
+        <v>42</v>
+      </c>
+      <c r="K27" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="43">
+        <f>K27*J27</f>
         <v>21</v>
       </c>
-      <c r="K22" s="44">
-        <v>1699</v>
-      </c>
-      <c r="L22" s="44">
-        <f t="shared" ref="L22" si="3">K22*J22</f>
-        <v>35679</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="44">
-        <v>4120</v>
-      </c>
-      <c r="E23" s="44">
-        <f>D23*C23</f>
-        <v>4120</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="I23" s="1" t="s">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="5">
-        <v>1</v>
-      </c>
-      <c r="K23" s="44">
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="43">
         <v>1700</v>
       </c>
-      <c r="L23" s="44">
-        <f>K23*J23</f>
+      <c r="E28" s="43">
+        <f>D28*C28</f>
         <v>1700</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="44">
-        <v>1700</v>
-      </c>
-      <c r="E24" s="44">
-        <f>D24*C24</f>
-        <v>1700</v>
-      </c>
-      <c r="F24" s="28"/>
-      <c r="I24" s="1" t="s">
+      <c r="F28" s="27"/>
+      <c r="I28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="17"/>
+      <c r="K28" s="43">
+        <v>0.85</v>
+      </c>
+      <c r="L28" s="43">
+        <f t="shared" ref="L28:L31" si="4">K28*J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="5">
-        <v>42</v>
-      </c>
-      <c r="K24" s="44">
+      <c r="C29" s="5">
+        <f>2*C25+2*C28+2*C32</f>
+        <v>24</v>
+      </c>
+      <c r="D29" s="43">
         <v>0.5</v>
       </c>
-      <c r="L24" s="44">
-        <f>K24*J24</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="5">
-        <f>2*C21+2*C24+2*C28</f>
-        <v>24</v>
-      </c>
-      <c r="D25" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="44">
-        <f>D25*C25</f>
+      <c r="E29" s="43">
+        <f>D29*C29</f>
         <v>12</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="I25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="44">
-        <v>0.85</v>
-      </c>
-      <c r="L25" s="44">
-        <f t="shared" ref="L25:L28" si="4">K25*J25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="44">
-        <v>0.85</v>
-      </c>
-      <c r="E26" s="44">
-        <f t="shared" ref="E26:E32" si="5">D26*C26</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="28"/>
-      <c r="I26" s="1" t="s">
+      <c r="F29" s="27"/>
+      <c r="I29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="10">
-        <v>1</v>
-      </c>
-      <c r="K26" s="44">
+      <c r="J29" s="10">
+        <v>1</v>
+      </c>
+      <c r="K29" s="43">
         <v>1190</v>
       </c>
-      <c r="L26" s="44">
+      <c r="L29" s="43">
         <f t="shared" si="4"/>
         <v>1190</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="17">
+        <v>170</v>
+      </c>
+      <c r="D30" s="43">
+        <v>0.85</v>
+      </c>
+      <c r="E30" s="43">
+        <f t="shared" ref="E30:E36" si="5">D30*C30</f>
+        <v>144.5</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="I30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="22">
+        <v>3</v>
+      </c>
+      <c r="K30" s="44">
+        <v>12</v>
+      </c>
+      <c r="L30" s="44">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="10">
-        <v>1</v>
-      </c>
-      <c r="D27" s="44">
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+      <c r="D31" s="43">
         <v>1190</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E31" s="43">
         <f t="shared" si="5"/>
         <v>1190</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="I27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" s="22">
-        <v>3</v>
-      </c>
-      <c r="K27" s="45">
-        <v>12</v>
-      </c>
-      <c r="L27" s="45">
+      <c r="F31" s="23"/>
+      <c r="I31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="10">
+        <v>84</v>
+      </c>
+      <c r="K31" s="44">
+        <v>13</v>
+      </c>
+      <c r="L31" s="44">
         <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="22">
-        <v>1</v>
-      </c>
-      <c r="D28" s="45">
+      <c r="C32" s="22">
+        <v>1</v>
+      </c>
+      <c r="D32" s="44">
         <v>195</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E32" s="44">
         <f t="shared" si="5"/>
         <v>195</v>
       </c>
-      <c r="F28" s="24"/>
-      <c r="I28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="10">
-        <v>84</v>
-      </c>
-      <c r="K28" s="45">
-        <v>13</v>
-      </c>
-      <c r="L28" s="45">
-        <f t="shared" si="4"/>
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="F32" s="23"/>
+      <c r="I32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="10">
+        <v>15</v>
+      </c>
+      <c r="K32" s="44">
+        <v>15</v>
+      </c>
+      <c r="L32" s="44">
+        <f t="shared" ref="L32" si="6">K32*J32</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C33" s="22">
         <v>4</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D33" s="44">
         <v>2499</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E33" s="44">
         <f t="shared" si="5"/>
         <v>9996</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="I29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J29" s="10">
-        <v>5</v>
-      </c>
-      <c r="K29" s="23">
-        <v>15</v>
-      </c>
-      <c r="L29" s="45">
-        <f t="shared" ref="L29" si="6">K29*J29</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="F33" s="23"/>
+      <c r="H33" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="42">
+        <f>SUM(L24:L32)</f>
+        <v>41743</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="22">
-        <v>2</v>
-      </c>
-      <c r="D30" s="45">
+      <c r="C34" s="22">
+        <v>2</v>
+      </c>
+      <c r="D34" s="44">
         <v>12</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E34" s="44">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="H30" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="43">
-        <f>SUM(L21:L29)</f>
-        <v>41593</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="F34" s="27"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C35" s="10">
         <v>40</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D35" s="44">
         <v>13</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E35" s="44">
         <f t="shared" si="5"/>
         <v>520</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="L31" s="36"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="N35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="22">
-        <v>1</v>
-      </c>
-      <c r="D32" s="44">
+      <c r="C36" s="22">
+        <v>1</v>
+      </c>
+      <c r="D36" s="43">
         <v>5700</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E36" s="43">
         <f t="shared" si="5"/>
         <v>5700</v>
       </c>
-      <c r="L32" s="36"/>
-      <c r="N32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="F36" s="6"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="N36" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="43">
-        <f>SUM(E20:E32)</f>
-        <v>41022</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="H33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="42">
+        <f>SUM(E24:E36)</f>
+        <v>41166.5</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="27"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="H39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
         <v>3</v>
       </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="48"/>
-      <c r="N33" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="24"/>
-      <c r="I34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="J39" s="8"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="N39" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="I40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K40" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="47" t="s">
+      <c r="L40" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M34">
+      <c r="N40" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="I41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="5">
+        <v>2</v>
+      </c>
+      <c r="K41" s="43">
+        <v>450</v>
+      </c>
+      <c r="L41" s="43">
+        <f>K41*J41</f>
+        <v>900</v>
+      </c>
+      <c r="N41" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="27"/>
+      <c r="I42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="5">
+        <v>21</v>
+      </c>
+      <c r="K42" s="43">
+        <v>1699</v>
+      </c>
+      <c r="L42" s="43">
+        <f t="shared" ref="L42" si="7">K42*J42</f>
+        <v>35679</v>
+      </c>
+      <c r="N42" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="27"/>
+      <c r="I43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="43">
+        <v>1700</v>
+      </c>
+      <c r="L43" s="43">
+        <f>K43*J43</f>
+        <v>1700</v>
+      </c>
+      <c r="M43">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="28"/>
-      <c r="I35" s="1" t="s">
+      <c r="N43" s="29">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J35" s="5">
-        <v>2</v>
-      </c>
-      <c r="K35" s="44">
+      <c r="C44" s="5">
+        <v>6</v>
+      </c>
+      <c r="D44" s="43">
         <v>450</v>
       </c>
-      <c r="L35" s="44">
-        <f>K35*J35</f>
-        <v>900</v>
-      </c>
-      <c r="M35">
+      <c r="E44" s="43">
+        <f>D44*C44</f>
+        <v>2700</v>
+      </c>
+      <c r="F44" s="27"/>
+      <c r="I44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="5">
+        <v>42</v>
+      </c>
+      <c r="K44" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="L44" s="43">
+        <f>K44*J44</f>
+        <v>21</v>
+      </c>
+      <c r="M44">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="28"/>
-      <c r="I36" s="1" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J36" s="5">
-        <v>21</v>
-      </c>
-      <c r="K36" s="44">
+      <c r="C45" s="5">
+        <v>14</v>
+      </c>
+      <c r="D45" s="43">
         <v>1699</v>
       </c>
-      <c r="L36" s="44">
-        <f t="shared" ref="L36" si="7">K36*J36</f>
-        <v>35679</v>
-      </c>
-      <c r="N36" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="5">
+      <c r="E45" s="43">
+        <f t="shared" ref="E45" si="8">D45*C45</f>
+        <v>23786</v>
+      </c>
+      <c r="F45" s="27"/>
+      <c r="I45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="10">
+        <v>639.6</v>
+      </c>
+      <c r="K45" s="43">
+        <v>0.85</v>
+      </c>
+      <c r="L45" s="43">
+        <f t="shared" ref="L45:L50" si="9">K45*J45</f>
+        <v>543.66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="44">
-        <v>450</v>
-      </c>
-      <c r="E37" s="44">
-        <f>D37*C37</f>
-        <v>2700</v>
-      </c>
-      <c r="F37" s="28"/>
-      <c r="I37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" s="5">
-        <v>1</v>
-      </c>
-      <c r="K37" s="44">
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" s="43">
         <v>1700</v>
       </c>
-      <c r="L37" s="44">
-        <f>K37*J37</f>
+      <c r="E46" s="43">
+        <f>D46*C46</f>
         <v>1700</v>
       </c>
-      <c r="N37" s="30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="5">
-        <v>14</v>
-      </c>
-      <c r="D38" s="44">
-        <v>1699</v>
-      </c>
-      <c r="E38" s="44">
-        <f t="shared" ref="E38" si="8">D38*C38</f>
-        <v>23786</v>
-      </c>
-      <c r="F38" s="28"/>
-      <c r="I38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="5">
-        <v>42</v>
-      </c>
-      <c r="K38" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="L38" s="44">
-        <f>K38*J38</f>
-        <v>21</v>
-      </c>
-      <c r="N38" s="30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="5">
-        <v>1</v>
-      </c>
-      <c r="D39" s="44">
-        <v>1700</v>
-      </c>
-      <c r="E39" s="44">
-        <f>D39*C39</f>
-        <v>1700</v>
-      </c>
-      <c r="F39" s="28"/>
-      <c r="I39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="10">
-        <v>639.6</v>
-      </c>
-      <c r="K39" s="44">
-        <v>0.85</v>
-      </c>
-      <c r="L39" s="44">
-        <f t="shared" ref="L39:L44" si="9">K39*J39</f>
-        <v>543.66</v>
-      </c>
-      <c r="N39" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="5">
-        <v>28</v>
-      </c>
-      <c r="D40" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="E40" s="44">
-        <f>D40*C40</f>
-        <v>14</v>
-      </c>
-      <c r="F40" s="28"/>
-      <c r="I40" s="1" t="s">
+      <c r="F46" s="27"/>
+      <c r="I46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="10">
-        <v>1</v>
-      </c>
-      <c r="K40" s="44">
+      <c r="J46" s="10">
+        <v>1</v>
+      </c>
+      <c r="K46" s="43">
         <v>1190</v>
       </c>
-      <c r="L40" s="44">
+      <c r="L46" s="43">
         <f t="shared" si="9"/>
         <v>1190</v>
       </c>
-      <c r="N40" s="30">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="44">
-        <v>0.85</v>
-      </c>
-      <c r="E41" s="44">
-        <f t="shared" ref="E41:E45" si="10">D41*C41</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="28"/>
-      <c r="I41" s="1" t="s">
+      <c r="N46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="5">
+        <v>28</v>
+      </c>
+      <c r="D47" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="43">
+        <f>D47*C47</f>
+        <v>14</v>
+      </c>
+      <c r="F47" s="27"/>
+      <c r="I47" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="22">
-        <v>1</v>
-      </c>
-      <c r="K41" s="45">
+      <c r="J47" s="22">
+        <v>1</v>
+      </c>
+      <c r="K47" s="44">
         <v>3934</v>
       </c>
-      <c r="L41" s="45">
+      <c r="L47" s="44">
         <f t="shared" si="9"/>
         <v>3934</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="N47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="43">
+        <v>0.85</v>
+      </c>
+      <c r="E48" s="43">
+        <f t="shared" ref="E48:E52" si="10">D48*C48</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="27"/>
+      <c r="I48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" s="22">
+        <v>3</v>
+      </c>
+      <c r="K48" s="44">
+        <v>12</v>
+      </c>
+      <c r="L48" s="44">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="10">
-        <v>1</v>
-      </c>
-      <c r="D42" s="44">
+      <c r="C49" s="10">
+        <v>1</v>
+      </c>
+      <c r="D49" s="43">
         <v>1190</v>
       </c>
-      <c r="E42" s="44">
+      <c r="E49" s="43">
         <f t="shared" si="10"/>
         <v>1190</v>
       </c>
-      <c r="F42" s="28"/>
-      <c r="I42" s="1" t="s">
+      <c r="F49" s="23"/>
+      <c r="I49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J49" s="10">
+        <v>84</v>
+      </c>
+      <c r="K49" s="44">
+        <v>13</v>
+      </c>
+      <c r="L49" s="44">
+        <f t="shared" si="9"/>
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J42" s="22">
-        <v>3</v>
-      </c>
-      <c r="K42" s="45">
+      <c r="C50" s="10">
+        <v>2</v>
+      </c>
+      <c r="D50" s="44">
         <v>12</v>
       </c>
-      <c r="L42" s="45">
-        <f t="shared" si="9"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="10">
-        <v>2</v>
-      </c>
-      <c r="D43" s="45">
-        <v>12</v>
-      </c>
-      <c r="E43" s="44">
+      <c r="E50" s="43">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="F43" s="24"/>
-      <c r="I43" s="1" t="s">
+      <c r="I50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" s="10">
+        <v>20</v>
+      </c>
+      <c r="K50" s="44">
+        <v>15</v>
+      </c>
+      <c r="L50" s="44">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J43" s="10">
-        <v>84</v>
-      </c>
-      <c r="K43" s="45">
+      <c r="C51" s="10">
+        <v>56</v>
+      </c>
+      <c r="D51" s="44">
         <v>13</v>
       </c>
-      <c r="L43" s="45">
-        <f t="shared" si="9"/>
-        <v>1092</v>
-      </c>
-      <c r="N43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="10">
-        <v>56</v>
-      </c>
-      <c r="D44" s="45">
-        <v>13</v>
-      </c>
-      <c r="E44" s="44">
+      <c r="E51" s="43">
         <f t="shared" si="10"/>
         <v>728</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J44" s="10">
-        <v>13</v>
-      </c>
-      <c r="K44" s="45">
-        <v>15</v>
-      </c>
-      <c r="L44" s="45">
-        <f t="shared" si="9"/>
-        <v>195</v>
-      </c>
-      <c r="N44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="10">
-        <v>9</v>
-      </c>
-      <c r="D45" s="45">
-        <v>15</v>
-      </c>
-      <c r="E45" s="45">
-        <f t="shared" si="10"/>
-        <v>135</v>
-      </c>
-      <c r="H45" s="34" t="s">
+      <c r="H51" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="43">
-        <f>SUM(L35:L44)</f>
-        <v>45290.66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="43">
-        <f>SUM(E37:E45)</f>
-        <v>30277</v>
-      </c>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
-        <v>5</v>
-      </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="2">
-        <v>4</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="30" t="s">
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="42">
+        <f>SUM(L41:L50)</f>
+        <v>45395.66</v>
+      </c>
+      <c r="N51" s="29" t="s">
         <v>49</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="L48" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48">
-        <v>13</v>
-      </c>
-      <c r="N48" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="32"/>
-      <c r="I49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="5">
-        <v>4</v>
-      </c>
-      <c r="K49" s="44">
-        <v>450</v>
-      </c>
-      <c r="L49" s="44">
-        <f>K49*J49</f>
-        <v>1800</v>
-      </c>
-      <c r="M49">
-        <v>12</v>
-      </c>
-      <c r="N49" s="30"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="5">
-        <v>4</v>
-      </c>
-      <c r="D50" s="44">
-        <v>450</v>
-      </c>
-      <c r="E50" s="44">
-        <f>D50*C50</f>
-        <v>1800</v>
-      </c>
-      <c r="F50" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50" s="5">
-        <v>7</v>
-      </c>
-      <c r="K50" s="44">
-        <v>1699</v>
-      </c>
-      <c r="L50" s="44">
-        <f t="shared" ref="L50" si="11">K50*J50</f>
-        <v>11893</v>
-      </c>
-      <c r="N50" s="30">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="5">
-        <v>14</v>
-      </c>
-      <c r="D51" s="44">
-        <v>1699</v>
-      </c>
-      <c r="E51" s="44">
-        <f t="shared" ref="E51" si="12">D51*C51</f>
-        <v>23786</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J51" s="5">
-        <v>1</v>
-      </c>
-      <c r="K51" s="44">
-        <v>1700</v>
-      </c>
-      <c r="L51" s="44">
-        <f>K51*J51</f>
-        <v>1700</v>
-      </c>
-      <c r="N51" s="30">
-        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="10">
+        <v>18</v>
+      </c>
+      <c r="D52" s="44">
+        <v>15</v>
+      </c>
+      <c r="E52" s="44">
+        <f t="shared" si="10"/>
+        <v>270</v>
+      </c>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="N52" s="29"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="42">
+        <f>SUM(E44:E52)</f>
+        <v>30412</v>
+      </c>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="N53" s="29">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="N54" s="29">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="N55" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>5</v>
+      </c>
+      <c r="J56" s="8"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="N56" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="L57" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57">
+        <v>13</v>
+      </c>
+      <c r="N57" s="29"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2">
+        <v>4</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="31"/>
+      <c r="I58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="5">
+        <v>4</v>
+      </c>
+      <c r="K58" s="43">
+        <v>450</v>
+      </c>
+      <c r="L58" s="43">
+        <f>K58*J58</f>
+        <v>1800</v>
+      </c>
+      <c r="M58">
+        <v>12</v>
+      </c>
+      <c r="N58" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="5">
+        <v>7</v>
+      </c>
+      <c r="K59" s="43">
+        <v>1699</v>
+      </c>
+      <c r="L59" s="43">
+        <f t="shared" ref="L59" si="11">K59*J59</f>
+        <v>11893</v>
+      </c>
+      <c r="N59" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="5">
+        <v>4</v>
+      </c>
+      <c r="D60" s="43">
+        <v>450</v>
+      </c>
+      <c r="E60" s="43">
+        <f>D60*C60</f>
+        <v>1800</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="5">
-        <v>1</v>
-      </c>
-      <c r="D52" s="44">
+      <c r="J60" s="5">
+        <v>1</v>
+      </c>
+      <c r="K60" s="43">
         <v>1700</v>
       </c>
-      <c r="E52" s="44">
-        <f>D52*C52</f>
+      <c r="L60" s="43">
+        <f>K60*J60</f>
         <v>1700</v>
       </c>
-      <c r="F52" s="33" t="s">
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="5">
+        <v>14</v>
+      </c>
+      <c r="D61" s="43">
+        <v>1699</v>
+      </c>
+      <c r="E61" s="43">
+        <f t="shared" ref="E61" si="12">D61*C61</f>
+        <v>23786</v>
+      </c>
+      <c r="F61" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J61" s="5">
         <v>14</v>
       </c>
-      <c r="K52" s="44">
+      <c r="K61" s="43">
         <v>0.5</v>
       </c>
-      <c r="L52" s="44">
-        <f>K52*J52</f>
+      <c r="L61" s="43">
+        <f>K61*J61</f>
         <v>7</v>
       </c>
-      <c r="N52" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+      <c r="D62" s="43">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="43">
+        <f>D62*C62</f>
+        <v>1700</v>
+      </c>
+      <c r="F62" s="32"/>
+      <c r="I62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" s="10">
+        <v>252.6</v>
+      </c>
+      <c r="K62" s="43">
+        <v>0.85</v>
+      </c>
+      <c r="L62" s="43">
+        <f t="shared" ref="L62:L67" si="13">K62*J62</f>
+        <v>214.70999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C63" s="5">
         <v>28</v>
       </c>
-      <c r="D53" s="44">
+      <c r="D63" s="43">
         <v>0.5</v>
       </c>
-      <c r="E53" s="44">
-        <f>D53*C53</f>
+      <c r="E63" s="43">
+        <f>D63*C63</f>
         <v>14</v>
       </c>
-      <c r="F53" s="33"/>
-      <c r="I53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J53" s="10">
-        <v>252.6</v>
-      </c>
-      <c r="K53" s="44">
-        <v>0.85</v>
-      </c>
-      <c r="L53" s="44">
-        <f t="shared" ref="L53:L58" si="13">K53*J53</f>
-        <v>214.70999999999998</v>
-      </c>
-      <c r="N53" s="30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="10">
-        <v>502</v>
-      </c>
-      <c r="D54" s="44">
-        <v>0.85</v>
-      </c>
-      <c r="E54" s="44">
-        <f t="shared" ref="E54:E58" si="14">D54*C54</f>
-        <v>426.7</v>
-      </c>
-      <c r="F54" s="33" t="s">
+      <c r="F63" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="10">
-        <v>1</v>
-      </c>
-      <c r="K54" s="44">
+      <c r="J63" s="10">
+        <v>1</v>
+      </c>
+      <c r="K63" s="43">
         <v>1190</v>
       </c>
-      <c r="L54" s="44">
+      <c r="L63" s="43">
         <f t="shared" si="13"/>
         <v>1190</v>
       </c>
-      <c r="N54" s="30"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="10">
+        <v>502</v>
+      </c>
+      <c r="D64" s="43">
+        <v>0.85</v>
+      </c>
+      <c r="E64" s="43">
+        <f t="shared" ref="E64:E68" si="14">D64*C64</f>
+        <v>426.7</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J64" s="22">
+        <v>1</v>
+      </c>
+      <c r="K64" s="44">
+        <v>3935</v>
+      </c>
+      <c r="L64" s="44">
+        <f t="shared" si="13"/>
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="10">
-        <v>1</v>
-      </c>
-      <c r="D55" s="44">
+      <c r="C65" s="10">
+        <v>1</v>
+      </c>
+      <c r="D65" s="43">
         <v>1190</v>
       </c>
-      <c r="E55" s="44">
+      <c r="E65" s="43">
         <f t="shared" si="14"/>
         <v>1190</v>
       </c>
-      <c r="F55" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J55" s="22">
-        <v>1</v>
-      </c>
-      <c r="K55" s="45">
-        <v>3935</v>
-      </c>
-      <c r="L55" s="45">
+      <c r="I65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J65" s="22">
+        <v>1</v>
+      </c>
+      <c r="K65" s="44">
+        <v>12</v>
+      </c>
+      <c r="L65" s="44">
         <f t="shared" si="13"/>
-        <v>3935</v>
-      </c>
-      <c r="N55" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="22">
-        <v>2</v>
-      </c>
-      <c r="D56" s="45">
+      <c r="C66" s="22">
+        <v>2</v>
+      </c>
+      <c r="D66" s="44">
         <v>12</v>
       </c>
-      <c r="E56" s="45">
+      <c r="E66" s="44">
         <f t="shared" si="14"/>
         <v>24</v>
       </c>
-      <c r="F56" s="32"/>
-      <c r="I56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J56" s="22">
-        <v>1</v>
-      </c>
-      <c r="K56" s="45">
-        <v>12</v>
-      </c>
-      <c r="L56" s="45">
+      <c r="F66" s="6"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J66" s="25">
+        <v>28</v>
+      </c>
+      <c r="K66" s="44">
+        <v>13</v>
+      </c>
+      <c r="L66" s="44">
         <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="N56" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C67" s="10">
         <v>56</v>
       </c>
-      <c r="D57" s="45">
+      <c r="D67" s="44">
         <v>13</v>
       </c>
-      <c r="E57" s="45">
+      <c r="E67" s="44">
         <f t="shared" si="14"/>
         <v>728</v>
       </c>
-      <c r="F57" s="32"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="1" t="s">
+      <c r="F67" s="23"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J67" s="10">
+        <v>28</v>
+      </c>
+      <c r="K67" s="44">
+        <v>15</v>
+      </c>
+      <c r="L67" s="44">
+        <f t="shared" si="13"/>
+        <v>420</v>
+      </c>
+      <c r="M67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="10">
+        <v>24</v>
+      </c>
+      <c r="D68" s="44">
+        <v>15</v>
+      </c>
+      <c r="E68" s="44">
+        <f t="shared" si="14"/>
+        <v>360</v>
+      </c>
+      <c r="F68" s="27"/>
+      <c r="H68" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="45"/>
+      <c r="L68" s="42">
+        <f>SUM(L58:L67)</f>
+        <v>21535.71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="42">
+        <f>SUM(E60:E68)</f>
+        <v>30028.7</v>
+      </c>
+      <c r="F69" s="27"/>
+      <c r="I69" s="12"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="27"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="27"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="23"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="23"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="23"/>
+      <c r="H74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" s="18"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="I75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K75" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="L75" s="46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J76" s="10">
+        <v>10</v>
+      </c>
+      <c r="K76" s="43">
+        <v>130</v>
+      </c>
+      <c r="L76" s="43">
+        <f>J76*K76</f>
+        <v>1300</v>
+      </c>
+      <c r="M76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="D77" s="43">
+        <v>450</v>
+      </c>
+      <c r="E77" s="43">
+        <f>D77*C77</f>
+        <v>450</v>
+      </c>
+      <c r="I77" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J77" s="10">
+        <v>2</v>
+      </c>
+      <c r="K77" s="43">
+        <v>20000</v>
+      </c>
+      <c r="L77" s="43">
+        <f>J77*K77</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2</v>
+      </c>
+      <c r="D78" s="43">
+        <v>1699</v>
+      </c>
+      <c r="E78" s="43">
+        <f t="shared" ref="E78" si="15">D78*C78</f>
+        <v>3398</v>
+      </c>
+      <c r="I78" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" s="10">
+        <v>1</v>
+      </c>
+      <c r="K78" s="43">
+        <v>1400</v>
+      </c>
+      <c r="L78" s="43">
+        <f>J78*K78</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2</v>
+      </c>
+      <c r="D79" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="E79" s="43">
+        <f>D79*C79</f>
+        <v>1</v>
+      </c>
+      <c r="I79" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J79" s="10">
+        <v>16</v>
+      </c>
+      <c r="K79" s="43">
+        <v>12</v>
+      </c>
+      <c r="L79" s="43">
+        <f>J79*K79</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="10">
+        <v>23</v>
+      </c>
+      <c r="D80" s="43">
+        <v>0.85</v>
+      </c>
+      <c r="E80" s="43">
+        <f>D80*C80</f>
+        <v>19.55</v>
+      </c>
+      <c r="I80" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J80" s="10">
+        <v>7</v>
+      </c>
+      <c r="K80" s="44">
+        <v>60</v>
+      </c>
+      <c r="L80" s="43">
+        <f>J80*K80</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="22">
+        <v>1</v>
+      </c>
+      <c r="D81" s="44">
+        <v>195</v>
+      </c>
+      <c r="E81" s="44">
+        <f>D81*C81</f>
+        <v>195</v>
+      </c>
+      <c r="I81" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="J81" s="52">
+        <v>89</v>
+      </c>
+      <c r="K81" s="53">
+        <v>30</v>
+      </c>
+      <c r="L81" s="53">
+        <f>J81*K81</f>
+        <v>2670</v>
+      </c>
+      <c r="M81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" s="22">
+        <v>1</v>
+      </c>
+      <c r="D82" s="44">
+        <v>12</v>
+      </c>
+      <c r="E82" s="44">
+        <f>D82*C82</f>
+        <v>12</v>
+      </c>
+      <c r="H82" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="45"/>
+      <c r="L82" s="42">
+        <f>SUM(L76:L81)</f>
+        <v>45982</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J57" s="26">
-        <v>28</v>
-      </c>
-      <c r="K57" s="45">
+      <c r="C83" s="10">
+        <v>8</v>
+      </c>
+      <c r="D83" s="44">
         <v>13</v>
       </c>
-      <c r="L57" s="45">
-        <f t="shared" si="13"/>
-        <v>364</v>
-      </c>
-      <c r="N57" s="30"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="10">
+      <c r="E83" s="44">
+        <f>D83*C83</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="42">
+        <f>SUM(E77:E83)</f>
+        <v>4179.55</v>
+      </c>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I85" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J85" s="16">
+        <f>C83+J66+C67+J49+J31+C35+J14+C15</f>
+        <v>312</v>
+      </c>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I86" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F94" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50"/>
+    </row>
+    <row r="95" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="F95" s="15"/>
+    </row>
+    <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F96" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F97" s="14"/>
+    </row>
+    <row r="98" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F98" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="41">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="99" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F99" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="36">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="100" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F100" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="39">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="101" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F101" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="45">
-        <v>15</v>
-      </c>
-      <c r="E58" s="45">
-        <f t="shared" si="14"/>
-        <v>255</v>
-      </c>
-      <c r="H58" s="12"/>
-      <c r="I58" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J58" s="10">
-        <v>21</v>
-      </c>
-      <c r="K58" s="45">
-        <v>15</v>
-      </c>
-      <c r="L58" s="45">
-        <f t="shared" si="13"/>
-        <v>315</v>
-      </c>
-      <c r="N58" s="30"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="43">
-        <f>SUM(E50:E58)</f>
-        <v>29923.7</v>
-      </c>
-      <c r="H59" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="43">
-        <f>SUM(L49:L58)</f>
-        <v>21430.71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="6"/>
-      <c r="I60" s="12"/>
-      <c r="L60" s="36"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="24"/>
-      <c r="H61" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I61" s="18"/>
-      <c r="L61" s="36"/>
-      <c r="M61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="28"/>
-      <c r="I62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L62" s="47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="5">
-        <v>1</v>
-      </c>
-      <c r="D63" s="44">
-        <v>450</v>
-      </c>
-      <c r="E63" s="44">
-        <f>D63*C63</f>
-        <v>450</v>
-      </c>
-      <c r="F63" s="28"/>
-      <c r="I63" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J63" s="10">
-        <v>10</v>
-      </c>
-      <c r="K63" s="10">
-        <v>130</v>
-      </c>
-      <c r="L63" s="44">
-        <f>J63*K63</f>
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="5">
-        <v>2</v>
-      </c>
-      <c r="D64" s="44">
-        <v>1699</v>
-      </c>
-      <c r="E64" s="44">
-        <f t="shared" ref="E64" si="15">D64*C64</f>
-        <v>3398</v>
-      </c>
-      <c r="F64" s="28"/>
-      <c r="I64" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J64" s="10">
-        <v>1</v>
-      </c>
-      <c r="K64" s="44">
-        <v>20000</v>
-      </c>
-      <c r="L64" s="44">
-        <f>J64*K64</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="5">
-        <v>2</v>
-      </c>
-      <c r="D65" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="E65" s="44">
-        <f>D65*C65</f>
-        <v>1</v>
-      </c>
-      <c r="F65" s="28"/>
-      <c r="I65" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J65" s="10">
-        <v>1</v>
-      </c>
-      <c r="K65" s="44">
-        <v>1400</v>
-      </c>
-      <c r="L65" s="44">
-        <f>J65*K65</f>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" s="10">
-        <v>23</v>
-      </c>
-      <c r="D66" s="44">
-        <v>0.85</v>
-      </c>
-      <c r="E66" s="44">
-        <f>D66*C66</f>
-        <v>19.55</v>
-      </c>
-      <c r="F66" s="24"/>
-      <c r="I66" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J66" s="10">
-        <v>16</v>
-      </c>
-      <c r="K66" s="44">
-        <v>12</v>
-      </c>
-      <c r="L66" s="44">
-        <f>J66*K66</f>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="22">
-        <v>1</v>
-      </c>
-      <c r="D67" s="45">
-        <v>195</v>
-      </c>
-      <c r="E67" s="45">
-        <f>D67*C67</f>
-        <v>195</v>
-      </c>
-      <c r="F67" s="24"/>
-      <c r="I67" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="J67" s="10">
-        <v>7</v>
-      </c>
-      <c r="K67" s="45">
-        <v>60</v>
-      </c>
-      <c r="L67" s="44">
-        <f>J67*K67</f>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C68" s="22">
-        <v>1</v>
-      </c>
-      <c r="D68" s="45">
-        <v>12</v>
-      </c>
-      <c r="E68" s="45">
-        <f>D68*C68</f>
-        <v>12</v>
-      </c>
-      <c r="F68" s="24"/>
-      <c r="H68" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="43">
-        <f>SUM(L63:L67)</f>
-        <v>23312</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" s="10">
-        <v>8</v>
-      </c>
-      <c r="D69" s="45">
-        <v>13</v>
-      </c>
-      <c r="E69" s="45">
-        <f>D69*C69</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="46"/>
-      <c r="E70" s="43">
-        <f>SUM(E63:E69)</f>
-        <v>4179.55</v>
-      </c>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-    </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D71" s="24"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I72" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="J72" s="16">
-        <f>C69+J57+C57+J43+J28+C31+J14+C15</f>
-        <v>312</v>
-      </c>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I73" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F76" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-    </row>
-    <row r="77" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="F77" s="15"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F78" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F79" s="14"/>
-    </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F80" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="42">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="81" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F81" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="37">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="82" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F82" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="40">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="83" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F83" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="38">
-        <f>E70+L68+L59+E59+L45+E46+L30+E33+L15+E16</f>
-        <v>241344.82499999998</v>
-      </c>
-    </row>
-    <row r="84" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F84" s="39"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="37"/>
-    </row>
-    <row r="85" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F85" s="41" t="s">
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="37">
+        <f>E84+L82+L68+E69+L51+E53+L33+E37+L15+E16</f>
+        <v>264759.32500000001</v>
+      </c>
+    </row>
+    <row r="102" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F102" s="38"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="36"/>
+    </row>
+    <row r="103" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F103" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="37">
-        <f ca="1">SUM(I80:I87)</f>
-        <v>247213.82499999998</v>
-      </c>
-    </row>
-    <row r="86" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F86" s="39"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="37"/>
-    </row>
-    <row r="87" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="36">
+        <f>SUM(I98:I102)</f>
+        <v>272759.32500000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E3:I5"/>
-    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="F94:I94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
+++ b/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
@@ -538,6 +538,13 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,13 +553,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,27 +880,27 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1356,13 +1356,15 @@
       <c r="I28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="17"/>
+      <c r="J28" s="10">
+        <v>550</v>
+      </c>
       <c r="K28" s="43">
         <v>0.85</v>
       </c>
       <c r="L28" s="43">
         <f t="shared" ref="L28:L31" si="4">K28*J28</f>
-        <v>0</v>
+        <v>467.5</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1505,7 +1507,7 @@
       <c r="K33" s="45"/>
       <c r="L33" s="42">
         <f>SUM(L24:L32)</f>
-        <v>41743</v>
+        <v>42210.5</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -1835,13 +1837,15 @@
       <c r="B48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="10">
+        <v>400</v>
+      </c>
       <c r="D48" s="43">
         <v>0.85</v>
       </c>
       <c r="E48" s="43">
         <f t="shared" ref="E48:E52" si="10">D48*C48</f>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="F48" s="27"/>
       <c r="I48" s="1" t="s">
@@ -1970,7 +1974,7 @@
       <c r="D53" s="45"/>
       <c r="E53" s="42">
         <f>SUM(E44:E52)</f>
-        <v>30412</v>
+        <v>30752</v>
       </c>
       <c r="K53" s="35"/>
       <c r="L53" s="35"/>
@@ -2473,7 +2477,7 @@
         <v>130</v>
       </c>
       <c r="L76" s="43">
-        <f>J76*K76</f>
+        <f t="shared" ref="L76:L81" si="15">J76*K76</f>
         <v>1300</v>
       </c>
       <c r="M76" t="s">
@@ -2504,7 +2508,7 @@
         <v>20000</v>
       </c>
       <c r="L77" s="43">
-        <f>J77*K77</f>
+        <f t="shared" si="15"/>
         <v>40000</v>
       </c>
     </row>
@@ -2519,7 +2523,7 @@
         <v>1699</v>
       </c>
       <c r="E78" s="43">
-        <f t="shared" ref="E78" si="15">D78*C78</f>
+        <f t="shared" ref="E78" si="16">D78*C78</f>
         <v>3398</v>
       </c>
       <c r="I78" s="24" t="s">
@@ -2532,7 +2536,7 @@
         <v>1400</v>
       </c>
       <c r="L78" s="43">
-        <f>J78*K78</f>
+        <f t="shared" si="15"/>
         <v>1400</v>
       </c>
     </row>
@@ -2560,7 +2564,7 @@
         <v>12</v>
       </c>
       <c r="L79" s="43">
-        <f>J79*K79</f>
+        <f t="shared" si="15"/>
         <v>192</v>
       </c>
     </row>
@@ -2588,7 +2592,7 @@
         <v>60</v>
       </c>
       <c r="L80" s="43">
-        <f>J80*K80</f>
+        <f t="shared" si="15"/>
         <v>420</v>
       </c>
     </row>
@@ -2606,17 +2610,17 @@
         <f>D81*C81</f>
         <v>195</v>
       </c>
-      <c r="I81" s="51" t="s">
+      <c r="I81" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="J81" s="52">
+      <c r="J81" s="49">
         <v>89</v>
       </c>
-      <c r="K81" s="53">
+      <c r="K81" s="50">
         <v>30</v>
       </c>
-      <c r="L81" s="53">
-        <f>J81*K81</f>
+      <c r="L81" s="50">
+        <f t="shared" si="15"/>
         <v>2670</v>
       </c>
       <c r="M81" t="s">
@@ -2674,33 +2678,35 @@
         <f>SUM(E77:E83)</f>
         <v>4179.55</v>
       </c>
-      <c r="J84" s="16"/>
       <c r="K84" s="16"/>
       <c r="L84" s="16"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I85" s="26" t="s">
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+    </row>
+    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I86" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="J85" s="16">
+      <c r="J86" s="16">
         <f>C83+J66+C67+J49+J31+C35+J14+C15</f>
         <v>312</v>
       </c>
-      <c r="K85" s="16"/>
-      <c r="L85" s="16"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I86" s="26" t="s">
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I87" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F94" s="50" t="s">
+      <c r="F94" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="53"/>
+      <c r="I94" s="53"/>
     </row>
     <row r="95" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="F95" s="15"/>
@@ -2751,7 +2757,7 @@
       <c r="H101" s="16"/>
       <c r="I101" s="37">
         <f>E84+L82+L68+E69+L51+E53+L33+E37+L15+E16</f>
-        <v>264759.32500000001</v>
+        <v>265566.82500000001</v>
       </c>
     </row>
     <row r="102" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2768,7 +2774,7 @@
       <c r="H103" s="16"/>
       <c r="I103" s="36">
         <f>SUM(I98:I102)</f>
-        <v>272759.32500000001</v>
+        <v>273566.82500000001</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
+++ b/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="72">
   <si>
     <t>Piso:</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Instalación equipamiento para puestos de trabajo</t>
   </si>
   <si>
-    <t>Configuración de equipos puesto de trabaj</t>
-  </si>
-  <si>
     <t>Materiales y equipos</t>
   </si>
   <si>
@@ -226,6 +223,18 @@
   </si>
   <si>
     <t>1  x PC</t>
+  </si>
+  <si>
+    <t>Metros UTP Total:</t>
+  </si>
+  <si>
+    <t>Configuración de equipos puesto de trabajo</t>
+  </si>
+  <si>
+    <t>Cable entrada corriente 8,25mm</t>
+  </si>
+  <si>
+    <t>Cable corriente</t>
   </si>
 </sst>
 </file>
@@ -433,7 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -545,6 +554,11 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -858,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,8 +883,8 @@
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="44" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
@@ -880,27 +894,27 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E3" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="E3" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1008,7 +1022,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5">
         <f>2*C11</f>
@@ -1023,7 +1037,7 @@
       </c>
       <c r="F12" s="23"/>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="5">
         <f>2*J11</f>
@@ -1039,7 +1053,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="10">
         <v>4.3</v>
@@ -1053,7 +1067,7 @@
       </c>
       <c r="F13" s="23"/>
       <c r="I13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" s="10">
         <v>603</v>
@@ -1068,7 +1082,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="10">
         <v>1</v>
@@ -1082,7 +1096,7 @@
       </c>
       <c r="F14" s="23"/>
       <c r="I14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J14" s="10">
         <v>6</v>
@@ -1097,7 +1111,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="10">
         <v>6</v>
@@ -1111,7 +1125,7 @@
       </c>
       <c r="F15" s="23"/>
       <c r="H15" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
@@ -1123,7 +1137,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -1282,7 +1296,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -1311,7 +1325,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -1325,7 +1339,7 @@
       </c>
       <c r="F27" s="27"/>
       <c r="I27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J27" s="5">
         <v>42</v>
@@ -1354,7 +1368,7 @@
       </c>
       <c r="F28" s="27"/>
       <c r="I28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J28" s="10">
         <v>550</v>
@@ -1369,7 +1383,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="5">
         <f>2*C25+2*C28+2*C32</f>
@@ -1384,7 +1398,7 @@
       </c>
       <c r="F29" s="27"/>
       <c r="I29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J29" s="10">
         <v>1</v>
@@ -1399,9 +1413,9 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="17">
+        <v>21</v>
+      </c>
+      <c r="C30" s="10">
         <v>170</v>
       </c>
       <c r="D30" s="43">
@@ -1413,22 +1427,22 @@
       </c>
       <c r="F30" s="23"/>
       <c r="I30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J30" s="22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K30" s="44">
         <v>12</v>
       </c>
       <c r="L30" s="44">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="10">
         <v>1</v>
@@ -1442,7 +1456,7 @@
       </c>
       <c r="F31" s="23"/>
       <c r="I31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J31" s="10">
         <v>84</v>
@@ -1471,7 +1485,7 @@
       </c>
       <c r="F32" s="23"/>
       <c r="I32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J32" s="10">
         <v>15</v>
@@ -1486,7 +1500,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="22">
         <v>4</v>
@@ -1500,29 +1514,29 @@
       </c>
       <c r="F33" s="23"/>
       <c r="H33" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
       <c r="K33" s="45"/>
       <c r="L33" s="42">
         <f>SUM(L24:L32)</f>
-        <v>42210.5</v>
+        <v>42246.5</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" s="44">
         <v>12</v>
       </c>
       <c r="E34" s="44">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F34" s="27"/>
       <c r="K34" s="35"/>
@@ -1530,7 +1544,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="10">
         <v>40</v>
@@ -1545,12 +1559,12 @@
       <c r="K35" s="35"/>
       <c r="L35" s="35"/>
       <c r="N35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="22">
         <v>1</v>
@@ -1566,19 +1580,19 @@
       <c r="K36" s="35"/>
       <c r="L36" s="35"/>
       <c r="N36" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
       <c r="D37" s="45"/>
       <c r="E37" s="42">
         <f>SUM(E24:E36)</f>
-        <v>41166.5</v>
+        <v>41178.5</v>
       </c>
       <c r="F37" s="23"/>
       <c r="K37" s="35"/>
@@ -1604,7 +1618,7 @@
       <c r="K39" s="47"/>
       <c r="L39" s="47"/>
       <c r="N39" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -1623,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="N40" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -1643,7 +1657,7 @@
         <v>900</v>
       </c>
       <c r="N41" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -1671,7 +1685,7 @@
         <v>35679</v>
       </c>
       <c r="N42" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -1724,7 +1738,7 @@
       </c>
       <c r="F44" s="27"/>
       <c r="I44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J44" s="5">
         <v>42</v>
@@ -1756,7 +1770,7 @@
       </c>
       <c r="F45" s="27"/>
       <c r="I45" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J45" s="10">
         <v>639.6</v>
@@ -1785,7 +1799,7 @@
       </c>
       <c r="F46" s="27"/>
       <c r="I46" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J46" s="10">
         <v>1</v>
@@ -1798,12 +1812,12 @@
         <v>1190</v>
       </c>
       <c r="N46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C47" s="5">
         <v>28</v>
@@ -1817,7 +1831,7 @@
       </c>
       <c r="F47" s="27"/>
       <c r="I47" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J47" s="22">
         <v>1</v>
@@ -1830,12 +1844,12 @@
         <v>3934</v>
       </c>
       <c r="N47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C48" s="10">
         <v>400</v>
@@ -1849,22 +1863,22 @@
       </c>
       <c r="F48" s="27"/>
       <c r="I48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J48" s="22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K48" s="44">
         <v>12</v>
       </c>
       <c r="L48" s="44">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C49" s="10">
         <v>1</v>
@@ -1878,7 +1892,7 @@
       </c>
       <c r="F49" s="23"/>
       <c r="I49" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J49" s="10">
         <v>84</v>
@@ -1893,20 +1907,20 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C50" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" s="44">
         <v>12</v>
       </c>
       <c r="E50" s="43">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J50" s="10">
         <v>20</v>
@@ -1921,7 +1935,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="10">
         <v>56</v>
@@ -1934,22 +1948,22 @@
         <v>728</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I51" s="34"/>
       <c r="J51" s="34"/>
       <c r="K51" s="45"/>
       <c r="L51" s="42">
         <f>SUM(L41:L50)</f>
-        <v>45395.66</v>
+        <v>45431.66</v>
       </c>
       <c r="N51" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="10">
         <v>18</v>
@@ -1967,14 +1981,14 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
       <c r="D53" s="45"/>
       <c r="E53" s="42">
         <f>SUM(E44:E52)</f>
-        <v>30752</v>
+        <v>30776</v>
       </c>
       <c r="K53" s="35"/>
       <c r="L53" s="35"/>
@@ -1997,14 +2011,14 @@
       <c r="K55" s="35"/>
       <c r="L55" s="35"/>
       <c r="N55" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
       <c r="F56" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>0</v>
@@ -2016,14 +2030,14 @@
       <c r="K56" s="47"/>
       <c r="L56" s="47"/>
       <c r="N56" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
       <c r="F57" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>2</v>
@@ -2070,7 +2084,7 @@
         <v>12</v>
       </c>
       <c r="N58" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -2087,7 +2101,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>5</v>
@@ -2103,7 +2117,7 @@
         <v>11893</v>
       </c>
       <c r="N59" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -2121,7 +2135,7 @@
         <v>1800</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>6</v>
@@ -2152,10 +2166,10 @@
         <v>23786</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J61" s="5">
         <v>14</v>
@@ -2184,7 +2198,7 @@
       </c>
       <c r="F62" s="32"/>
       <c r="I62" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J62" s="10">
         <v>252.6</v>
@@ -2199,7 +2213,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C63" s="5">
         <v>28</v>
@@ -2212,10 +2226,10 @@
         <v>14</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J63" s="10">
         <v>1</v>
@@ -2230,7 +2244,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C64" s="10">
         <v>502</v>
@@ -2243,10 +2257,10 @@
         <v>426.7</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J64" s="22">
         <v>1</v>
@@ -2261,7 +2275,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C65" s="10">
         <v>1</v>
@@ -2274,37 +2288,37 @@
         <v>1190</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J65" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K65" s="44">
         <v>12</v>
       </c>
       <c r="L65" s="44">
         <f t="shared" si="13"/>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C66" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" s="44">
         <v>12</v>
       </c>
       <c r="E66" s="44">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F66" s="6"/>
       <c r="H66" s="12"/>
       <c r="I66" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J66" s="25">
         <v>28</v>
@@ -2319,7 +2333,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C67" s="10">
         <v>56</v>
@@ -2334,7 +2348,7 @@
       <c r="F67" s="23"/>
       <c r="H67" s="12"/>
       <c r="I67" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J67" s="10">
         <v>28</v>
@@ -2352,7 +2366,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C68" s="10">
         <v>24</v>
@@ -2366,26 +2380,26 @@
       </c>
       <c r="F68" s="27"/>
       <c r="H68" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I68" s="34"/>
       <c r="J68" s="34"/>
       <c r="K68" s="45"/>
       <c r="L68" s="42">
         <f>SUM(L58:L67)</f>
-        <v>21535.71</v>
+        <v>21547.71</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
       <c r="D69" s="45"/>
       <c r="E69" s="42">
         <f>SUM(E60:E68)</f>
-        <v>30028.7</v>
+        <v>30052.7</v>
       </c>
       <c r="F69" s="27"/>
       <c r="I69" s="12"/>
@@ -2425,7 +2439,7 @@
       <c r="E74" s="35"/>
       <c r="F74" s="23"/>
       <c r="H74" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I74" s="18"/>
       <c r="K74" s="35"/>
@@ -2468,7 +2482,7 @@
         <v>8</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J76" s="10">
         <v>10</v>
@@ -2481,7 +2495,7 @@
         <v>1300</v>
       </c>
       <c r="M76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -2499,7 +2513,7 @@
         <v>450</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J77" s="10">
         <v>2</v>
@@ -2527,7 +2541,7 @@
         <v>3398</v>
       </c>
       <c r="I78" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J78" s="10">
         <v>1</v>
@@ -2542,7 +2556,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79" s="5">
         <v>2</v>
@@ -2555,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J79" s="10">
         <v>16</v>
@@ -2570,7 +2584,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C80" s="10">
         <v>23</v>
@@ -2583,7 +2597,7 @@
         <v>19.55</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J80" s="10">
         <v>7</v>
@@ -2598,7 +2612,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C81" s="22">
         <v>1</v>
@@ -2610,26 +2624,26 @@
         <f>D81*C81</f>
         <v>195</v>
       </c>
-      <c r="I81" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="J81" s="49">
+      <c r="I81" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J81" s="51">
         <v>89</v>
       </c>
-      <c r="K81" s="50">
+      <c r="K81" s="44">
         <v>30</v>
       </c>
-      <c r="L81" s="50">
+      <c r="L81" s="44">
         <f t="shared" si="15"/>
         <v>2670</v>
       </c>
       <c r="M81" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C82" s="22">
         <v>1</v>
@@ -2641,20 +2655,23 @@
         <f>D82*C82</f>
         <v>12</v>
       </c>
-      <c r="H82" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="45"/>
-      <c r="L82" s="42">
-        <f>SUM(L76:L81)</f>
-        <v>45982</v>
+      <c r="I82" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="J82" s="10">
+        <v>2500</v>
+      </c>
+      <c r="K82" s="52">
+        <v>3</v>
+      </c>
+      <c r="L82" s="53">
+        <f>K82*J82</f>
+        <v>7500</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C83" s="10">
         <v>8</v>
@@ -2666,10 +2683,23 @@
         <f>D83*C83</f>
         <v>104</v>
       </c>
+      <c r="I83" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="J83" s="49">
+        <v>20</v>
+      </c>
+      <c r="K83" s="50">
+        <v>6.5</v>
+      </c>
+      <c r="L83" s="50">
+        <f>K83*J83</f>
+        <v>130</v>
+      </c>
     </row>
     <row r="84" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B84" s="34"/>
       <c r="C84" s="34"/>
@@ -2678,8 +2708,16 @@
         <f>SUM(E77:E83)</f>
         <v>4179.55</v>
       </c>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
+      <c r="H84" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I84" s="34"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="45"/>
+      <c r="L84" s="42">
+        <f>SUM(L76:L83)</f>
+        <v>53612</v>
+      </c>
     </row>
     <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J85" s="16"/>
@@ -2688,7 +2726,7 @@
     </row>
     <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I86" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J86" s="16">
         <f>C83+J66+C67+J49+J31+C35+J14+C15</f>
@@ -2697,16 +2735,32 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I87" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="J87">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88">
+        <f>C30+J28+C48+J62+C64+J45+C80-37.2</f>
+        <v>2500</v>
+      </c>
+      <c r="J88">
+        <f>J87*J86</f>
+        <v>4056</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F94" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" s="53"/>
-      <c r="H94" s="53"/>
-      <c r="I94" s="53"/>
+      <c r="F94" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="56"/>
+      <c r="H94" s="56"/>
+      <c r="I94" s="56"/>
     </row>
     <row r="95" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="F95" s="15"/>
@@ -2721,7 +2775,7 @@
     </row>
     <row r="98" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F98" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
@@ -2741,7 +2795,7 @@
     </row>
     <row r="100" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F100" s="38" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
@@ -2751,13 +2805,13 @@
     </row>
     <row r="101" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F101" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
       <c r="I101" s="37">
-        <f>E84+L82+L68+E69+L51+E53+L33+E37+L15+E16</f>
-        <v>265566.82500000001</v>
+        <f>E84+L84+L68+E69+L51+E53+L33+E37+L15+E16</f>
+        <v>273340.82500000001</v>
       </c>
     </row>
     <row r="102" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2768,13 +2822,13 @@
     </row>
     <row r="103" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F103" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
       <c r="I103" s="36">
         <f>SUM(I98:I102)</f>
-        <v>273566.82500000001</v>
+        <v>281340.82500000001</v>
       </c>
     </row>
   </sheetData>
@@ -2826,7 +2880,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>8</v>
@@ -2839,7 +2893,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>8</v>
@@ -2869,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -2896,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -2945,7 +2999,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>8</v>
@@ -2957,7 +3011,7 @@
         <v>3</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>8</v>
@@ -3097,7 +3151,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>8</v>
@@ -3109,7 +3163,7 @@
         <v>3</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L26" s="9" t="s">
         <v>8</v>
@@ -3255,7 +3309,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>8</v>
@@ -3267,7 +3321,7 @@
         <v>3</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L39" s="9" t="s">
         <v>8</v>
@@ -3410,7 +3464,7 @@
       <c r="F50" s="6"/>
       <c r="H50" s="11"/>
       <c r="I50" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
@@ -3425,7 +3479,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>8</v>
@@ -3451,7 +3505,7 @@
       </c>
       <c r="H52" s="11"/>
       <c r="I52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
@@ -3491,7 +3545,7 @@
       </c>
       <c r="H54" s="11"/>
       <c r="I54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>

--- a/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
+++ b/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="presupuesa" localSheetId="0">Hoja1!$F$102</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="82">
   <si>
     <t>Piso:</t>
   </si>
@@ -235,6 +235,36 @@
   </si>
   <si>
     <t>Cable corriente</t>
+  </si>
+  <si>
+    <t>cable electrico grueso</t>
+  </si>
+  <si>
+    <t>fino</t>
+  </si>
+  <si>
+    <t>pb</t>
+  </si>
+  <si>
+    <t>cable/piso</t>
+  </si>
+  <si>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>2s</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>$Metro</t>
+  </si>
+  <si>
+    <t>Costo</t>
   </si>
 </sst>
 </file>
@@ -340,7 +370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +392,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -568,6 +604,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -870,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N103"/>
+  <dimension ref="A3:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2770,10 +2810,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F97" s="14"/>
     </row>
-    <row r="98" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F98" s="38" t="s">
         <v>64</v>
       </c>
@@ -2783,7 +2823,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="99" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F99" s="38" t="s">
         <v>15</v>
       </c>
@@ -2793,7 +2833,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="100" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F100" s="38" t="s">
         <v>69</v>
       </c>
@@ -2803,24 +2843,24 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F101" s="38" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
       <c r="I101" s="37">
-        <f>E84+L84+L68+E69+L51+E53+L33+E37+L15+E16</f>
-        <v>273340.82500000001</v>
-      </c>
-    </row>
-    <row r="102" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+        <f>E84+L84+L68+E69+L51+E53+L33+E37+L15+E16+N109</f>
+        <v>276410.21000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F102" s="38"/>
       <c r="G102" s="16"/>
       <c r="H102" s="16"/>
       <c r="I102" s="36"/>
     </row>
-    <row r="103" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F103" s="40" t="s">
         <v>63</v>
       </c>
@@ -2828,8 +2868,161 @@
       <c r="H103" s="16"/>
       <c r="I103" s="36">
         <f>SUM(I98:I102)</f>
-        <v>281340.82500000001</v>
-      </c>
+        <v>284410.21000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B106" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D106" s="57">
+        <v>1</v>
+      </c>
+      <c r="E106" s="57">
+        <v>2</v>
+      </c>
+      <c r="F106" s="57">
+        <v>3</v>
+      </c>
+      <c r="G106" s="57">
+        <v>4</v>
+      </c>
+      <c r="H106" s="57">
+        <v>5</v>
+      </c>
+      <c r="I106" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="J106" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="K106" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="L106" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="M106" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="N106" s="57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C107" s="10">
+        <v>20</v>
+      </c>
+      <c r="D107" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="E107" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="F107" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="G107" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="H107" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="I107" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J107" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="K107" s="10">
+        <v>15</v>
+      </c>
+      <c r="L107" s="10">
+        <f>SUM(C107:K107)</f>
+        <v>66.5</v>
+      </c>
+      <c r="M107" s="17">
+        <f>1.5*5</f>
+        <v>7.5</v>
+      </c>
+      <c r="N107" s="17">
+        <f>M107*(L107+L107*0.1)</f>
+        <v>548.625</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C108" s="10">
+        <v>50.4</v>
+      </c>
+      <c r="D108" s="10">
+        <v>326</v>
+      </c>
+      <c r="E108" s="10">
+        <v>164</v>
+      </c>
+      <c r="F108" s="10">
+        <v>175.2</v>
+      </c>
+      <c r="G108" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="H108" s="10">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="I108" s="10">
+        <v>56.4</v>
+      </c>
+      <c r="J108" s="10">
+        <v>56.4</v>
+      </c>
+      <c r="K108" s="10">
+        <v>44</v>
+      </c>
+      <c r="L108" s="10">
+        <f>SUM(C108:K108)</f>
+        <v>1065.2999999999997</v>
+      </c>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17">
+        <f>F110+G110</f>
+        <v>2520.7600000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <f>0.24*5</f>
+        <v>1.2</v>
+      </c>
+      <c r="G109">
+        <f>0.56*5</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="N109">
+        <f>N107+N108</f>
+        <v>3069.3850000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <f>F109*(SUM(H108:K108)+C108)</f>
+        <v>346.56</v>
+      </c>
+      <c r="G110">
+        <f>G109*SUM(D108:G108)</f>
+        <v>2174.2000000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E112" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
+++ b/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="presupuesa" localSheetId="0">Hoja1!$F$102</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="64">
   <si>
     <t>Piso:</t>
   </si>
@@ -153,57 +153,6 @@
     <t>Fibra óptica</t>
   </si>
   <si>
-    <t>33 +  30</t>
-  </si>
-  <si>
-    <t>19,2 + 17,9 + 19,7 + 22,6 + 24,2 + 26,1</t>
-  </si>
-  <si>
-    <t>19,7 + 18,4 + 20,2 + 23,1 + 24,7 + 16,6</t>
-  </si>
-  <si>
-    <t>22,5 + 21,2 + 23,0 + 25,9 + 27,5 + 29,4</t>
-  </si>
-  <si>
-    <t>3,6 de  subida y 3,6 de bajada al techo</t>
-  </si>
-  <si>
-    <t>UTP</t>
-  </si>
-  <si>
-    <t>10 + 11,2 + 16,2 + 23 + 22,2 + 24</t>
-  </si>
-  <si>
-    <t>4,6 + 18,4 + 24</t>
-  </si>
-  <si>
-    <t>43 + 45,9 + 48,8 + 52,9 + 57,6</t>
-  </si>
-  <si>
-    <t>502m total</t>
-  </si>
-  <si>
-    <t>401,8m parcial</t>
-  </si>
-  <si>
-    <t>639,6m total</t>
-  </si>
-  <si>
-    <t>488m parcial</t>
-  </si>
-  <si>
-    <t>18,3 + 21,7</t>
-  </si>
-  <si>
-    <t>43,1 + 47 + 58</t>
-  </si>
-  <si>
-    <t>202,2m parcial</t>
-  </si>
-  <si>
-    <t>252,6m total</t>
-  </si>
-  <si>
     <t>Total:</t>
   </si>
   <si>
@@ -232,9 +181,6 @@
   </si>
   <si>
     <t>Cable entrada corriente 8,25mm</t>
-  </si>
-  <si>
-    <t>Cable corriente</t>
   </si>
   <si>
     <t>cable electrico grueso</t>
@@ -478,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -537,9 +483,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -593,8 +536,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,10 +549,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -912,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,33 +870,33 @@
     <col min="9" max="9" width="44" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E3" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="E3" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -964,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="F8" s="30"/>
+      <c r="F8" s="29"/>
       <c r="H8" s="1" t="s">
         <v>0</v>
       </c>
@@ -981,10 +923,10 @@
       <c r="C9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="45" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="23"/>
@@ -995,10 +937,10 @@
       <c r="J9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="45" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1009,10 +951,10 @@
       <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="42">
         <v>810</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="42">
         <f t="shared" ref="E10:E15" si="0">D10*C10</f>
         <v>1620</v>
       </c>
@@ -1023,11 +965,11 @@
       <c r="J10" s="5">
         <v>2</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="42">
         <v>810</v>
       </c>
-      <c r="L10" s="43">
-        <f t="shared" ref="L10:L13" si="1">K10*J10</f>
+      <c r="L10" s="42">
+        <f t="shared" ref="L10:L14" si="1">K10*J10</f>
         <v>1620</v>
       </c>
     </row>
@@ -1038,10 +980,10 @@
       <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="42">
         <v>195</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="42">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
@@ -1052,10 +994,10 @@
       <c r="J11" s="10">
         <v>1</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="42">
         <v>195</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="42">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
@@ -1068,10 +1010,10 @@
         <f>2*C11</f>
         <v>2</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="42">
         <v>0.5</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1083,10 +1025,10 @@
         <f>2*J11</f>
         <v>2</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="42">
         <v>0.5</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1096,28 +1038,28 @@
         <v>20</v>
       </c>
       <c r="C13" s="10">
-        <v>4.3</v>
-      </c>
-      <c r="D13" s="43">
-        <v>0.85</v>
-      </c>
-      <c r="E13" s="43">
+        <v>5</v>
+      </c>
+      <c r="D13" s="42">
+        <v>0.95</v>
+      </c>
+      <c r="E13" s="42">
         <f t="shared" si="0"/>
-        <v>3.6549999999999998</v>
+        <v>4.75</v>
       </c>
       <c r="F13" s="23"/>
       <c r="I13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J13" s="10">
-        <v>603</v>
-      </c>
-      <c r="K13" s="43">
-        <v>0.85</v>
-      </c>
-      <c r="L13" s="43">
+        <v>7</v>
+      </c>
+      <c r="K13" s="42">
+        <v>0.95</v>
+      </c>
+      <c r="L13" s="42">
         <f t="shared" si="1"/>
-        <v>512.54999999999995</v>
+        <v>6.6499999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1127,26 +1069,26 @@
       <c r="C14" s="10">
         <v>1</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="42">
         <v>12</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="42">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F14" s="23"/>
       <c r="I14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J14" s="10">
-        <v>6</v>
-      </c>
-      <c r="K14" s="44">
-        <v>13</v>
-      </c>
-      <c r="L14" s="44">
-        <f>K14*J14</f>
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="K14" s="42">
+        <v>12</v>
+      </c>
+      <c r="L14" s="42">
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1156,76 +1098,84 @@
       <c r="C15" s="10">
         <v>6</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="42">
         <v>13</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="42">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="H15" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="42">
-        <f>SUM(L10:L14)</f>
-        <v>2406.5500000000002</v>
+      <c r="I15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="10">
+        <v>6</v>
+      </c>
+      <c r="K15" s="43">
+        <v>13</v>
+      </c>
+      <c r="L15" s="43">
+        <f>K15*J15</f>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="42">
+      <c r="A16" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="41">
         <f>SUM(E10:E15)</f>
-        <v>1909.655</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="30"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
+        <v>1910.75</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="H16" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="41">
+        <f>SUM(L10:L15)</f>
+        <v>1912.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="29"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="23"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,8 +1183,8 @@
         <v>1</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="23"/>
       <c r="H22" s="1" t="s">
         <v>0</v>
@@ -1243,23 +1193,20 @@
         <v>1</v>
       </c>
       <c r="J22" s="8"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="45" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="23"/>
@@ -1269,24 +1216,24 @@
       <c r="J23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="46" t="s">
+      <c r="K23" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="46" t="s">
+      <c r="L23" s="45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="42">
         <v>450</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="42">
         <f>D24*C24</f>
         <v>450</v>
       </c>
@@ -1297,27 +1244,27 @@
       <c r="J24" s="5">
         <v>4</v>
       </c>
-      <c r="K24" s="43">
+      <c r="K24" s="42">
         <v>450</v>
       </c>
-      <c r="L24" s="43">
+      <c r="L24" s="42">
         <f>K24*J24</f>
         <v>1800</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="5">
-        <v>10</v>
-      </c>
-      <c r="D25" s="43">
+        <v>5</v>
+      </c>
+      <c r="D25" s="42">
         <v>1699</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="42">
         <f t="shared" ref="E25" si="2">D25*C25</f>
-        <v>16990</v>
+        <v>8495</v>
       </c>
       <c r="F25" s="27"/>
       <c r="I25" s="1" t="s">
@@ -1326,25 +1273,25 @@
       <c r="J25" s="5">
         <v>21</v>
       </c>
-      <c r="K25" s="43">
+      <c r="K25" s="42">
         <v>1699</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L25" s="42">
         <f t="shared" ref="L25" si="3">K25*J25</f>
         <v>35679</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="42">
         <v>125</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="42">
         <f>D26*C26</f>
         <v>125</v>
       </c>
@@ -1355,25 +1302,25 @@
       <c r="J26" s="5">
         <v>1</v>
       </c>
-      <c r="K26" s="43">
+      <c r="K26" s="42">
         <v>1700</v>
       </c>
-      <c r="L26" s="43">
+      <c r="L26" s="42">
         <f>K26*J26</f>
         <v>1700</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="42">
         <v>4120</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="42">
         <f>D27*C27</f>
         <v>4120</v>
       </c>
@@ -1382,27 +1329,27 @@
         <v>18</v>
       </c>
       <c r="J27" s="5">
-        <v>42</v>
-      </c>
-      <c r="K27" s="43">
+        <v>63</v>
+      </c>
+      <c r="K27" s="42">
         <v>0.5</v>
       </c>
-      <c r="L27" s="43">
+      <c r="L27" s="42">
         <f>K27*J27</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="42">
         <v>1700</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="42">
         <f>D28*C28</f>
         <v>1700</v>
       </c>
@@ -1413,28 +1360,27 @@
       <c r="J28" s="10">
         <v>550</v>
       </c>
-      <c r="K28" s="43">
-        <v>0.85</v>
-      </c>
-      <c r="L28" s="43">
+      <c r="K28" s="42">
+        <v>0.95</v>
+      </c>
+      <c r="L28" s="42">
         <f t="shared" ref="L28:L31" si="4">K28*J28</f>
-        <v>467.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>522.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="5">
-        <f>2*C25+2*C28+2*C32</f>
-        <v>24</v>
-      </c>
-      <c r="D29" s="43">
+        <v>29</v>
+      </c>
+      <c r="D29" s="42">
         <v>0.5</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="42">
         <f>D29*C29</f>
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="F29" s="27"/>
       <c r="I29" s="1" t="s">
@@ -1443,54 +1389,54 @@
       <c r="J29" s="10">
         <v>1</v>
       </c>
-      <c r="K29" s="43">
+      <c r="K29" s="42">
         <v>1190</v>
       </c>
-      <c r="L29" s="43">
+      <c r="L29" s="42">
         <f t="shared" si="4"/>
         <v>1190</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="10">
         <v>170</v>
       </c>
-      <c r="D30" s="43">
-        <v>0.85</v>
-      </c>
-      <c r="E30" s="43">
+      <c r="D30" s="42">
+        <v>0.95</v>
+      </c>
+      <c r="E30" s="42">
         <f t="shared" ref="E30:E36" si="5">D30*C30</f>
-        <v>144.5</v>
+        <v>161.5</v>
       </c>
       <c r="F30" s="23"/>
       <c r="I30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J30" s="22">
-        <v>6</v>
-      </c>
-      <c r="K30" s="44">
+        <v>5</v>
+      </c>
+      <c r="K30" s="43">
         <v>12</v>
       </c>
-      <c r="L30" s="44">
+      <c r="L30" s="43">
         <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="10">
         <v>1</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="42">
         <v>1190</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="42">
         <f t="shared" si="5"/>
         <v>1190</v>
       </c>
@@ -1501,25 +1447,25 @@
       <c r="J31" s="10">
         <v>84</v>
       </c>
-      <c r="K31" s="44">
+      <c r="K31" s="43">
         <v>13</v>
       </c>
-      <c r="L31" s="44">
+      <c r="L31" s="43">
         <f t="shared" si="4"/>
         <v>1092</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="22">
         <v>1</v>
       </c>
-      <c r="D32" s="44">
+      <c r="D32" s="43">
         <v>195</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="43">
         <f t="shared" si="5"/>
         <v>195</v>
       </c>
@@ -1530,10 +1476,10 @@
       <c r="J32" s="10">
         <v>15</v>
       </c>
-      <c r="K32" s="44">
+      <c r="K32" s="43">
         <v>15</v>
       </c>
-      <c r="L32" s="44">
+      <c r="L32" s="43">
         <f t="shared" ref="L32" si="6">K32*J32</f>
         <v>225</v>
       </c>
@@ -1545,23 +1491,23 @@
       <c r="C33" s="22">
         <v>4</v>
       </c>
-      <c r="D33" s="44">
-        <v>2499</v>
-      </c>
-      <c r="E33" s="44">
+      <c r="D33" s="43">
+        <v>4799</v>
+      </c>
+      <c r="E33" s="43">
         <f t="shared" si="5"/>
-        <v>9996</v>
+        <v>19196</v>
       </c>
       <c r="F33" s="23"/>
-      <c r="H33" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="42">
+      <c r="H33" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="41">
         <f>SUM(L24:L32)</f>
-        <v>42246.5</v>
+        <v>42300</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -1571,16 +1517,16 @@
       <c r="C34" s="22">
         <v>3</v>
       </c>
-      <c r="D34" s="44">
+      <c r="D34" s="43">
         <v>12</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="43">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="F34" s="27"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
@@ -1589,18 +1535,15 @@
       <c r="C35" s="10">
         <v>40</v>
       </c>
-      <c r="D35" s="44">
+      <c r="D35" s="43">
         <v>13</v>
       </c>
-      <c r="E35" s="44">
+      <c r="E35" s="43">
         <f t="shared" si="5"/>
         <v>520</v>
       </c>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="N35" t="s">
-        <v>49</v>
-      </c>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
@@ -1609,45 +1552,43 @@
       <c r="C36" s="22">
         <v>1</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="42">
         <v>5700</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="42">
         <f t="shared" si="5"/>
         <v>5700</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="N36" s="29" t="s">
-        <v>48</v>
-      </c>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="N36" s="28"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="42">
+      <c r="A37" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="41">
         <f>SUM(E24:E36)</f>
-        <v>41178.5</v>
+        <v>41903</v>
       </c>
       <c r="F37" s="23"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="27"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
       <c r="H39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1655,50 +1596,44 @@
         <v>3</v>
       </c>
       <c r="J39" s="8"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="N39" s="28" t="s">
-        <v>44</v>
-      </c>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="N39" s="30"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
       <c r="I40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K40" s="46" t="s">
+      <c r="K40" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="46" t="s">
+      <c r="L40" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="N40" s="29" t="s">
-        <v>45</v>
-      </c>
+      <c r="N40" s="28"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
       <c r="I41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J41" s="5">
         <v>2</v>
       </c>
-      <c r="K41" s="43">
+      <c r="K41" s="42">
         <v>450</v>
       </c>
-      <c r="L41" s="43">
+      <c r="L41" s="42">
         <f>K41*J41</f>
         <v>900</v>
       </c>
-      <c r="N41" s="29" t="s">
-        <v>46</v>
-      </c>
+      <c r="N41" s="28"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1708,8 +1643,8 @@
         <v>2</v>
       </c>
       <c r="C42" s="8"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
       <c r="F42" s="27"/>
       <c r="I42" s="1" t="s">
         <v>5</v>
@@ -1717,16 +1652,14 @@
       <c r="J42" s="5">
         <v>21</v>
       </c>
-      <c r="K42" s="43">
+      <c r="K42" s="42">
         <v>1699</v>
       </c>
-      <c r="L42" s="43">
+      <c r="L42" s="42">
         <f t="shared" ref="L42" si="7">K42*J42</f>
         <v>35679</v>
       </c>
-      <c r="N42" s="29" t="s">
-        <v>47</v>
-      </c>
+      <c r="N42" s="28"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
@@ -1735,10 +1668,10 @@
       <c r="C43" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="46" t="s">
+      <c r="E43" s="45" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="27"/>
@@ -1748,19 +1681,14 @@
       <c r="J43" s="5">
         <v>1</v>
       </c>
-      <c r="K43" s="43">
+      <c r="K43" s="42">
         <v>1700</v>
       </c>
-      <c r="L43" s="43">
+      <c r="L43" s="42">
         <f>K43*J43</f>
         <v>1700</v>
       </c>
-      <c r="M43">
-        <v>20</v>
-      </c>
-      <c r="N43" s="29">
-        <v>23.5</v>
-      </c>
+      <c r="N43" s="28"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
@@ -1769,10 +1697,10 @@
       <c r="C44" s="5">
         <v>6</v>
       </c>
-      <c r="D44" s="43">
+      <c r="D44" s="42">
         <v>450</v>
       </c>
-      <c r="E44" s="43">
+      <c r="E44" s="42">
         <f>D44*C44</f>
         <v>2700</v>
       </c>
@@ -1781,17 +1709,14 @@
         <v>18</v>
       </c>
       <c r="J44" s="5">
-        <v>42</v>
-      </c>
-      <c r="K44" s="43">
+        <v>63</v>
+      </c>
+      <c r="K44" s="42">
         <v>0.5</v>
       </c>
-      <c r="L44" s="43">
+      <c r="L44" s="42">
         <f>K44*J44</f>
-        <v>21</v>
-      </c>
-      <c r="M44">
-        <v>24</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -1801,10 +1726,10 @@
       <c r="C45" s="5">
         <v>14</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="42">
         <v>1699</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E45" s="42">
         <f t="shared" ref="E45" si="8">D45*C45</f>
         <v>23786</v>
       </c>
@@ -1813,14 +1738,14 @@
         <v>21</v>
       </c>
       <c r="J45" s="10">
-        <v>639.6</v>
-      </c>
-      <c r="K45" s="43">
-        <v>0.85</v>
-      </c>
-      <c r="L45" s="43">
+        <v>640</v>
+      </c>
+      <c r="K45" s="42">
+        <v>0.95</v>
+      </c>
+      <c r="L45" s="42">
         <f t="shared" ref="L45:L50" si="9">K45*J45</f>
-        <v>543.66</v>
+        <v>608</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -1830,10 +1755,10 @@
       <c r="C46" s="5">
         <v>1</v>
       </c>
-      <c r="D46" s="43">
+      <c r="D46" s="42">
         <v>1700</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="42">
         <f>D46*C46</f>
         <v>1700</v>
       </c>
@@ -1844,15 +1769,12 @@
       <c r="J46" s="10">
         <v>1</v>
       </c>
-      <c r="K46" s="43">
+      <c r="K46" s="42">
         <v>1190</v>
       </c>
-      <c r="L46" s="43">
+      <c r="L46" s="42">
         <f t="shared" si="9"/>
         <v>1190</v>
-      </c>
-      <c r="N46" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -1860,14 +1782,14 @@
         <v>18</v>
       </c>
       <c r="C47" s="5">
-        <v>28</v>
-      </c>
-      <c r="D47" s="43">
+        <v>42</v>
+      </c>
+      <c r="D47" s="42">
         <v>0.5</v>
       </c>
-      <c r="E47" s="43">
+      <c r="E47" s="42">
         <f>D47*C47</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F47" s="27"/>
       <c r="I47" s="1" t="s">
@@ -1876,15 +1798,12 @@
       <c r="J47" s="22">
         <v>1</v>
       </c>
-      <c r="K47" s="44">
+      <c r="K47" s="43">
         <v>3934</v>
       </c>
-      <c r="L47" s="44">
+      <c r="L47" s="43">
         <f t="shared" si="9"/>
         <v>3934</v>
-      </c>
-      <c r="N47" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -1894,12 +1813,12 @@
       <c r="C48" s="10">
         <v>400</v>
       </c>
-      <c r="D48" s="43">
-        <v>0.85</v>
-      </c>
-      <c r="E48" s="43">
+      <c r="D48" s="42">
+        <v>0.95</v>
+      </c>
+      <c r="E48" s="42">
         <f t="shared" ref="E48:E52" si="10">D48*C48</f>
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="F48" s="27"/>
       <c r="I48" s="1" t="s">
@@ -1908,10 +1827,10 @@
       <c r="J48" s="22">
         <v>6</v>
       </c>
-      <c r="K48" s="44">
+      <c r="K48" s="43">
         <v>12</v>
       </c>
-      <c r="L48" s="44">
+      <c r="L48" s="43">
         <f t="shared" si="9"/>
         <v>72</v>
       </c>
@@ -1923,10 +1842,10 @@
       <c r="C49" s="10">
         <v>1</v>
       </c>
-      <c r="D49" s="43">
+      <c r="D49" s="42">
         <v>1190</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="42">
         <f t="shared" si="10"/>
         <v>1190</v>
       </c>
@@ -1937,10 +1856,10 @@
       <c r="J49" s="10">
         <v>84</v>
       </c>
-      <c r="K49" s="44">
+      <c r="K49" s="43">
         <v>13</v>
       </c>
-      <c r="L49" s="44">
+      <c r="L49" s="43">
         <f t="shared" si="9"/>
         <v>1092</v>
       </c>
@@ -1952,10 +1871,10 @@
       <c r="C50" s="10">
         <v>4</v>
       </c>
-      <c r="D50" s="44">
+      <c r="D50" s="43">
         <v>12</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="42">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
@@ -1965,10 +1884,10 @@
       <c r="J50" s="10">
         <v>20</v>
       </c>
-      <c r="K50" s="44">
+      <c r="K50" s="43">
         <v>15</v>
       </c>
-      <c r="L50" s="44">
+      <c r="L50" s="43">
         <f t="shared" si="9"/>
         <v>300</v>
       </c>
@@ -1980,26 +1899,24 @@
       <c r="C51" s="10">
         <v>56</v>
       </c>
-      <c r="D51" s="44">
+      <c r="D51" s="43">
         <v>13</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="42">
         <f t="shared" si="10"/>
         <v>728</v>
       </c>
-      <c r="H51" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="42">
+      <c r="H51" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="41">
         <f>SUM(L41:L50)</f>
-        <v>45431.66</v>
-      </c>
-      <c r="N51" s="29" t="s">
-        <v>48</v>
-      </c>
+        <v>45506.5</v>
+      </c>
+      <c r="N51" s="28"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
@@ -2008,58 +1925,50 @@
       <c r="C52" s="10">
         <v>18</v>
       </c>
-      <c r="D52" s="44">
+      <c r="D52" s="43">
         <v>15</v>
       </c>
-      <c r="E52" s="44">
+      <c r="E52" s="43">
         <f t="shared" si="10"/>
         <v>270</v>
       </c>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="N52" s="29"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="N52" s="28"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="42">
+      <c r="A53" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="41">
         <f>SUM(E44:E52)</f>
-        <v>30776</v>
-      </c>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="N53" s="29">
-        <v>9.6999999999999993</v>
-      </c>
+        <v>30823</v>
+      </c>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="N53" s="28"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="N54" s="29">
-        <v>4.4000000000000004</v>
-      </c>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="N54" s="28"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="N55" s="29" t="s">
-        <v>57</v>
-      </c>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="N55" s="28"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="6"/>
       <c r="H56" s="1" t="s">
         <v>0</v>
       </c>
@@ -2067,34 +1976,27 @@
         <v>5</v>
       </c>
       <c r="J56" s="8"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="N56" s="29" t="s">
-        <v>58</v>
-      </c>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="N56" s="28"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="29" t="s">
-        <v>48</v>
-      </c>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="28"/>
       <c r="I57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="46" t="s">
+      <c r="K57" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="L57" s="46" t="s">
+      <c r="L57" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M57">
-        <v>13</v>
-      </c>
-      <c r="N57" s="29"/>
+      <c r="N57" s="28"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -2104,28 +2006,23 @@
         <v>4</v>
       </c>
       <c r="C58" s="8"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="31"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="30"/>
       <c r="I58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J58" s="5">
         <v>4</v>
       </c>
-      <c r="K58" s="43">
+      <c r="K58" s="42">
         <v>450</v>
       </c>
-      <c r="L58" s="43">
+      <c r="L58" s="42">
         <f>K58*J58</f>
         <v>1800</v>
       </c>
-      <c r="M58">
-        <v>12</v>
-      </c>
-      <c r="N58" s="29" t="s">
-        <v>59</v>
-      </c>
+      <c r="N58" s="28"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
@@ -2134,31 +2031,27 @@
       <c r="C59" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="46" t="s">
+      <c r="D59" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="46" t="s">
+      <c r="E59" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="32" t="s">
-        <v>50</v>
-      </c>
+      <c r="F59" s="31"/>
       <c r="I59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J59" s="5">
         <v>7</v>
       </c>
-      <c r="K59" s="43">
+      <c r="K59" s="42">
         <v>1699</v>
       </c>
-      <c r="L59" s="43">
+      <c r="L59" s="42">
         <f t="shared" ref="L59" si="11">K59*J59</f>
         <v>11893</v>
       </c>
-      <c r="N59" s="29" t="s">
-        <v>60</v>
-      </c>
+      <c r="N59" s="28"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
@@ -2167,26 +2060,24 @@
       <c r="C60" s="5">
         <v>4</v>
       </c>
-      <c r="D60" s="43">
+      <c r="D60" s="42">
         <v>450</v>
       </c>
-      <c r="E60" s="43">
+      <c r="E60" s="42">
         <f>D60*C60</f>
         <v>1800</v>
       </c>
-      <c r="F60" s="32" t="s">
-        <v>51</v>
-      </c>
+      <c r="F60" s="31"/>
       <c r="I60" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J60" s="5">
         <v>1</v>
       </c>
-      <c r="K60" s="43">
+      <c r="K60" s="42">
         <v>1700</v>
       </c>
-      <c r="L60" s="43">
+      <c r="L60" s="42">
         <f>K60*J60</f>
         <v>1700</v>
       </c>
@@ -2198,28 +2089,26 @@
       <c r="C61" s="5">
         <v>14</v>
       </c>
-      <c r="D61" s="43">
+      <c r="D61" s="42">
         <v>1699</v>
       </c>
-      <c r="E61" s="43">
+      <c r="E61" s="42">
         <f t="shared" ref="E61" si="12">D61*C61</f>
         <v>23786</v>
       </c>
-      <c r="F61" s="32" t="s">
-        <v>52</v>
-      </c>
+      <c r="F61" s="31"/>
       <c r="I61" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J61" s="5">
-        <v>14</v>
-      </c>
-      <c r="K61" s="43">
+        <v>21</v>
+      </c>
+      <c r="K61" s="42">
         <v>0.5</v>
       </c>
-      <c r="L61" s="43">
+      <c r="L61" s="42">
         <f>K61*J61</f>
-        <v>7</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -2229,26 +2118,26 @@
       <c r="C62" s="5">
         <v>1</v>
       </c>
-      <c r="D62" s="43">
+      <c r="D62" s="42">
         <v>1700</v>
       </c>
-      <c r="E62" s="43">
+      <c r="E62" s="42">
         <f>D62*C62</f>
         <v>1700</v>
       </c>
-      <c r="F62" s="32"/>
+      <c r="F62" s="31"/>
       <c r="I62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J62" s="10">
-        <v>252.6</v>
-      </c>
-      <c r="K62" s="43">
-        <v>0.85</v>
-      </c>
-      <c r="L62" s="43">
+        <v>253</v>
+      </c>
+      <c r="K62" s="42">
+        <v>0.95</v>
+      </c>
+      <c r="L62" s="42">
         <f t="shared" ref="L62:L67" si="13">K62*J62</f>
-        <v>214.70999999999998</v>
+        <v>240.35</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -2256,28 +2145,26 @@
         <v>18</v>
       </c>
       <c r="C63" s="5">
-        <v>28</v>
-      </c>
-      <c r="D63" s="43">
+        <v>42</v>
+      </c>
+      <c r="D63" s="42">
         <v>0.5</v>
       </c>
-      <c r="E63" s="43">
+      <c r="E63" s="42">
         <f>D63*C63</f>
-        <v>14</v>
-      </c>
-      <c r="F63" s="32" t="s">
-        <v>54</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F63" s="31"/>
       <c r="I63" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J63" s="10">
         <v>1</v>
       </c>
-      <c r="K63" s="43">
+      <c r="K63" s="42">
         <v>1190</v>
       </c>
-      <c r="L63" s="43">
+      <c r="L63" s="42">
         <f t="shared" si="13"/>
         <v>1190</v>
       </c>
@@ -2289,26 +2176,24 @@
       <c r="C64" s="10">
         <v>502</v>
       </c>
-      <c r="D64" s="43">
-        <v>0.85</v>
-      </c>
-      <c r="E64" s="43">
+      <c r="D64" s="42">
+        <v>0.95</v>
+      </c>
+      <c r="E64" s="42">
         <f t="shared" ref="E64:E68" si="14">D64*C64</f>
-        <v>426.7</v>
-      </c>
-      <c r="F64" s="31" t="s">
-        <v>53</v>
-      </c>
+        <v>476.9</v>
+      </c>
+      <c r="F64" s="30"/>
       <c r="I64" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J64" s="22">
         <v>1</v>
       </c>
-      <c r="K64" s="44">
+      <c r="K64" s="43">
         <v>3935</v>
       </c>
-      <c r="L64" s="44">
+      <c r="L64" s="43">
         <f t="shared" si="13"/>
         <v>3935</v>
       </c>
@@ -2320,10 +2205,10 @@
       <c r="C65" s="10">
         <v>1</v>
       </c>
-      <c r="D65" s="43">
+      <c r="D65" s="42">
         <v>1190</v>
       </c>
-      <c r="E65" s="43">
+      <c r="E65" s="42">
         <f t="shared" si="14"/>
         <v>1190</v>
       </c>
@@ -2333,10 +2218,10 @@
       <c r="J65" s="22">
         <v>2</v>
       </c>
-      <c r="K65" s="44">
+      <c r="K65" s="43">
         <v>12</v>
       </c>
-      <c r="L65" s="44">
+      <c r="L65" s="43">
         <f t="shared" si="13"/>
         <v>24</v>
       </c>
@@ -2348,10 +2233,10 @@
       <c r="C66" s="22">
         <v>4</v>
       </c>
-      <c r="D66" s="44">
+      <c r="D66" s="43">
         <v>12</v>
       </c>
-      <c r="E66" s="44">
+      <c r="E66" s="43">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
@@ -2363,10 +2248,10 @@
       <c r="J66" s="25">
         <v>28</v>
       </c>
-      <c r="K66" s="44">
+      <c r="K66" s="43">
         <v>13</v>
       </c>
-      <c r="L66" s="44">
+      <c r="L66" s="43">
         <f t="shared" si="13"/>
         <v>364</v>
       </c>
@@ -2378,10 +2263,10 @@
       <c r="C67" s="10">
         <v>56</v>
       </c>
-      <c r="D67" s="44">
+      <c r="D67" s="43">
         <v>13</v>
       </c>
-      <c r="E67" s="44">
+      <c r="E67" s="43">
         <f t="shared" si="14"/>
         <v>728</v>
       </c>
@@ -2393,15 +2278,12 @@
       <c r="J67" s="10">
         <v>28</v>
       </c>
-      <c r="K67" s="44">
+      <c r="K67" s="43">
         <v>15</v>
       </c>
-      <c r="L67" s="44">
+      <c r="L67" s="43">
         <f t="shared" si="13"/>
         <v>420</v>
-      </c>
-      <c r="M67">
-        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -2411,79 +2293,79 @@
       <c r="C68" s="10">
         <v>24</v>
       </c>
-      <c r="D68" s="44">
+      <c r="D68" s="43">
         <v>15</v>
       </c>
-      <c r="E68" s="44">
+      <c r="E68" s="43">
         <f t="shared" si="14"/>
         <v>360</v>
       </c>
       <c r="F68" s="27"/>
-      <c r="H68" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="45"/>
-      <c r="L68" s="42">
+      <c r="H68" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="41">
         <f>SUM(L58:L67)</f>
-        <v>21547.71</v>
+        <v>21576.85</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="42">
+      <c r="A69" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="41">
         <f>SUM(E60:E68)</f>
-        <v>30052.7</v>
+        <v>30109.9</v>
       </c>
       <c r="F69" s="27"/>
       <c r="I69" s="12"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
       <c r="F70" s="27"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
       <c r="F71" s="27"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
       <c r="F72" s="23"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
       <c r="F73" s="23"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
       <c r="F74" s="23"/>
       <c r="H74" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I74" s="18"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -2493,18 +2375,18 @@
         <v>9</v>
       </c>
       <c r="C75" s="8"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
       <c r="I75" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K75" s="46" t="s">
+      <c r="K75" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="L75" s="46" t="s">
+      <c r="L75" s="45" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2515,10 +2397,10 @@
       <c r="C76" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="46" t="s">
+      <c r="D76" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="46" t="s">
+      <c r="E76" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I76" s="17" t="s">
@@ -2527,15 +2409,15 @@
       <c r="J76" s="10">
         <v>10</v>
       </c>
-      <c r="K76" s="43">
+      <c r="K76" s="42">
         <v>130</v>
       </c>
-      <c r="L76" s="43">
+      <c r="L76" s="42">
         <f t="shared" ref="L76:L81" si="15">J76*K76</f>
         <v>1300</v>
       </c>
       <c r="M76" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -2545,10 +2427,10 @@
       <c r="C77" s="5">
         <v>1</v>
       </c>
-      <c r="D77" s="43">
+      <c r="D77" s="42">
         <v>450</v>
       </c>
-      <c r="E77" s="43">
+      <c r="E77" s="42">
         <f>D77*C77</f>
         <v>450</v>
       </c>
@@ -2558,10 +2440,10 @@
       <c r="J77" s="10">
         <v>2</v>
       </c>
-      <c r="K77" s="43">
+      <c r="K77" s="42">
         <v>20000</v>
       </c>
-      <c r="L77" s="43">
+      <c r="L77" s="42">
         <f t="shared" si="15"/>
         <v>40000</v>
       </c>
@@ -2573,10 +2455,10 @@
       <c r="C78" s="5">
         <v>2</v>
       </c>
-      <c r="D78" s="43">
+      <c r="D78" s="42">
         <v>1699</v>
       </c>
-      <c r="E78" s="43">
+      <c r="E78" s="42">
         <f t="shared" ref="E78" si="16">D78*C78</f>
         <v>3398</v>
       </c>
@@ -2586,10 +2468,10 @@
       <c r="J78" s="10">
         <v>1</v>
       </c>
-      <c r="K78" s="43">
+      <c r="K78" s="42">
         <v>1400</v>
       </c>
-      <c r="L78" s="43">
+      <c r="L78" s="42">
         <f t="shared" si="15"/>
         <v>1400</v>
       </c>
@@ -2599,27 +2481,28 @@
         <v>18</v>
       </c>
       <c r="C79" s="5">
-        <v>2</v>
-      </c>
-      <c r="D79" s="43">
+        <v>8</v>
+      </c>
+      <c r="D79" s="42">
         <v>0.5</v>
       </c>
-      <c r="E79" s="43">
+      <c r="E79" s="42">
         <f>D79*C79</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I79" s="24" t="s">
         <v>33</v>
       </c>
       <c r="J79" s="10">
-        <v>16</v>
-      </c>
-      <c r="K79" s="43">
+        <f>C14+J14+J30+C34+C50+J48+C66+J65+C82</f>
+        <v>27</v>
+      </c>
+      <c r="K79" s="42">
         <v>12</v>
       </c>
-      <c r="L79" s="43">
+      <c r="L79" s="42">
         <f t="shared" si="15"/>
-        <v>192</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -2629,12 +2512,12 @@
       <c r="C80" s="10">
         <v>23</v>
       </c>
-      <c r="D80" s="43">
-        <v>0.85</v>
-      </c>
-      <c r="E80" s="43">
+      <c r="D80" s="42">
+        <v>0.95</v>
+      </c>
+      <c r="E80" s="42">
         <f>D80*C80</f>
-        <v>19.55</v>
+        <v>21.849999999999998</v>
       </c>
       <c r="I80" s="24" t="s">
         <v>34</v>
@@ -2642,10 +2525,10 @@
       <c r="J80" s="10">
         <v>7</v>
       </c>
-      <c r="K80" s="44">
+      <c r="K80" s="43">
         <v>60</v>
       </c>
-      <c r="L80" s="43">
+      <c r="L80" s="42">
         <f t="shared" si="15"/>
         <v>420</v>
       </c>
@@ -2657,28 +2540,29 @@
       <c r="C81" s="22">
         <v>1</v>
       </c>
-      <c r="D81" s="44">
+      <c r="D81" s="43">
         <v>195</v>
       </c>
-      <c r="E81" s="44">
+      <c r="E81" s="43">
         <f>D81*C81</f>
         <v>195</v>
       </c>
       <c r="I81" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="J81" s="51">
-        <v>89</v>
-      </c>
-      <c r="K81" s="44">
+        <v>48</v>
+      </c>
+      <c r="J81" s="50">
+        <f>C25+C33+J25+C45+J42+C61+J59+C78</f>
+        <v>88</v>
+      </c>
+      <c r="K81" s="43">
         <v>30</v>
       </c>
-      <c r="L81" s="44">
+      <c r="L81" s="43">
         <f t="shared" si="15"/>
-        <v>2670</v>
+        <v>2640</v>
       </c>
       <c r="M81" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -2688,25 +2572,25 @@
       <c r="C82" s="22">
         <v>1</v>
       </c>
-      <c r="D82" s="44">
+      <c r="D82" s="43">
         <v>12</v>
       </c>
-      <c r="E82" s="44">
+      <c r="E82" s="43">
         <f>D82*C82</f>
         <v>12</v>
       </c>
-      <c r="I82" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="J82" s="10">
-        <v>2500</v>
-      </c>
-      <c r="K82" s="52">
-        <v>3</v>
-      </c>
-      <c r="L82" s="53">
+      <c r="I82" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="J82" s="48">
+        <v>20</v>
+      </c>
+      <c r="K82" s="49">
+        <v>6.5</v>
+      </c>
+      <c r="L82" s="49">
         <f>K82*J82</f>
-        <v>7500</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -2716,47 +2600,34 @@
       <c r="C83" s="10">
         <v>8</v>
       </c>
-      <c r="D83" s="44">
+      <c r="D83" s="43">
         <v>13</v>
       </c>
-      <c r="E83" s="44">
+      <c r="E83" s="43">
         <f>D83*C83</f>
         <v>104</v>
       </c>
-      <c r="I83" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="J83" s="49">
-        <v>20</v>
-      </c>
-      <c r="K83" s="50">
-        <v>6.5</v>
-      </c>
-      <c r="L83" s="50">
-        <f>K83*J83</f>
-        <v>130</v>
+      <c r="H83" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="41">
+        <f>SUM(L76:L82)</f>
+        <v>46214</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="42">
+      <c r="A84" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="41">
         <f>SUM(E77:E83)</f>
-        <v>4179.55</v>
-      </c>
-      <c r="H84" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="45"/>
-      <c r="L84" s="42">
-        <f>SUM(L76:L83)</f>
-        <v>53612</v>
+        <v>4184.8500000000004</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2769,7 +2640,7 @@
         <v>39</v>
       </c>
       <c r="J86" s="16">
-        <f>C83+J66+C67+J49+J31+C35+J14+C15</f>
+        <f>C83+J66+C67+J49+J31+C35+J15+C15</f>
         <v>312</v>
       </c>
     </row>
@@ -2783,11 +2654,18 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C88">
-        <f>C30+J28+C48+J62+C64+J45+C80-37.2</f>
-        <v>2500</v>
+        <f>C13+J13+C30+J28+C48+J62+C64+J45+C80-37.2</f>
+        <v>2512.8000000000002</v>
+      </c>
+      <c r="D88" s="42">
+        <v>0.95</v>
+      </c>
+      <c r="E88" s="56">
+        <f>C88*D88</f>
+        <v>2387.16</v>
       </c>
       <c r="J88">
         <f>J87*J86</f>
@@ -2795,12 +2673,12 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F94" s="56" t="s">
+      <c r="F94" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G94" s="56"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="56"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="55"/>
     </row>
     <row r="95" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="F95" s="15"/>
@@ -2814,107 +2692,107 @@
       <c r="F97" s="14"/>
     </row>
     <row r="98" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F98" s="38" t="s">
-        <v>64</v>
+      <c r="F98" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
-      <c r="I98" s="41">
+      <c r="I98" s="40">
         <v>2500</v>
       </c>
     </row>
     <row r="99" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F99" s="38" t="s">
+      <c r="F99" s="37" t="s">
         <v>15</v>
       </c>
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
-      <c r="I99" s="36">
+      <c r="I99" s="35">
         <v>2500</v>
       </c>
     </row>
     <row r="100" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F100" s="38" t="s">
-        <v>69</v>
+      <c r="F100" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
-      <c r="I100" s="39">
+      <c r="I100" s="38">
         <v>3000</v>
       </c>
     </row>
     <row r="101" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F101" s="38" t="s">
+      <c r="F101" s="37" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
-      <c r="I101" s="37">
-        <f>E84+L84+L68+E69+L51+E53+L33+E37+L15+E16+N109</f>
-        <v>276410.21000000002</v>
+      <c r="I101" s="36">
+        <f>E84+L83+L68+E69+L51+E53+L33+E37+L16+E16+N109</f>
+        <v>269510.88500000001</v>
       </c>
     </row>
     <row r="102" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F102" s="38"/>
+      <c r="F102" s="37"/>
       <c r="G102" s="16"/>
       <c r="H102" s="16"/>
-      <c r="I102" s="36"/>
+      <c r="I102" s="35"/>
     </row>
     <row r="103" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F103" s="40" t="s">
-        <v>63</v>
+      <c r="F103" s="39" t="s">
+        <v>46</v>
       </c>
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
-      <c r="I103" s="36">
+      <c r="I103" s="35">
         <f>SUM(I98:I102)</f>
-        <v>284410.21000000002</v>
+        <v>277510.88500000001</v>
       </c>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B106" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C106" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="D106" s="57">
-        <v>1</v>
-      </c>
-      <c r="E106" s="57">
-        <v>2</v>
-      </c>
-      <c r="F106" s="57">
+      <c r="B106" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" s="51">
+        <v>1</v>
+      </c>
+      <c r="E106" s="51">
+        <v>2</v>
+      </c>
+      <c r="F106" s="51">
         <v>3</v>
       </c>
-      <c r="G106" s="57">
+      <c r="G106" s="51">
         <v>4</v>
       </c>
-      <c r="H106" s="57">
+      <c r="H106" s="51">
         <v>5</v>
       </c>
-      <c r="I106" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="J106" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="K106" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="L106" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="M106" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="N106" s="57" t="s">
-        <v>81</v>
+      <c r="I106" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="J106" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="K106" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="L106" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="M106" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="N106" s="51" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B107" s="57" t="s">
-        <v>72</v>
+      <c r="B107" s="51" t="s">
+        <v>54</v>
       </c>
       <c r="C107" s="10">
         <v>20</v>
@@ -2957,8 +2835,8 @@
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B108" s="57" t="s">
-        <v>73</v>
+      <c r="B108" s="51" t="s">
+        <v>55</v>
       </c>
       <c r="C108" s="10">
         <v>50.4</v>
@@ -3022,7 +2900,7 @@
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E112" s="58"/>
+      <c r="E112" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
+++ b/trunk/CABLEADO ESTRUCTURADO/PRESUPUESTO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="8760" yWindow="-120" windowWidth="10275" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="73">
   <si>
     <t>Piso:</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Tablero general</t>
   </si>
   <si>
-    <t>Termica</t>
-  </si>
-  <si>
     <t>Disyuntor</t>
   </si>
   <si>
@@ -168,30 +165,18 @@
     <t>Roseta</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2 x piso</t>
-  </si>
-  <si>
-    <t>1  x PC</t>
-  </si>
-  <si>
     <t>Metros UTP Total:</t>
   </si>
   <si>
     <t>Configuración de equipos puesto de trabajo</t>
   </si>
   <si>
-    <t>Cable entrada corriente 8,25mm</t>
-  </si>
-  <si>
     <t>cable electrico grueso</t>
   </si>
   <si>
     <t>fino</t>
   </si>
   <si>
-    <t>pb</t>
-  </si>
-  <si>
     <t>cable/piso</t>
   </si>
   <si>
@@ -211,6 +196,48 @@
   </si>
   <si>
     <t>Costo</t>
+  </si>
+  <si>
+    <t>pb(10mm)</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>pb entrada10mm</t>
+  </si>
+  <si>
+    <t>pb grueso 4mm</t>
+  </si>
+  <si>
+    <t>1 grueso 4mm</t>
+  </si>
+  <si>
+    <t>2 grueso 4mm</t>
+  </si>
+  <si>
+    <t>3 grueso 4mm</t>
+  </si>
+  <si>
+    <t>4 grueso 4mm</t>
+  </si>
+  <si>
+    <t>5 grueso 4mm</t>
+  </si>
+  <si>
+    <t>1s grueso 1,5mm</t>
+  </si>
+  <si>
+    <t>2sgrueso 1,5mm</t>
+  </si>
+  <si>
+    <t>exp grueso 1,5mm</t>
+  </si>
+  <si>
+    <t>fino 1,5 mm</t>
+  </si>
+  <si>
+    <t>total real</t>
   </si>
 </sst>
 </file>
@@ -220,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +337,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -409,13 +443,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -526,20 +558,13 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,7 +574,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -852,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N112"/>
+  <dimension ref="A3:O112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O115" sqref="O115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,27 +908,27 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E3" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="E3" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1064,7 +1096,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="10">
         <v>1</v>
@@ -1078,7 +1110,7 @@
       </c>
       <c r="F14" s="23"/>
       <c r="I14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J14" s="10">
         <v>1</v>
@@ -1093,7 +1125,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="10">
         <v>6</v>
@@ -1107,7 +1139,7 @@
       </c>
       <c r="F15" s="23"/>
       <c r="I15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J15" s="10">
         <v>6</v>
@@ -1122,7 +1154,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -1133,7 +1165,7 @@
       </c>
       <c r="F16" s="29"/>
       <c r="H16" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
@@ -1283,7 +1315,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -1312,7 +1344,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -1413,7 +1445,7 @@
       </c>
       <c r="F30" s="23"/>
       <c r="I30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J30" s="22">
         <v>5</v>
@@ -1442,7 +1474,7 @@
       </c>
       <c r="F31" s="23"/>
       <c r="I31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J31" s="10">
         <v>84</v>
@@ -1471,7 +1503,7 @@
       </c>
       <c r="F32" s="23"/>
       <c r="I32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J32" s="10">
         <v>15</v>
@@ -1500,7 +1532,7 @@
       </c>
       <c r="F33" s="23"/>
       <c r="H33" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I33" s="33"/>
       <c r="J33" s="33"/>
@@ -1512,7 +1544,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="22">
         <v>3</v>
@@ -1530,7 +1562,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="10">
         <v>40</v>
@@ -1547,7 +1579,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="22">
         <v>1</v>
@@ -1566,7 +1598,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -1793,7 +1825,7 @@
       </c>
       <c r="F47" s="27"/>
       <c r="I47" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J47" s="22">
         <v>1</v>
@@ -1822,7 +1854,7 @@
       </c>
       <c r="F48" s="27"/>
       <c r="I48" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J48" s="22">
         <v>6</v>
@@ -1851,7 +1883,7 @@
       </c>
       <c r="F49" s="23"/>
       <c r="I49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J49" s="10">
         <v>84</v>
@@ -1866,7 +1898,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" s="10">
         <v>4</v>
@@ -1879,7 +1911,7 @@
         <v>48</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J50" s="10">
         <v>20</v>
@@ -1894,7 +1926,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51" s="10">
         <v>56</v>
@@ -1907,7 +1939,7 @@
         <v>728</v>
       </c>
       <c r="H51" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I51" s="33"/>
       <c r="J51" s="33"/>
@@ -1920,7 +1952,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C52" s="10">
         <v>18</v>
@@ -1938,7 +1970,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -2185,7 +2217,7 @@
       </c>
       <c r="F64" s="30"/>
       <c r="I64" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J64" s="22">
         <v>1</v>
@@ -2198,7 +2230,7 @@
         <v>3935</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>19</v>
       </c>
@@ -2213,7 +2245,7 @@
         <v>1190</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J65" s="22">
         <v>2</v>
@@ -2226,9 +2258,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C66" s="22">
         <v>4</v>
@@ -2243,7 +2275,7 @@
       <c r="F66" s="6"/>
       <c r="H66" s="12"/>
       <c r="I66" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J66" s="25">
         <v>28</v>
@@ -2256,9 +2288,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C67" s="10">
         <v>56</v>
@@ -2273,7 +2305,7 @@
       <c r="F67" s="23"/>
       <c r="H67" s="12"/>
       <c r="I67" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J67" s="10">
         <v>28</v>
@@ -2286,9 +2318,9 @@
         <v>420</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C68" s="10">
         <v>24</v>
@@ -2302,7 +2334,7 @@
       </c>
       <c r="F68" s="27"/>
       <c r="H68" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I68" s="33"/>
       <c r="J68" s="33"/>
@@ -2312,9 +2344,9 @@
         <v>21576.85</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
@@ -2328,35 +2360,35 @@
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D70" s="34"/>
       <c r="E70" s="34"/>
       <c r="F70" s="27"/>
       <c r="K70" s="34"/>
       <c r="L70" s="34"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D71" s="34"/>
       <c r="E71" s="34"/>
       <c r="F71" s="27"/>
       <c r="K71" s="34"/>
       <c r="L71" s="34"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D72" s="34"/>
       <c r="E72" s="34"/>
       <c r="F72" s="23"/>
       <c r="K72" s="34"/>
       <c r="L72" s="34"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D73" s="34"/>
       <c r="E73" s="34"/>
       <c r="F73" s="23"/>
       <c r="K73" s="34"/>
       <c r="L73" s="34"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D74" s="34"/>
       <c r="E74" s="34"/>
       <c r="F74" s="23"/>
@@ -2367,7 +2399,7 @@
       <c r="K74" s="34"/>
       <c r="L74" s="34"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -2390,7 +2422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>2</v>
       </c>
@@ -2416,11 +2448,8 @@
         <f t="shared" ref="L76:L81" si="15">J76*K76</f>
         <v>1300</v>
       </c>
-      <c r="M76" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>4</v>
       </c>
@@ -2438,17 +2467,17 @@
         <v>28</v>
       </c>
       <c r="J77" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K77" s="42">
         <v>20000</v>
       </c>
       <c r="L77" s="42">
         <f t="shared" si="15"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>5</v>
       </c>
@@ -2476,7 +2505,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>18</v>
       </c>
@@ -2494,18 +2523,17 @@
         <v>33</v>
       </c>
       <c r="J79" s="10">
-        <f>C14+J14+J30+C34+C50+J48+C66+J65+C82</f>
-        <v>27</v>
-      </c>
-      <c r="K79" s="42">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="K79" s="43">
+        <v>60</v>
       </c>
       <c r="L79" s="42">
-        <f t="shared" si="15"/>
-        <v>324</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+        <f>J79*K79</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>21</v>
       </c>
@@ -2520,17 +2548,18 @@
         <v>21.849999999999998</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J80" s="10">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="J80" s="47">
+        <f>C25+C33+J25+C45+J42+C61+J59+C78</f>
+        <v>88</v>
       </c>
       <c r="K80" s="43">
-        <v>60</v>
-      </c>
-      <c r="L80" s="42">
-        <f t="shared" si="15"/>
-        <v>420</v>
+        <v>30</v>
+      </c>
+      <c r="L80" s="43">
+        <f>J80*K80</f>
+        <v>2640</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -2547,27 +2576,20 @@
         <f>D81*C81</f>
         <v>195</v>
       </c>
-      <c r="I81" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J81" s="50">
-        <f>C25+C33+J25+C45+J42+C61+J59+C78</f>
-        <v>88</v>
-      </c>
-      <c r="K81" s="43">
-        <v>30</v>
-      </c>
-      <c r="L81" s="43">
-        <f t="shared" si="15"/>
-        <v>2640</v>
-      </c>
-      <c r="M81" t="s">
-        <v>50</v>
+      <c r="H81" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="41">
+        <f>SUM(L76:L80)</f>
+        <v>25760</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C82" s="22">
         <v>1</v>
@@ -2579,23 +2601,14 @@
         <f>D82*C82</f>
         <v>12</v>
       </c>
-      <c r="I82" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="J82" s="48">
-        <v>20</v>
-      </c>
-      <c r="K82" s="49">
-        <v>6.5</v>
-      </c>
-      <c r="L82" s="49">
-        <f>K82*J82</f>
-        <v>130</v>
-      </c>
+      <c r="I82" s="53"/>
+      <c r="J82" s="54"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="11"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C83" s="10">
         <v>8</v>
@@ -2607,20 +2620,10 @@
         <f>D83*C83</f>
         <v>104</v>
       </c>
-      <c r="H83" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="I83" s="33"/>
-      <c r="J83" s="33"/>
-      <c r="K83" s="44"/>
-      <c r="L83" s="41">
-        <f>SUM(L76:L82)</f>
-        <v>46214</v>
-      </c>
     </row>
     <row r="84" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
@@ -2637,7 +2640,7 @@
     </row>
     <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I86" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J86" s="16">
         <f>C83+J66+C67+J49+J31+C35+J15+C15</f>
@@ -2646,7 +2649,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I87" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J87">
         <v>13</v>
@@ -2654,7 +2657,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C88">
         <f>C13+J13+C30+J28+C48+J62+C64+J45+C80-37.2</f>
@@ -2663,7 +2666,7 @@
       <c r="D88" s="42">
         <v>0.95</v>
       </c>
-      <c r="E88" s="56">
+      <c r="E88" s="49">
         <f>C88*D88</f>
         <v>2387.16</v>
       </c>
@@ -2673,12 +2676,12 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F94" s="55" t="s">
+      <c r="F94" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="G94" s="55"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="55"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="52"/>
+      <c r="I94" s="52"/>
     </row>
     <row r="95" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="F95" s="15"/>
@@ -2688,12 +2691,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F97" s="14"/>
     </row>
-    <row r="98" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F98" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
@@ -2701,7 +2704,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="99" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F99" s="37" t="s">
         <v>15</v>
       </c>
@@ -2711,9 +2714,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="100" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F100" s="37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
@@ -2721,125 +2724,122 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F101" s="37" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
       <c r="I101" s="36">
-        <f>E84+L83+L68+E69+L51+E53+L33+E37+L16+E16+N109</f>
-        <v>269510.88500000001</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <f>E84+L81+L68+E69+L51+E53+L33+E37+L16+E16+N110</f>
+        <v>246884.48620000001</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F102" s="37"/>
       <c r="G102" s="16"/>
       <c r="H102" s="16"/>
       <c r="I102" s="35"/>
     </row>
-    <row r="103" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F103" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
       <c r="I103" s="35">
         <f>SUM(I98:I102)</f>
-        <v>277510.88500000001</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B106" s="51" t="s">
+        <v>254884.48620000001</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B106" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" s="48">
+        <v>1</v>
+      </c>
+      <c r="E106" s="48">
+        <v>2</v>
+      </c>
+      <c r="F106" s="48">
+        <v>3</v>
+      </c>
+      <c r="G106" s="48">
+        <v>4</v>
+      </c>
+      <c r="H106" s="48">
+        <v>5</v>
+      </c>
+      <c r="I106" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="J106" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="K106" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="L106" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="M106" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C106" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="D106" s="51">
-        <v>1</v>
-      </c>
-      <c r="E106" s="51">
-        <v>2</v>
-      </c>
-      <c r="F106" s="51">
-        <v>3</v>
-      </c>
-      <c r="G106" s="51">
-        <v>4</v>
-      </c>
-      <c r="H106" s="51">
-        <v>5</v>
-      </c>
-      <c r="I106" s="51" t="s">
+      <c r="N106" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="J106" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="K106" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="L106" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="M106" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="N106" s="51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B107" s="51" t="s">
-        <v>54</v>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B107" s="48" t="s">
+        <v>50</v>
       </c>
       <c r="C107" s="10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D107" s="10">
-        <v>4.5</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="E107" s="10">
-        <v>4.5</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="F107" s="10">
-        <v>4.5</v>
+        <v>12.05</v>
       </c>
       <c r="G107" s="10">
-        <v>4.5</v>
+        <v>15.9</v>
       </c>
       <c r="H107" s="10">
-        <v>4.5</v>
+        <v>19.2</v>
       </c>
       <c r="I107" s="10">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="J107" s="10">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="K107" s="10">
         <v>15</v>
       </c>
-      <c r="L107" s="10">
-        <f>SUM(C107:K107)</f>
-        <v>66.5</v>
-      </c>
+      <c r="L107" s="10"/>
       <c r="M107" s="17">
-        <f>1.5*5</f>
-        <v>7.5</v>
+        <f>1.5*6</f>
+        <v>9</v>
       </c>
       <c r="N107" s="17">
-        <f>M107*(L107+L107*0.1)</f>
-        <v>548.625</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B108" s="51" t="s">
-        <v>55</v>
+        <f>M107*(C107+C107*0.1)</f>
+        <v>217.79999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B108" s="48" t="s">
+        <v>51</v>
       </c>
       <c r="C108" s="10">
-        <v>50.4</v>
+        <v>62.4</v>
       </c>
       <c r="D108" s="10">
         <v>326</v>
@@ -2867,40 +2867,103 @@
       </c>
       <c r="L108" s="10">
         <f>SUM(C108:K108)</f>
-        <v>1065.2999999999997</v>
+        <v>1077.3</v>
       </c>
       <c r="M108" s="17"/>
       <c r="N108" s="17">
-        <f>F110+G110</f>
-        <v>2520.7600000000002</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <f>L108*0.55</f>
+        <v>592.51499999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F109">
-        <f>0.24*5</f>
-        <v>1.2</v>
-      </c>
-      <c r="G109">
-        <f>0.56*5</f>
-        <v>2.8000000000000003</v>
+        <f>0.24*6</f>
+        <v>1.44</v>
       </c>
       <c r="N109">
-        <f>N107+N108</f>
-        <v>3069.3850000000002</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <f>SUM(H107:K107)*0.55 +F110</f>
+        <v>86.671199999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F110">
-        <f>F109*(SUM(H108:K108)+C108)</f>
-        <v>346.56</v>
-      </c>
-      <c r="G110">
-        <f>G109*SUM(D108:G108)</f>
-        <v>2174.2000000000003</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E112" s="52"/>
+        <f>F109*(SUM(D107:G107)+2)</f>
+        <v>62.251200000000004</v>
+      </c>
+      <c r="M110" t="s">
+        <v>60</v>
+      </c>
+      <c r="N110">
+        <f>SUM(N107:N109)</f>
+        <v>896.98619999999994</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>61</v>
+      </c>
+      <c r="C111" t="s">
+        <v>62</v>
+      </c>
+      <c r="D111" t="s">
+        <v>63</v>
+      </c>
+      <c r="E111" t="s">
+        <v>64</v>
+      </c>
+      <c r="F111" t="s">
+        <v>65</v>
+      </c>
+      <c r="G111" t="s">
+        <v>66</v>
+      </c>
+      <c r="H111" t="s">
+        <v>67</v>
+      </c>
+      <c r="I111" t="s">
+        <v>68</v>
+      </c>
+      <c r="J111" t="s">
+        <v>69</v>
+      </c>
+      <c r="K111" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>71</v>
+      </c>
+      <c r="D112" t="s">
+        <v>71</v>
+      </c>
+      <c r="E112" t="s">
+        <v>71</v>
+      </c>
+      <c r="F112" t="s">
+        <v>71</v>
+      </c>
+      <c r="G112" t="s">
+        <v>71</v>
+      </c>
+      <c r="H112" t="s">
+        <v>71</v>
+      </c>
+      <c r="I112" t="s">
+        <v>71</v>
+      </c>
+      <c r="J112" t="s">
+        <v>71</v>
+      </c>
+      <c r="K112" t="s">
+        <v>71</v>
+      </c>
+      <c r="N112" s="56">
+        <v>652.1</v>
+      </c>
+      <c r="O112" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
